--- a/icf185.xlsx
+++ b/icf185.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="0" windowWidth="21060" windowHeight="15360"/>
+    <workbookView xWindow="3340" yWindow="0" windowWidth="21060" windowHeight="15360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="icf.185" sheetId="1" r:id="rId1"/>
@@ -889,8 +889,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -978,19 +984,25 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="19">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1390,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
-      <selection activeCell="BR21" sqref="BR21"/>
+    <sheetView topLeftCell="BL1" workbookViewId="0">
+      <selection activeCell="BR13" sqref="BR13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2322,10 +2334,10 @@
         <v>-0.2</v>
       </c>
       <c r="BQ4" s="27">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="BR4" s="27">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="5" spans="1:70">
@@ -2534,10 +2546,10 @@
         <v>-0.2</v>
       </c>
       <c r="BQ5" s="27">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="BR5" s="27">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="6" spans="1:70">
@@ -2958,10 +2970,10 @@
         <v>0.7</v>
       </c>
       <c r="BQ7" s="27">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="BR7" s="27">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:70">
@@ -4018,10 +4030,10 @@
         <v>1555</v>
       </c>
       <c r="BQ12" s="20">
-        <v>1580</v>
+        <v>1555</v>
       </c>
       <c r="BR12" s="20">
-        <v>1580</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="13" spans="1:70" s="22" customFormat="1">
@@ -12900,8 +12912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR55"/>
   <sheetViews>
-    <sheetView topLeftCell="BJ1" workbookViewId="0">
-      <selection activeCell="BR32" sqref="BR32"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
+      <selection activeCell="BR9" sqref="BR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14894,10 +14906,10 @@
         <v>0.34100000000000003</v>
       </c>
       <c r="BQ9" s="20">
-        <v>0.34100000000000003</v>
+        <v>0.34</v>
       </c>
       <c r="BR9" s="20">
-        <v>0.34100000000000003</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="10" spans="1:70" s="18" customFormat="1">
@@ -24473,7 +24485,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -25776,10 +25788,10 @@
     <row r="70" spans="1:5">
       <c r="A70" s="1">
         <f>+B70-693960</f>
-        <v>42162</v>
+        <v>42161</v>
       </c>
       <c r="B70" s="4">
-        <v>736122</v>
+        <v>736121</v>
       </c>
       <c r="C70" t="s">
         <v>263</v>

--- a/icf185.xlsx
+++ b/icf185.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="265">
   <si>
     <t>#</t>
   </si>
@@ -815,6 +815,9 @@
   <si>
     <t>"Huelva 2025"</t>
   </si>
+  <si>
+    <t>IOS 2015</t>
+  </si>
 </sst>
 </file>
 
@@ -889,8 +892,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -984,7 +1011,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="43">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -994,6 +1021,18 @@
     <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1003,6 +1042,18 @@
     <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1400,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR55"/>
+  <dimension ref="A1:BU55"/>
   <sheetViews>
     <sheetView topLeftCell="BL1" workbookViewId="0">
-      <selection activeCell="BR13" sqref="BR13"/>
+      <selection activeCell="BS2" sqref="BS2:BU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1428,7 +1479,7 @@
     <col min="33" max="16384" width="11.33203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="21" customFormat="1">
+    <row r="1" spans="1:73" s="21" customFormat="1">
       <c r="A1" s="7"/>
       <c r="B1" s="20"/>
       <c r="C1" s="21">
@@ -1560,7 +1611,7 @@
         <v>40756</v>
       </c>
       <c r="AI1" s="21">
-        <f t="shared" ref="AI1:BR1" si="3">+AI2-693960</f>
+        <f t="shared" ref="AI1:BU1" si="3">+AI2-693960</f>
         <v>40855</v>
       </c>
       <c r="AJ1" s="21">
@@ -1703,8 +1754,20 @@
         <f t="shared" si="3"/>
         <v>42138</v>
       </c>
+      <c r="BS1" s="21">
+        <f t="shared" si="3"/>
+        <v>42146</v>
+      </c>
+      <c r="BT1" s="21">
+        <f t="shared" si="3"/>
+        <v>42161</v>
+      </c>
+      <c r="BU1" s="21">
+        <f t="shared" si="3"/>
+        <v>42165</v>
+      </c>
     </row>
-    <row r="2" spans="1:70" s="22" customFormat="1">
+    <row r="2" spans="1:73" s="22" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1915,8 +1978,17 @@
       <c r="BR2" s="13">
         <v>736098</v>
       </c>
+      <c r="BS2" s="4">
+        <v>736106</v>
+      </c>
+      <c r="BT2" s="4">
+        <v>736121</v>
+      </c>
+      <c r="BU2" s="4">
+        <v>736125</v>
+      </c>
     </row>
-    <row r="3" spans="1:70" ht="18" customHeight="1">
+    <row r="3" spans="1:73" ht="18" customHeight="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -2127,8 +2199,17 @@
       <c r="BR3" s="27">
         <v>0</v>
       </c>
+      <c r="BS3" s="27">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="27">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:70">
+    <row r="4" spans="1:73">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -2339,8 +2420,17 @@
       <c r="BR4" s="27">
         <v>-0.2</v>
       </c>
+      <c r="BS4" s="27">
+        <v>-0.2</v>
+      </c>
+      <c r="BT4" s="27">
+        <v>-0.2</v>
+      </c>
+      <c r="BU4" s="27">
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="5" spans="1:70">
+    <row r="5" spans="1:73">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -2551,8 +2641,17 @@
       <c r="BR5" s="27">
         <v>-0.2</v>
       </c>
+      <c r="BS5" s="27">
+        <v>-0.2</v>
+      </c>
+      <c r="BT5" s="27">
+        <v>-0.2</v>
+      </c>
+      <c r="BU5" s="27">
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:70">
+    <row r="6" spans="1:73">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -2763,8 +2862,17 @@
       <c r="BR6" s="27">
         <v>0</v>
       </c>
+      <c r="BS6" s="27">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="27">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:70">
+    <row r="7" spans="1:73">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -2975,8 +3083,17 @@
       <c r="BR7" s="27">
         <v>0.7</v>
       </c>
+      <c r="BS7" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="BT7" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="BU7" s="27">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="8" spans="1:70">
+    <row r="8" spans="1:73">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -3187,8 +3304,17 @@
       <c r="BR8" s="20">
         <v>0</v>
       </c>
+      <c r="BS8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:70">
+    <row r="9" spans="1:73">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -3399,8 +3525,17 @@
       <c r="BR9" s="20">
         <v>0.34100000000000003</v>
       </c>
+      <c r="BS9" s="20">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="BT9" s="20">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="BU9" s="20">
+        <v>0.34100000000000003</v>
+      </c>
     </row>
-    <row r="10" spans="1:70">
+    <row r="10" spans="1:73">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -3611,8 +3746,17 @@
       <c r="BR10" s="20">
         <v>2.35</v>
       </c>
+      <c r="BS10" s="20">
+        <v>2.35</v>
+      </c>
+      <c r="BT10" s="20">
+        <v>2.35</v>
+      </c>
+      <c r="BU10" s="20">
+        <v>2.35</v>
+      </c>
     </row>
-    <row r="11" spans="1:70">
+    <row r="11" spans="1:73">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -3823,8 +3967,17 @@
       <c r="BR11" s="31">
         <v>11495</v>
       </c>
+      <c r="BS11" s="31">
+        <v>11495</v>
+      </c>
+      <c r="BT11" s="31">
+        <v>11495</v>
+      </c>
+      <c r="BU11" s="31">
+        <v>11495</v>
+      </c>
     </row>
-    <row r="12" spans="1:70" s="22" customFormat="1" ht="17.25" customHeight="1">
+    <row r="12" spans="1:73" s="22" customFormat="1" ht="17.25" customHeight="1">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -4035,8 +4188,17 @@
       <c r="BR12" s="20">
         <v>1555</v>
       </c>
+      <c r="BS12" s="20">
+        <v>1555</v>
+      </c>
+      <c r="BT12" s="20">
+        <v>1555</v>
+      </c>
+      <c r="BU12" s="20">
+        <v>1555</v>
+      </c>
     </row>
-    <row r="13" spans="1:70" s="22" customFormat="1">
+    <row r="13" spans="1:73" s="22" customFormat="1">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -4247,8 +4409,17 @@
       <c r="BR13" s="20">
         <v>80</v>
       </c>
+      <c r="BS13" s="20">
+        <v>80</v>
+      </c>
+      <c r="BT13" s="20">
+        <v>80</v>
+      </c>
+      <c r="BU13" s="20">
+        <v>80</v>
+      </c>
     </row>
-    <row r="14" spans="1:70" s="32" customFormat="1" ht="17.25" customHeight="1">
+    <row r="14" spans="1:73" s="32" customFormat="1" ht="17.25" customHeight="1">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -4459,8 +4630,17 @@
       <c r="BR14" s="32">
         <v>2.9000000000000002E-8</v>
       </c>
+      <c r="BS14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
+      <c r="BT14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
+      <c r="BU14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
     </row>
-    <row r="15" spans="1:70" s="22" customFormat="1" ht="16.5" customHeight="1">
+    <row r="15" spans="1:73" s="22" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -4671,8 +4851,17 @@
       <c r="BR15" s="20">
         <v>1020</v>
       </c>
+      <c r="BS15" s="20">
+        <v>1020</v>
+      </c>
+      <c r="BT15" s="20">
+        <v>1020</v>
+      </c>
+      <c r="BU15" s="20">
+        <v>1020</v>
+      </c>
     </row>
-    <row r="16" spans="1:70" s="22" customFormat="1" ht="16.5" customHeight="1">
+    <row r="16" spans="1:73" s="22" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -4883,8 +5072,17 @@
       <c r="BR16" s="20">
         <v>14</v>
       </c>
+      <c r="BS16" s="20">
+        <v>14</v>
+      </c>
+      <c r="BT16" s="20">
+        <v>14</v>
+      </c>
+      <c r="BU16" s="20">
+        <v>14</v>
+      </c>
     </row>
-    <row r="17" spans="1:70" s="22" customFormat="1" ht="16.5" customHeight="1">
+    <row r="17" spans="1:73" s="22" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -5095,8 +5293,17 @@
       <c r="BR17" s="20">
         <v>2423</v>
       </c>
+      <c r="BS17" s="20">
+        <v>2423</v>
+      </c>
+      <c r="BT17" s="20">
+        <v>2423</v>
+      </c>
+      <c r="BU17" s="20">
+        <v>2423</v>
+      </c>
     </row>
-    <row r="18" spans="1:70" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:73" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -5307,8 +5514,17 @@
       <c r="BR18" s="20">
         <v>0</v>
       </c>
+      <c r="BS18" s="20">
+        <v>0</v>
+      </c>
+      <c r="BT18" s="20">
+        <v>0</v>
+      </c>
+      <c r="BU18" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:70" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:73" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -5519,8 +5735,17 @@
       <c r="BR19" s="22">
         <v>4370</v>
       </c>
+      <c r="BS19" s="22">
+        <v>4370</v>
+      </c>
+      <c r="BT19" s="22">
+        <v>4370</v>
+      </c>
+      <c r="BU19" s="22">
+        <v>4370</v>
+      </c>
     </row>
-    <row r="20" spans="1:70" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:73" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -5731,8 +5956,17 @@
       <c r="BR20" s="22">
         <v>10250</v>
       </c>
+      <c r="BS20" s="22">
+        <v>10250</v>
+      </c>
+      <c r="BT20" s="22">
+        <v>10250</v>
+      </c>
+      <c r="BU20" s="22">
+        <v>10250</v>
+      </c>
     </row>
-    <row r="21" spans="1:70" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:73" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -5943,8 +6177,17 @@
       <c r="BR21" s="22">
         <v>14150</v>
       </c>
+      <c r="BS21" s="22">
+        <v>14150</v>
+      </c>
+      <c r="BT21" s="22">
+        <v>14150</v>
+      </c>
+      <c r="BU21" s="22">
+        <v>14150</v>
+      </c>
     </row>
-    <row r="22" spans="1:70" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:73" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -6155,8 +6398,17 @@
       <c r="BR22" s="22">
         <v>21800</v>
       </c>
+      <c r="BS22" s="22">
+        <v>21800</v>
+      </c>
+      <c r="BT22" s="22">
+        <v>21800</v>
+      </c>
+      <c r="BU22" s="22">
+        <v>21800</v>
+      </c>
     </row>
-    <row r="23" spans="1:70" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:73" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -6367,8 +6619,17 @@
       <c r="BR23" s="22">
         <v>26400</v>
       </c>
+      <c r="BS23" s="22">
+        <v>26400</v>
+      </c>
+      <c r="BT23" s="22">
+        <v>26400</v>
+      </c>
+      <c r="BU23" s="22">
+        <v>26400</v>
+      </c>
     </row>
-    <row r="24" spans="1:70" s="22" customFormat="1">
+    <row r="24" spans="1:73" s="22" customFormat="1">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -6579,8 +6840,17 @@
       <c r="BR24" s="22">
         <v>2972</v>
       </c>
+      <c r="BS24" s="22">
+        <v>2972</v>
+      </c>
+      <c r="BT24" s="22">
+        <v>2972</v>
+      </c>
+      <c r="BU24" s="22">
+        <v>2972</v>
+      </c>
     </row>
-    <row r="25" spans="1:70" s="22" customFormat="1">
+    <row r="25" spans="1:73" s="22" customFormat="1">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -6791,8 +7061,17 @@
       <c r="BR25" s="20">
         <v>3</v>
       </c>
+      <c r="BS25" s="20">
+        <v>3</v>
+      </c>
+      <c r="BT25" s="20">
+        <v>3</v>
+      </c>
+      <c r="BU25" s="20">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:70" s="22" customFormat="1">
+    <row r="26" spans="1:73" s="22" customFormat="1">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -7003,8 +7282,17 @@
       <c r="BR26" s="25">
         <v>1</v>
       </c>
+      <c r="BS26" s="25">
+        <v>1</v>
+      </c>
+      <c r="BT26" s="25">
+        <v>1</v>
+      </c>
+      <c r="BU26" s="25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:70">
+    <row r="27" spans="1:73">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -7215,8 +7503,17 @@
       <c r="BR27" s="26">
         <v>0</v>
       </c>
+      <c r="BS27" s="26">
+        <v>0</v>
+      </c>
+      <c r="BT27" s="26">
+        <v>0</v>
+      </c>
+      <c r="BU27" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:70">
+    <row r="28" spans="1:73">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -7427,8 +7724,17 @@
       <c r="BR28" s="20">
         <v>312</v>
       </c>
+      <c r="BS28" s="20">
+        <v>312</v>
+      </c>
+      <c r="BT28" s="20">
+        <v>312</v>
+      </c>
+      <c r="BU28" s="20">
+        <v>312</v>
+      </c>
     </row>
-    <row r="29" spans="1:70">
+    <row r="29" spans="1:73">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -7639,8 +7945,17 @@
       <c r="BR29" s="26">
         <v>490</v>
       </c>
+      <c r="BS29" s="26">
+        <v>490</v>
+      </c>
+      <c r="BT29" s="26">
+        <v>490</v>
+      </c>
+      <c r="BU29" s="26">
+        <v>490</v>
+      </c>
     </row>
-    <row r="30" spans="1:70">
+    <row r="30" spans="1:73">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -7851,8 +8166,17 @@
       <c r="BR30" s="26">
         <v>0</v>
       </c>
+      <c r="BS30" s="26">
+        <v>0</v>
+      </c>
+      <c r="BT30" s="26">
+        <v>0</v>
+      </c>
+      <c r="BU30" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:70">
+    <row r="31" spans="1:73">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -8063,8 +8387,17 @@
       <c r="BR31" s="29">
         <v>11</v>
       </c>
+      <c r="BS31" s="29">
+        <v>11</v>
+      </c>
+      <c r="BT31" s="29">
+        <v>11</v>
+      </c>
+      <c r="BU31" s="29">
+        <v>11</v>
+      </c>
     </row>
-    <row r="32" spans="1:70">
+    <row r="32" spans="1:73">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -8275,8 +8608,17 @@
       <c r="BR32" s="26">
         <v>9</v>
       </c>
+      <c r="BS32" s="26">
+        <v>9</v>
+      </c>
+      <c r="BT32" s="26">
+        <v>9</v>
+      </c>
+      <c r="BU32" s="26">
+        <v>9</v>
+      </c>
     </row>
-    <row r="33" spans="1:70">
+    <row r="33" spans="1:73">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -8487,8 +8829,17 @@
       <c r="BR33" s="26">
         <v>0</v>
       </c>
+      <c r="BS33" s="26">
+        <v>0</v>
+      </c>
+      <c r="BT33" s="26">
+        <v>0</v>
+      </c>
+      <c r="BU33" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:70">
+    <row r="34" spans="1:73">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -8699,8 +9050,17 @@
       <c r="BR34" s="26">
         <v>0</v>
       </c>
+      <c r="BS34" s="26">
+        <v>0</v>
+      </c>
+      <c r="BT34" s="26">
+        <v>0</v>
+      </c>
+      <c r="BU34" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:70" s="22" customFormat="1">
+    <row r="35" spans="1:73" s="22" customFormat="1">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -8911,8 +9271,17 @@
       <c r="BR35" s="20">
         <v>0</v>
       </c>
+      <c r="BS35" s="20">
+        <v>0</v>
+      </c>
+      <c r="BT35" s="20">
+        <v>0</v>
+      </c>
+      <c r="BU35" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:70" s="22" customFormat="1">
+    <row r="36" spans="1:73" s="22" customFormat="1">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -9123,8 +9492,17 @@
       <c r="BR36" s="20">
         <v>242</v>
       </c>
+      <c r="BS36" s="20">
+        <v>242</v>
+      </c>
+      <c r="BT36" s="20">
+        <v>242</v>
+      </c>
+      <c r="BU36" s="20">
+        <v>242</v>
+      </c>
     </row>
-    <row r="37" spans="1:70" s="22" customFormat="1">
+    <row r="37" spans="1:73" s="22" customFormat="1">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -9335,8 +9713,17 @@
       <c r="BR37" s="25" t="s">
         <v>253</v>
       </c>
+      <c r="BS37" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="BT37" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="BU37" s="25" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="38" spans="1:70" s="22" customFormat="1">
+    <row r="38" spans="1:73" s="22" customFormat="1">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -9547,8 +9934,17 @@
       <c r="BR38" s="25">
         <v>114858349</v>
       </c>
+      <c r="BS38" s="25">
+        <v>114858349</v>
+      </c>
+      <c r="BT38" s="25">
+        <v>114858349</v>
+      </c>
+      <c r="BU38" s="25">
+        <v>114858349</v>
+      </c>
     </row>
-    <row r="39" spans="1:70" s="22" customFormat="1">
+    <row r="39" spans="1:73" s="22" customFormat="1">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -9759,8 +10155,17 @@
       <c r="BR39" s="25">
         <v>92010460</v>
       </c>
+      <c r="BS39" s="25">
+        <v>92010460</v>
+      </c>
+      <c r="BT39" s="25">
+        <v>92010460</v>
+      </c>
+      <c r="BU39" s="25">
+        <v>92010460</v>
+      </c>
     </row>
-    <row r="40" spans="1:70" s="22" customFormat="1">
+    <row r="40" spans="1:73" s="22" customFormat="1">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -9971,8 +10376,17 @@
       <c r="BR40" s="25">
         <v>151909779</v>
       </c>
+      <c r="BS40" s="25">
+        <v>151909779</v>
+      </c>
+      <c r="BT40" s="25">
+        <v>151909779</v>
+      </c>
+      <c r="BU40" s="25">
+        <v>151909779</v>
+      </c>
     </row>
-    <row r="41" spans="1:70" s="22" customFormat="1">
+    <row r="41" spans="1:73" s="22" customFormat="1">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -10183,8 +10597,17 @@
       <c r="BR41" s="25">
         <v>155024648</v>
       </c>
+      <c r="BS41" s="25">
+        <v>155024648</v>
+      </c>
+      <c r="BT41" s="25">
+        <v>155024648</v>
+      </c>
+      <c r="BU41" s="25">
+        <v>155024648</v>
+      </c>
     </row>
-    <row r="42" spans="1:70" s="22" customFormat="1">
+    <row r="42" spans="1:73" s="22" customFormat="1">
       <c r="A42" s="7">
         <v>40</v>
       </c>
@@ -10395,8 +10818,17 @@
       <c r="BR42" s="25">
         <v>170169377</v>
       </c>
+      <c r="BS42" s="25">
+        <v>170169377</v>
+      </c>
+      <c r="BT42" s="25">
+        <v>170169377</v>
+      </c>
+      <c r="BU42" s="25">
+        <v>170169377</v>
+      </c>
     </row>
-    <row r="43" spans="1:70">
+    <row r="43" spans="1:73">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -10607,8 +11039,17 @@
       <c r="BR43" s="26">
         <v>1.0049999999999999</v>
       </c>
+      <c r="BS43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="BT43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="BU43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
     </row>
-    <row r="44" spans="1:70">
+    <row r="44" spans="1:73">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -10819,8 +11260,17 @@
       <c r="BR44" s="26">
         <v>-10</v>
       </c>
+      <c r="BS44" s="26">
+        <v>-10</v>
+      </c>
+      <c r="BT44" s="26">
+        <v>-10</v>
+      </c>
+      <c r="BU44" s="26">
+        <v>-10</v>
+      </c>
     </row>
-    <row r="45" spans="1:70" s="22" customFormat="1" ht="11.25" customHeight="1">
+    <row r="45" spans="1:73" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -11031,8 +11481,17 @@
       <c r="BR45" s="20">
         <v>1733</v>
       </c>
+      <c r="BS45" s="20">
+        <v>1733</v>
+      </c>
+      <c r="BT45" s="20">
+        <v>1733</v>
+      </c>
+      <c r="BU45" s="20">
+        <v>1733</v>
+      </c>
     </row>
-    <row r="46" spans="1:70" s="22" customFormat="1">
+    <row r="46" spans="1:73" s="22" customFormat="1">
       <c r="A46" s="7">
         <v>44</v>
       </c>
@@ -11243,8 +11702,17 @@
       <c r="BR46" s="20">
         <v>250</v>
       </c>
+      <c r="BS46" s="20">
+        <v>250</v>
+      </c>
+      <c r="BT46" s="20">
+        <v>250</v>
+      </c>
+      <c r="BU46" s="20">
+        <v>250</v>
+      </c>
     </row>
-    <row r="47" spans="1:70" s="22" customFormat="1">
+    <row r="47" spans="1:73" s="22" customFormat="1">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -11455,8 +11923,17 @@
       <c r="BR47" s="20">
         <v>0.4</v>
       </c>
+      <c r="BS47" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="BT47" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="BU47" s="20">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="48" spans="1:70" s="22" customFormat="1">
+    <row r="48" spans="1:73" s="22" customFormat="1">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -11667,8 +12144,17 @@
       <c r="BR48" s="20">
         <v>64</v>
       </c>
+      <c r="BS48" s="20">
+        <v>64</v>
+      </c>
+      <c r="BT48" s="20">
+        <v>64</v>
+      </c>
+      <c r="BU48" s="20">
+        <v>64</v>
+      </c>
     </row>
-    <row r="49" spans="1:70" s="22" customFormat="1">
+    <row r="49" spans="1:73" s="22" customFormat="1">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -11879,8 +12365,17 @@
       <c r="BR49" s="20">
         <v>256</v>
       </c>
+      <c r="BS49" s="20">
+        <v>256</v>
+      </c>
+      <c r="BT49" s="20">
+        <v>256</v>
+      </c>
+      <c r="BU49" s="20">
+        <v>256</v>
+      </c>
     </row>
-    <row r="50" spans="1:70" s="22" customFormat="1">
+    <row r="50" spans="1:73" s="22" customFormat="1">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -12091,8 +12586,17 @@
       <c r="BR50" s="20">
         <v>0</v>
       </c>
+      <c r="BS50" s="20">
+        <v>0</v>
+      </c>
+      <c r="BT50" s="20">
+        <v>0</v>
+      </c>
+      <c r="BU50" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:70" s="22" customFormat="1">
+    <row r="51" spans="1:73" s="22" customFormat="1">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -12303,8 +12807,17 @@
       <c r="BR51" s="20">
         <v>0</v>
       </c>
+      <c r="BS51" s="20">
+        <v>0</v>
+      </c>
+      <c r="BT51" s="20">
+        <v>0</v>
+      </c>
+      <c r="BU51" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:70" s="22" customFormat="1">
+    <row r="52" spans="1:73" s="22" customFormat="1">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -12515,8 +13028,17 @@
       <c r="BR52" s="20">
         <v>0</v>
       </c>
+      <c r="BS52" s="20">
+        <v>0</v>
+      </c>
+      <c r="BT52" s="20">
+        <v>0</v>
+      </c>
+      <c r="BU52" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:70" s="22" customFormat="1">
+    <row r="53" spans="1:73" s="22" customFormat="1">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -12727,8 +13249,17 @@
       <c r="BR53" s="20">
         <v>2224</v>
       </c>
+      <c r="BS53" s="20">
+        <v>2224</v>
+      </c>
+      <c r="BT53" s="20">
+        <v>2224</v>
+      </c>
+      <c r="BU53" s="20">
+        <v>2224</v>
+      </c>
     </row>
-    <row r="54" spans="1:70">
+    <row r="54" spans="1:73">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -12871,8 +13402,17 @@
       <c r="BR54" s="28" t="s">
         <v>76</v>
       </c>
+      <c r="BS54" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT54" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU54" s="28" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="55" spans="1:70">
+    <row r="55" spans="1:73">
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
@@ -12910,10 +13450,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR55"/>
+  <dimension ref="A1:BU55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
-      <selection activeCell="BR9" sqref="BR9"/>
+      <selection activeCell="BS2" sqref="BS2:BU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12936,11 +13476,11 @@
     <col min="27" max="31" width="11.5" style="9" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11.5" style="9" customWidth="1"/>
     <col min="33" max="43" width="11.33203125" style="9" customWidth="1"/>
-    <col min="44" max="70" width="11.5" style="9"/>
-    <col min="71" max="16384" width="11.5" style="17"/>
+    <col min="44" max="73" width="11.5" style="9"/>
+    <col min="74" max="16384" width="11.5" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="16" customFormat="1">
+    <row r="1" spans="1:73" s="16" customFormat="1">
       <c r="A1" s="7"/>
       <c r="B1" s="20"/>
       <c r="C1" s="21">
@@ -13215,8 +13755,20 @@
         <f>+BR2-693960</f>
         <v>42138</v>
       </c>
+      <c r="BS1" s="21">
+        <f>+BS2-693960</f>
+        <v>42146</v>
+      </c>
+      <c r="BT1" s="21">
+        <f>+BT2-693960</f>
+        <v>42161</v>
+      </c>
+      <c r="BU1" s="21">
+        <f>+BU2-693960</f>
+        <v>42165</v>
+      </c>
     </row>
-    <row r="2" spans="1:70">
+    <row r="2" spans="1:73">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -13427,8 +13979,17 @@
       <c r="BR2" s="13">
         <v>736098</v>
       </c>
+      <c r="BS2" s="4">
+        <v>736106</v>
+      </c>
+      <c r="BT2" s="4">
+        <v>736121</v>
+      </c>
+      <c r="BU2" s="4">
+        <v>736125</v>
+      </c>
     </row>
-    <row r="3" spans="1:70">
+    <row r="3" spans="1:73">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -13639,8 +14200,17 @@
       <c r="BR3" s="27">
         <v>0</v>
       </c>
+      <c r="BS3" s="27">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="27">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:70">
+    <row r="4" spans="1:73">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -13851,8 +14421,17 @@
       <c r="BR4" s="27">
         <v>0</v>
       </c>
+      <c r="BS4" s="27">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="27">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:70">
+    <row r="5" spans="1:73">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -14063,8 +14642,17 @@
       <c r="BR5" s="27">
         <v>0</v>
       </c>
+      <c r="BS5" s="27">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="27">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:70">
+    <row r="6" spans="1:73">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -14275,8 +14863,17 @@
       <c r="BR6" s="27">
         <v>0</v>
       </c>
+      <c r="BS6" s="27">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="27">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:70">
+    <row r="7" spans="1:73">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -14487,8 +15084,17 @@
       <c r="BR7" s="27">
         <v>0</v>
       </c>
+      <c r="BS7" s="27">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="27">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:70">
+    <row r="8" spans="1:73">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -14699,8 +15305,17 @@
       <c r="BR8" s="20">
         <v>0</v>
       </c>
+      <c r="BS8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:70" s="18" customFormat="1">
+    <row r="9" spans="1:73" s="18" customFormat="1">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -14911,8 +15526,17 @@
       <c r="BR9" s="20">
         <v>0.34</v>
       </c>
+      <c r="BS9" s="20">
+        <v>0.34</v>
+      </c>
+      <c r="BT9" s="20">
+        <v>0.34</v>
+      </c>
+      <c r="BU9" s="20">
+        <v>0.34</v>
+      </c>
     </row>
-    <row r="10" spans="1:70" s="18" customFormat="1">
+    <row r="10" spans="1:73" s="18" customFormat="1">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -15123,8 +15747,17 @@
       <c r="BR10" s="20">
         <v>2.35</v>
       </c>
+      <c r="BS10" s="20">
+        <v>2.35</v>
+      </c>
+      <c r="BT10" s="20">
+        <v>2.35</v>
+      </c>
+      <c r="BU10" s="20">
+        <v>2.35</v>
+      </c>
     </row>
-    <row r="11" spans="1:70" s="19" customFormat="1">
+    <row r="11" spans="1:73" s="19" customFormat="1">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -15335,8 +15968,17 @@
       <c r="BR11" s="31">
         <v>11495</v>
       </c>
+      <c r="BS11" s="31">
+        <v>11495</v>
+      </c>
+      <c r="BT11" s="31">
+        <v>11495</v>
+      </c>
+      <c r="BU11" s="31">
+        <v>11495</v>
+      </c>
     </row>
-    <row r="12" spans="1:70" s="11" customFormat="1">
+    <row r="12" spans="1:73" s="11" customFormat="1">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -15547,8 +16189,17 @@
       <c r="BR12" s="20">
         <v>1580</v>
       </c>
+      <c r="BS12" s="20">
+        <v>1580</v>
+      </c>
+      <c r="BT12" s="20">
+        <v>1580</v>
+      </c>
+      <c r="BU12" s="20">
+        <v>1580</v>
+      </c>
     </row>
-    <row r="13" spans="1:70">
+    <row r="13" spans="1:73">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -15759,8 +16410,17 @@
       <c r="BR13" s="20">
         <v>80</v>
       </c>
+      <c r="BS13" s="20">
+        <v>80</v>
+      </c>
+      <c r="BT13" s="20">
+        <v>80</v>
+      </c>
+      <c r="BU13" s="20">
+        <v>80</v>
+      </c>
     </row>
-    <row r="14" spans="1:70">
+    <row r="14" spans="1:73">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -15971,8 +16631,17 @@
       <c r="BR14" s="32">
         <v>2.9000000000000002E-8</v>
       </c>
+      <c r="BS14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
+      <c r="BT14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
+      <c r="BU14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
     </row>
-    <row r="15" spans="1:70">
+    <row r="15" spans="1:73">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -16183,8 +16852,17 @@
       <c r="BR15" s="20">
         <v>1020</v>
       </c>
+      <c r="BS15" s="20">
+        <v>1020</v>
+      </c>
+      <c r="BT15" s="20">
+        <v>1020</v>
+      </c>
+      <c r="BU15" s="20">
+        <v>1020</v>
+      </c>
     </row>
-    <row r="16" spans="1:70">
+    <row r="16" spans="1:73">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -16395,8 +17073,17 @@
       <c r="BR16" s="20">
         <v>14</v>
       </c>
+      <c r="BS16" s="20">
+        <v>14</v>
+      </c>
+      <c r="BT16" s="20">
+        <v>14</v>
+      </c>
+      <c r="BU16" s="20">
+        <v>14</v>
+      </c>
     </row>
-    <row r="17" spans="1:70">
+    <row r="17" spans="1:73">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -16607,8 +17294,17 @@
       <c r="BR17" s="20">
         <v>2423</v>
       </c>
+      <c r="BS17" s="20">
+        <v>2423</v>
+      </c>
+      <c r="BT17" s="20">
+        <v>2423</v>
+      </c>
+      <c r="BU17" s="20">
+        <v>2423</v>
+      </c>
     </row>
-    <row r="18" spans="1:70">
+    <row r="18" spans="1:73">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -16819,8 +17515,17 @@
       <c r="BR18" s="20">
         <v>0</v>
       </c>
+      <c r="BS18" s="20">
+        <v>0</v>
+      </c>
+      <c r="BT18" s="20">
+        <v>0</v>
+      </c>
+      <c r="BU18" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:70">
+    <row r="19" spans="1:73">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -17031,8 +17736,17 @@
       <c r="BR19" s="22">
         <v>4370</v>
       </c>
+      <c r="BS19" s="22">
+        <v>4370</v>
+      </c>
+      <c r="BT19" s="22">
+        <v>4370</v>
+      </c>
+      <c r="BU19" s="22">
+        <v>4370</v>
+      </c>
     </row>
-    <row r="20" spans="1:70">
+    <row r="20" spans="1:73">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -17243,8 +17957,17 @@
       <c r="BR20" s="22">
         <v>10250</v>
       </c>
+      <c r="BS20" s="22">
+        <v>10250</v>
+      </c>
+      <c r="BT20" s="22">
+        <v>10250</v>
+      </c>
+      <c r="BU20" s="22">
+        <v>10250</v>
+      </c>
     </row>
-    <row r="21" spans="1:70">
+    <row r="21" spans="1:73">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -17455,8 +18178,17 @@
       <c r="BR21" s="22">
         <v>14150</v>
       </c>
+      <c r="BS21" s="22">
+        <v>14150</v>
+      </c>
+      <c r="BT21" s="22">
+        <v>14150</v>
+      </c>
+      <c r="BU21" s="22">
+        <v>14150</v>
+      </c>
     </row>
-    <row r="22" spans="1:70">
+    <row r="22" spans="1:73">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -17667,8 +18399,17 @@
       <c r="BR22" s="22">
         <v>21800</v>
       </c>
+      <c r="BS22" s="22">
+        <v>21800</v>
+      </c>
+      <c r="BT22" s="22">
+        <v>21800</v>
+      </c>
+      <c r="BU22" s="22">
+        <v>21800</v>
+      </c>
     </row>
-    <row r="23" spans="1:70">
+    <row r="23" spans="1:73">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -17879,8 +18620,17 @@
       <c r="BR23" s="22">
         <v>26400</v>
       </c>
+      <c r="BS23" s="22">
+        <v>26400</v>
+      </c>
+      <c r="BT23" s="22">
+        <v>26400</v>
+      </c>
+      <c r="BU23" s="22">
+        <v>26400</v>
+      </c>
     </row>
-    <row r="24" spans="1:70">
+    <row r="24" spans="1:73">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -18091,8 +18841,17 @@
       <c r="BR24" s="22">
         <v>2972</v>
       </c>
+      <c r="BS24" s="22">
+        <v>2972</v>
+      </c>
+      <c r="BT24" s="22">
+        <v>2972</v>
+      </c>
+      <c r="BU24" s="22">
+        <v>2972</v>
+      </c>
     </row>
-    <row r="25" spans="1:70">
+    <row r="25" spans="1:73">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -18303,8 +19062,17 @@
       <c r="BR25" s="20">
         <v>3</v>
       </c>
+      <c r="BS25" s="20">
+        <v>3</v>
+      </c>
+      <c r="BT25" s="20">
+        <v>3</v>
+      </c>
+      <c r="BU25" s="20">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:70">
+    <row r="26" spans="1:73">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -18515,8 +19283,17 @@
       <c r="BR26" s="25">
         <v>0</v>
       </c>
+      <c r="BS26" s="25">
+        <v>0</v>
+      </c>
+      <c r="BT26" s="25">
+        <v>0</v>
+      </c>
+      <c r="BU26" s="25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:70">
+    <row r="27" spans="1:73">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -18727,8 +19504,17 @@
       <c r="BR27" s="26">
         <v>0</v>
       </c>
+      <c r="BS27" s="26">
+        <v>0</v>
+      </c>
+      <c r="BT27" s="26">
+        <v>0</v>
+      </c>
+      <c r="BU27" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:70">
+    <row r="28" spans="1:73">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -18939,8 +19725,17 @@
       <c r="BR28" s="20">
         <v>325</v>
       </c>
+      <c r="BS28" s="20">
+        <v>325</v>
+      </c>
+      <c r="BT28" s="20">
+        <v>325</v>
+      </c>
+      <c r="BU28" s="20">
+        <v>325</v>
+      </c>
     </row>
-    <row r="29" spans="1:70">
+    <row r="29" spans="1:73">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -19151,8 +19946,17 @@
       <c r="BR29" s="26">
         <v>490</v>
       </c>
+      <c r="BS29" s="26">
+        <v>490</v>
+      </c>
+      <c r="BT29" s="26">
+        <v>490</v>
+      </c>
+      <c r="BU29" s="26">
+        <v>490</v>
+      </c>
     </row>
-    <row r="30" spans="1:70">
+    <row r="30" spans="1:73">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -19363,8 +20167,17 @@
       <c r="BR30" s="26">
         <v>0</v>
       </c>
+      <c r="BS30" s="26">
+        <v>0</v>
+      </c>
+      <c r="BT30" s="26">
+        <v>0</v>
+      </c>
+      <c r="BU30" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:70">
+    <row r="31" spans="1:73">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -19575,8 +20388,17 @@
       <c r="BR31" s="29">
         <v>15</v>
       </c>
+      <c r="BS31" s="29">
+        <v>15</v>
+      </c>
+      <c r="BT31" s="29">
+        <v>15</v>
+      </c>
+      <c r="BU31" s="29">
+        <v>15</v>
+      </c>
     </row>
-    <row r="32" spans="1:70">
+    <row r="32" spans="1:73">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -19787,8 +20609,17 @@
       <c r="BR32" s="26">
         <v>22</v>
       </c>
+      <c r="BS32" s="26">
+        <v>22</v>
+      </c>
+      <c r="BT32" s="26">
+        <v>22</v>
+      </c>
+      <c r="BU32" s="26">
+        <v>22</v>
+      </c>
     </row>
-    <row r="33" spans="1:70">
+    <row r="33" spans="1:73">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -19999,8 +20830,17 @@
       <c r="BR33" s="26">
         <v>0</v>
       </c>
+      <c r="BS33" s="26">
+        <v>0</v>
+      </c>
+      <c r="BT33" s="26">
+        <v>0</v>
+      </c>
+      <c r="BU33" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:70">
+    <row r="34" spans="1:73">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -20211,8 +21051,17 @@
       <c r="BR34" s="26">
         <v>0</v>
       </c>
+      <c r="BS34" s="26">
+        <v>0</v>
+      </c>
+      <c r="BT34" s="26">
+        <v>0</v>
+      </c>
+      <c r="BU34" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:70">
+    <row r="35" spans="1:73">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -20423,8 +21272,17 @@
       <c r="BR35" s="20">
         <v>0</v>
       </c>
+      <c r="BS35" s="20">
+        <v>0</v>
+      </c>
+      <c r="BT35" s="20">
+        <v>0</v>
+      </c>
+      <c r="BU35" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:70">
+    <row r="36" spans="1:73">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -20635,8 +21493,17 @@
       <c r="BR36" s="20">
         <v>242</v>
       </c>
+      <c r="BS36" s="20">
+        <v>242</v>
+      </c>
+      <c r="BT36" s="20">
+        <v>242</v>
+      </c>
+      <c r="BU36" s="20">
+        <v>242</v>
+      </c>
     </row>
-    <row r="37" spans="1:70">
+    <row r="37" spans="1:73">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -20847,8 +21714,17 @@
       <c r="BR37" s="25" t="s">
         <v>253</v>
       </c>
+      <c r="BS37" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="BT37" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="BU37" s="25" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="38" spans="1:70">
+    <row r="38" spans="1:73">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -21059,8 +21935,17 @@
       <c r="BR38" s="25">
         <v>114858349</v>
       </c>
+      <c r="BS38" s="25">
+        <v>114858349</v>
+      </c>
+      <c r="BT38" s="25">
+        <v>114858349</v>
+      </c>
+      <c r="BU38" s="25">
+        <v>114858349</v>
+      </c>
     </row>
-    <row r="39" spans="1:70">
+    <row r="39" spans="1:73">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -21271,8 +22156,17 @@
       <c r="BR39" s="25">
         <v>92010460</v>
       </c>
+      <c r="BS39" s="25">
+        <v>92010460</v>
+      </c>
+      <c r="BT39" s="25">
+        <v>92010460</v>
+      </c>
+      <c r="BU39" s="25">
+        <v>92010460</v>
+      </c>
     </row>
-    <row r="40" spans="1:70">
+    <row r="40" spans="1:73">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -21483,8 +22377,17 @@
       <c r="BR40" s="25">
         <v>151909779</v>
       </c>
+      <c r="BS40" s="25">
+        <v>151909779</v>
+      </c>
+      <c r="BT40" s="25">
+        <v>151909779</v>
+      </c>
+      <c r="BU40" s="25">
+        <v>151909779</v>
+      </c>
     </row>
-    <row r="41" spans="1:70">
+    <row r="41" spans="1:73">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -21695,8 +22598,17 @@
       <c r="BR41" s="25">
         <v>155024648</v>
       </c>
+      <c r="BS41" s="25">
+        <v>155024648</v>
+      </c>
+      <c r="BT41" s="25">
+        <v>155024648</v>
+      </c>
+      <c r="BU41" s="25">
+        <v>155024648</v>
+      </c>
     </row>
-    <row r="42" spans="1:70">
+    <row r="42" spans="1:73">
       <c r="A42" s="7">
         <v>40</v>
       </c>
@@ -21907,8 +22819,17 @@
       <c r="BR42" s="25">
         <v>170169377</v>
       </c>
+      <c r="BS42" s="25">
+        <v>170169377</v>
+      </c>
+      <c r="BT42" s="25">
+        <v>170169377</v>
+      </c>
+      <c r="BU42" s="25">
+        <v>170169377</v>
+      </c>
     </row>
-    <row r="43" spans="1:70">
+    <row r="43" spans="1:73">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -22119,8 +23040,17 @@
       <c r="BR43" s="26">
         <v>1.0049999999999999</v>
       </c>
+      <c r="BS43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="BT43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="BU43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
     </row>
-    <row r="44" spans="1:70">
+    <row r="44" spans="1:73">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -22331,8 +23261,17 @@
       <c r="BR44" s="26">
         <v>-10</v>
       </c>
+      <c r="BS44" s="26">
+        <v>-10</v>
+      </c>
+      <c r="BT44" s="26">
+        <v>-10</v>
+      </c>
+      <c r="BU44" s="26">
+        <v>-10</v>
+      </c>
     </row>
-    <row r="45" spans="1:70">
+    <row r="45" spans="1:73">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -22543,8 +23482,17 @@
       <c r="BR45" s="20">
         <v>1733</v>
       </c>
+      <c r="BS45" s="20">
+        <v>1733</v>
+      </c>
+      <c r="BT45" s="20">
+        <v>1733</v>
+      </c>
+      <c r="BU45" s="20">
+        <v>1733</v>
+      </c>
     </row>
-    <row r="46" spans="1:70">
+    <row r="46" spans="1:73">
       <c r="A46" s="7">
         <v>44</v>
       </c>
@@ -22755,8 +23703,17 @@
       <c r="BR46" s="20">
         <v>250</v>
       </c>
+      <c r="BS46" s="20">
+        <v>250</v>
+      </c>
+      <c r="BT46" s="20">
+        <v>250</v>
+      </c>
+      <c r="BU46" s="20">
+        <v>250</v>
+      </c>
     </row>
-    <row r="47" spans="1:70">
+    <row r="47" spans="1:73">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -22967,8 +23924,17 @@
       <c r="BR47" s="20">
         <v>0.4</v>
       </c>
+      <c r="BS47" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="BT47" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="BU47" s="20">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="48" spans="1:70">
+    <row r="48" spans="1:73">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -23179,8 +24145,17 @@
       <c r="BR48" s="20">
         <v>64</v>
       </c>
+      <c r="BS48" s="20">
+        <v>64</v>
+      </c>
+      <c r="BT48" s="20">
+        <v>64</v>
+      </c>
+      <c r="BU48" s="20">
+        <v>64</v>
+      </c>
     </row>
-    <row r="49" spans="1:70">
+    <row r="49" spans="1:73">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -23391,8 +24366,17 @@
       <c r="BR49" s="20">
         <v>256</v>
       </c>
+      <c r="BS49" s="20">
+        <v>256</v>
+      </c>
+      <c r="BT49" s="20">
+        <v>256</v>
+      </c>
+      <c r="BU49" s="20">
+        <v>256</v>
+      </c>
     </row>
-    <row r="50" spans="1:70">
+    <row r="50" spans="1:73">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -23603,8 +24587,17 @@
       <c r="BR50" s="20">
         <v>0</v>
       </c>
+      <c r="BS50" s="20">
+        <v>0</v>
+      </c>
+      <c r="BT50" s="20">
+        <v>0</v>
+      </c>
+      <c r="BU50" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:70">
+    <row r="51" spans="1:73">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -23815,8 +24808,17 @@
       <c r="BR51" s="20">
         <v>0</v>
       </c>
+      <c r="BS51" s="20">
+        <v>0</v>
+      </c>
+      <c r="BT51" s="20">
+        <v>0</v>
+      </c>
+      <c r="BU51" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:70">
+    <row r="52" spans="1:73">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -24027,8 +25029,17 @@
       <c r="BR52" s="20">
         <v>0</v>
       </c>
+      <c r="BS52" s="20">
+        <v>0</v>
+      </c>
+      <c r="BT52" s="20">
+        <v>0</v>
+      </c>
+      <c r="BU52" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:70">
+    <row r="53" spans="1:73">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -24239,8 +25250,17 @@
       <c r="BR53" s="20">
         <v>2224</v>
       </c>
+      <c r="BS53" s="20">
+        <v>2224</v>
+      </c>
+      <c r="BT53" s="20">
+        <v>2224</v>
+      </c>
+      <c r="BU53" s="20">
+        <v>2224</v>
+      </c>
     </row>
-    <row r="54" spans="1:70">
+    <row r="54" spans="1:73">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -24393,8 +25413,17 @@
       <c r="BR54" s="28" t="s">
         <v>76</v>
       </c>
+      <c r="BS54" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT54" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU54" s="28" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="55" spans="1:70">
+    <row r="55" spans="1:73">
       <c r="A55" s="22"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -24467,6 +25496,9 @@
       <c r="BP55" s="28"/>
       <c r="BQ55" s="28"/>
       <c r="BR55" s="28"/>
+      <c r="BS55" s="28"/>
+      <c r="BT55" s="28"/>
+      <c r="BU55" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -24482,10 +25514,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -25800,6 +26832,24 @@
         <v>140</v>
       </c>
       <c r="E70">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <f>+B71-693960</f>
+        <v>42165</v>
+      </c>
+      <c r="B71" s="4">
+        <v>736125</v>
+      </c>
+      <c r="C71" t="s">
+        <v>264</v>
+      </c>
+      <c r="D71" t="s">
+        <v>140</v>
+      </c>
+      <c r="E71">
         <v>312</v>
       </c>
     </row>

--- a/icf185.xlsx
+++ b/icf185.xlsx
@@ -1454,7 +1454,7 @@
   <dimension ref="A1:BU55"/>
   <sheetViews>
     <sheetView topLeftCell="BL1" workbookViewId="0">
-      <selection activeCell="BS2" sqref="BS2:BU2"/>
+      <selection activeCell="BT27" sqref="BT27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13452,8 +13452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
-      <selection activeCell="BS2" sqref="BS2:BU2"/>
+    <sheetView tabSelected="1" topLeftCell="BK4" workbookViewId="0">
+      <selection activeCell="BU12" sqref="BU12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13740,31 +13740,31 @@
         <v>42024</v>
       </c>
       <c r="BO1" s="21">
-        <f>+BO2-693960</f>
+        <f t="shared" ref="BO1:BU1" si="1">+BO2-693960</f>
         <v>42082</v>
       </c>
       <c r="BP1" s="21">
-        <f>+BP2-693960</f>
+        <f t="shared" si="1"/>
         <v>42109</v>
       </c>
       <c r="BQ1" s="21">
-        <f>+BQ2-693960</f>
+        <f t="shared" si="1"/>
         <v>42123</v>
       </c>
       <c r="BR1" s="21">
-        <f>+BR2-693960</f>
+        <f t="shared" si="1"/>
         <v>42138</v>
       </c>
       <c r="BS1" s="21">
-        <f>+BS2-693960</f>
+        <f t="shared" si="1"/>
         <v>42146</v>
       </c>
       <c r="BT1" s="21">
-        <f>+BT2-693960</f>
+        <f t="shared" si="1"/>
         <v>42161</v>
       </c>
       <c r="BU1" s="21">
-        <f>+BU2-693960</f>
+        <f t="shared" si="1"/>
         <v>42165</v>
       </c>
     </row>
@@ -15533,7 +15533,7 @@
         <v>0.34</v>
       </c>
       <c r="BU9" s="20">
-        <v>0.34</v>
+        <v>0.34200000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:73" s="18" customFormat="1">
@@ -16196,7 +16196,7 @@
         <v>1580</v>
       </c>
       <c r="BU12" s="20">
-        <v>1580</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="13" spans="1:73">
@@ -26747,7 +26747,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1">
-        <f>+B66-693960</f>
+        <f t="shared" ref="A66:A71" si="5">+B66-693960</f>
         <v>42109</v>
       </c>
       <c r="B66" s="13">
@@ -26765,7 +26765,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1">
-        <f>+B67-693960</f>
+        <f t="shared" si="5"/>
         <v>42123</v>
       </c>
       <c r="B67" s="13">
@@ -26783,7 +26783,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1">
-        <f>+B68-693960</f>
+        <f t="shared" si="5"/>
         <v>42138</v>
       </c>
       <c r="B68" s="13">
@@ -26801,7 +26801,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1">
-        <f>+B69-693960</f>
+        <f t="shared" si="5"/>
         <v>42146</v>
       </c>
       <c r="B69" s="4">
@@ -26819,7 +26819,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1">
-        <f>+B70-693960</f>
+        <f t="shared" si="5"/>
         <v>42161</v>
       </c>
       <c r="B70" s="4">
@@ -26837,7 +26837,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1">
-        <f>+B71-693960</f>
+        <f t="shared" si="5"/>
         <v>42165</v>
       </c>
       <c r="B71" s="4">

--- a/icf185.xlsx
+++ b/icf185.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="0" windowWidth="21060" windowHeight="15360" activeTab="1"/>
+    <workbookView xWindow="3340" yWindow="0" windowWidth="21060" windowHeight="15360"/>
   </bookViews>
   <sheets>
     <sheet name="icf.185" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="267">
   <si>
     <t>#</t>
   </si>
@@ -816,7 +816,13 @@
     <t>"Huelva 2025"</t>
   </si>
   <si>
-    <t>IOS 2015</t>
+    <t>"IOS 2015"</t>
+  </si>
+  <si>
+    <t>"SC lab"</t>
+  </si>
+  <si>
+    <t>"PTB"</t>
   </si>
 </sst>
 </file>
@@ -892,8 +898,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1011,7 +1043,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="69">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1033,6 +1065,19 @@
     <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1054,6 +1099,19 @@
     <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1451,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BU55"/>
+  <dimension ref="A1:BY55"/>
   <sheetViews>
-    <sheetView topLeftCell="BL1" workbookViewId="0">
-      <selection activeCell="BT27" sqref="BT27"/>
+    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
+      <selection activeCell="BY3" sqref="BY3:BY53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1479,7 +1537,7 @@
     <col min="33" max="16384" width="11.33203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="21" customFormat="1">
+    <row r="1" spans="1:77" s="21" customFormat="1">
       <c r="A1" s="7"/>
       <c r="B1" s="20"/>
       <c r="C1" s="21">
@@ -1766,8 +1824,24 @@
         <f t="shared" si="3"/>
         <v>42165</v>
       </c>
+      <c r="BV1" s="1">
+        <f>+BV2-693960</f>
+        <v>42338</v>
+      </c>
+      <c r="BW1" s="1">
+        <f>+BW2-693960</f>
+        <v>42360</v>
+      </c>
+      <c r="BX1" s="1">
+        <f>+BX2-693960</f>
+        <v>42382</v>
+      </c>
+      <c r="BY1" s="1">
+        <f>+BY2-693960</f>
+        <v>42401</v>
+      </c>
     </row>
-    <row r="2" spans="1:73" s="22" customFormat="1">
+    <row r="2" spans="1:77" s="22" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1987,8 +2061,20 @@
       <c r="BU2" s="4">
         <v>736125</v>
       </c>
+      <c r="BV2" s="4">
+        <v>736298</v>
+      </c>
+      <c r="BW2" s="4">
+        <v>736320</v>
+      </c>
+      <c r="BX2" s="4">
+        <v>736342</v>
+      </c>
+      <c r="BY2" s="4">
+        <v>736361</v>
+      </c>
     </row>
-    <row r="3" spans="1:73" ht="18" customHeight="1">
+    <row r="3" spans="1:77" ht="18" customHeight="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -2208,8 +2294,20 @@
       <c r="BU3" s="27">
         <v>0</v>
       </c>
+      <c r="BV3" s="27">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="27">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="27">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:73">
+    <row r="4" spans="1:77">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -2429,8 +2527,20 @@
       <c r="BU4" s="27">
         <v>-0.2</v>
       </c>
+      <c r="BV4" s="27">
+        <v>-0.2</v>
+      </c>
+      <c r="BW4" s="27">
+        <v>-0.2</v>
+      </c>
+      <c r="BX4" s="27">
+        <v>-0.2</v>
+      </c>
+      <c r="BY4" s="27">
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="5" spans="1:73">
+    <row r="5" spans="1:77">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -2650,8 +2760,20 @@
       <c r="BU5" s="27">
         <v>-0.2</v>
       </c>
+      <c r="BV5" s="27">
+        <v>-0.2</v>
+      </c>
+      <c r="BW5" s="27">
+        <v>-0.2</v>
+      </c>
+      <c r="BX5" s="27">
+        <v>-0.2</v>
+      </c>
+      <c r="BY5" s="27">
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:73">
+    <row r="6" spans="1:77">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -2871,8 +2993,20 @@
       <c r="BU6" s="27">
         <v>0</v>
       </c>
+      <c r="BV6" s="27">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="27">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="27">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:73">
+    <row r="7" spans="1:77">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -3092,8 +3226,20 @@
       <c r="BU7" s="27">
         <v>0.7</v>
       </c>
+      <c r="BV7" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="BW7" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="BX7" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="BY7" s="27">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="8" spans="1:73">
+    <row r="8" spans="1:77">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -3313,8 +3459,20 @@
       <c r="BU8" s="20">
         <v>0</v>
       </c>
+      <c r="BV8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:73">
+    <row r="9" spans="1:77">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -3534,8 +3692,20 @@
       <c r="BU9" s="20">
         <v>0.34100000000000003</v>
       </c>
+      <c r="BV9" s="20">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="BW9" s="20">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="BX9" s="20">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="BY9" s="20">
+        <v>0.34100000000000003</v>
+      </c>
     </row>
-    <row r="10" spans="1:73">
+    <row r="10" spans="1:77">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -3755,8 +3925,20 @@
       <c r="BU10" s="20">
         <v>2.35</v>
       </c>
+      <c r="BV10" s="20">
+        <v>2.35</v>
+      </c>
+      <c r="BW10" s="20">
+        <v>2.35</v>
+      </c>
+      <c r="BX10" s="20">
+        <v>2.35</v>
+      </c>
+      <c r="BY10" s="20">
+        <v>2.35</v>
+      </c>
     </row>
-    <row r="11" spans="1:73">
+    <row r="11" spans="1:77">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -3976,8 +4158,20 @@
       <c r="BU11" s="31">
         <v>11495</v>
       </c>
+      <c r="BV11" s="31">
+        <v>11495</v>
+      </c>
+      <c r="BW11" s="31">
+        <v>11495</v>
+      </c>
+      <c r="BX11" s="31">
+        <v>11495</v>
+      </c>
+      <c r="BY11" s="31">
+        <v>11495</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" s="22" customFormat="1" ht="17.25" customHeight="1">
+    <row r="12" spans="1:77" s="22" customFormat="1" ht="17.25" customHeight="1">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -4197,8 +4391,20 @@
       <c r="BU12" s="20">
         <v>1555</v>
       </c>
+      <c r="BV12" s="20">
+        <v>1555</v>
+      </c>
+      <c r="BW12" s="20">
+        <v>1555</v>
+      </c>
+      <c r="BX12" s="20">
+        <v>1555</v>
+      </c>
+      <c r="BY12" s="20">
+        <v>1555</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" s="22" customFormat="1">
+    <row r="13" spans="1:77" s="22" customFormat="1">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -4418,8 +4624,20 @@
       <c r="BU13" s="20">
         <v>80</v>
       </c>
+      <c r="BV13" s="20">
+        <v>80</v>
+      </c>
+      <c r="BW13" s="20">
+        <v>80</v>
+      </c>
+      <c r="BX13" s="20">
+        <v>80</v>
+      </c>
+      <c r="BY13" s="20">
+        <v>80</v>
+      </c>
     </row>
-    <row r="14" spans="1:73" s="32" customFormat="1" ht="17.25" customHeight="1">
+    <row r="14" spans="1:77" s="32" customFormat="1" ht="17.25" customHeight="1">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -4639,8 +4857,20 @@
       <c r="BU14" s="32">
         <v>2.9000000000000002E-8</v>
       </c>
+      <c r="BV14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
+      <c r="BW14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
+      <c r="BX14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
+      <c r="BY14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
     </row>
-    <row r="15" spans="1:73" s="22" customFormat="1" ht="16.5" customHeight="1">
+    <row r="15" spans="1:77" s="22" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -4860,8 +5090,20 @@
       <c r="BU15" s="20">
         <v>1020</v>
       </c>
+      <c r="BV15" s="20">
+        <v>1020</v>
+      </c>
+      <c r="BW15" s="20">
+        <v>1020</v>
+      </c>
+      <c r="BX15" s="20">
+        <v>1020</v>
+      </c>
+      <c r="BY15" s="20">
+        <v>1020</v>
+      </c>
     </row>
-    <row r="16" spans="1:73" s="22" customFormat="1" ht="16.5" customHeight="1">
+    <row r="16" spans="1:77" s="22" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -5081,8 +5323,20 @@
       <c r="BU16" s="20">
         <v>14</v>
       </c>
+      <c r="BV16" s="20">
+        <v>14</v>
+      </c>
+      <c r="BW16" s="20">
+        <v>14</v>
+      </c>
+      <c r="BX16" s="20">
+        <v>14</v>
+      </c>
+      <c r="BY16" s="20">
+        <v>14</v>
+      </c>
     </row>
-    <row r="17" spans="1:73" s="22" customFormat="1" ht="16.5" customHeight="1">
+    <row r="17" spans="1:77" s="22" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -5302,8 +5556,20 @@
       <c r="BU17" s="20">
         <v>2423</v>
       </c>
+      <c r="BV17" s="20">
+        <v>2423</v>
+      </c>
+      <c r="BW17" s="20">
+        <v>2423</v>
+      </c>
+      <c r="BX17" s="20">
+        <v>2423</v>
+      </c>
+      <c r="BY17" s="20">
+        <v>2423</v>
+      </c>
     </row>
-    <row r="18" spans="1:73" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:77" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -5523,8 +5789,20 @@
       <c r="BU18" s="20">
         <v>0</v>
       </c>
+      <c r="BV18" s="20">
+        <v>0</v>
+      </c>
+      <c r="BW18" s="20">
+        <v>0</v>
+      </c>
+      <c r="BX18" s="20">
+        <v>0</v>
+      </c>
+      <c r="BY18" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:73" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:77" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -5744,8 +6022,20 @@
       <c r="BU19" s="22">
         <v>4370</v>
       </c>
+      <c r="BV19" s="22">
+        <v>4370</v>
+      </c>
+      <c r="BW19" s="22">
+        <v>4370</v>
+      </c>
+      <c r="BX19" s="22">
+        <v>4370</v>
+      </c>
+      <c r="BY19" s="22">
+        <v>4370</v>
+      </c>
     </row>
-    <row r="20" spans="1:73" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:77" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -5965,8 +6255,20 @@
       <c r="BU20" s="22">
         <v>10250</v>
       </c>
+      <c r="BV20" s="22">
+        <v>10250</v>
+      </c>
+      <c r="BW20" s="22">
+        <v>10250</v>
+      </c>
+      <c r="BX20" s="22">
+        <v>10250</v>
+      </c>
+      <c r="BY20" s="22">
+        <v>10250</v>
+      </c>
     </row>
-    <row r="21" spans="1:73" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:77" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -6186,8 +6488,20 @@
       <c r="BU21" s="22">
         <v>14150</v>
       </c>
+      <c r="BV21" s="22">
+        <v>14150</v>
+      </c>
+      <c r="BW21" s="22">
+        <v>14150</v>
+      </c>
+      <c r="BX21" s="22">
+        <v>14150</v>
+      </c>
+      <c r="BY21" s="22">
+        <v>14150</v>
+      </c>
     </row>
-    <row r="22" spans="1:73" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:77" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -6407,8 +6721,20 @@
       <c r="BU22" s="22">
         <v>21800</v>
       </c>
+      <c r="BV22" s="22">
+        <v>21800</v>
+      </c>
+      <c r="BW22" s="22">
+        <v>21800</v>
+      </c>
+      <c r="BX22" s="22">
+        <v>21800</v>
+      </c>
+      <c r="BY22" s="22">
+        <v>21800</v>
+      </c>
     </row>
-    <row r="23" spans="1:73" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:77" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -6628,8 +6954,20 @@
       <c r="BU23" s="22">
         <v>26400</v>
       </c>
+      <c r="BV23" s="22">
+        <v>26400</v>
+      </c>
+      <c r="BW23" s="22">
+        <v>26400</v>
+      </c>
+      <c r="BX23" s="22">
+        <v>26400</v>
+      </c>
+      <c r="BY23" s="22">
+        <v>26400</v>
+      </c>
     </row>
-    <row r="24" spans="1:73" s="22" customFormat="1">
+    <row r="24" spans="1:77" s="22" customFormat="1">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -6849,8 +7187,20 @@
       <c r="BU24" s="22">
         <v>2972</v>
       </c>
+      <c r="BV24" s="22">
+        <v>2972</v>
+      </c>
+      <c r="BW24" s="22">
+        <v>2972</v>
+      </c>
+      <c r="BX24" s="22">
+        <v>2972</v>
+      </c>
+      <c r="BY24" s="22">
+        <v>2972</v>
+      </c>
     </row>
-    <row r="25" spans="1:73" s="22" customFormat="1">
+    <row r="25" spans="1:77" s="22" customFormat="1">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -7070,8 +7420,20 @@
       <c r="BU25" s="20">
         <v>3</v>
       </c>
+      <c r="BV25" s="20">
+        <v>3</v>
+      </c>
+      <c r="BW25" s="20">
+        <v>3</v>
+      </c>
+      <c r="BX25" s="20">
+        <v>3</v>
+      </c>
+      <c r="BY25" s="20">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:73" s="22" customFormat="1">
+    <row r="26" spans="1:77" s="22" customFormat="1">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -7291,8 +7653,20 @@
       <c r="BU26" s="25">
         <v>1</v>
       </c>
+      <c r="BV26" s="25">
+        <v>1</v>
+      </c>
+      <c r="BW26" s="25">
+        <v>1</v>
+      </c>
+      <c r="BX26" s="25">
+        <v>1</v>
+      </c>
+      <c r="BY26" s="25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:73">
+    <row r="27" spans="1:77">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -7512,8 +7886,20 @@
       <c r="BU27" s="26">
         <v>0</v>
       </c>
+      <c r="BV27" s="26">
+        <v>0</v>
+      </c>
+      <c r="BW27" s="26">
+        <v>0</v>
+      </c>
+      <c r="BX27" s="26">
+        <v>0</v>
+      </c>
+      <c r="BY27" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:73">
+    <row r="28" spans="1:77">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -7733,8 +8119,20 @@
       <c r="BU28" s="20">
         <v>312</v>
       </c>
+      <c r="BV28" s="20">
+        <v>312</v>
+      </c>
+      <c r="BW28" s="20">
+        <v>312</v>
+      </c>
+      <c r="BX28" s="20">
+        <v>312</v>
+      </c>
+      <c r="BY28" s="20">
+        <v>312</v>
+      </c>
     </row>
-    <row r="29" spans="1:73">
+    <row r="29" spans="1:77">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -7954,8 +8352,20 @@
       <c r="BU29" s="26">
         <v>490</v>
       </c>
+      <c r="BV29" s="26">
+        <v>490</v>
+      </c>
+      <c r="BW29" s="26">
+        <v>490</v>
+      </c>
+      <c r="BX29" s="26">
+        <v>490</v>
+      </c>
+      <c r="BY29" s="26">
+        <v>490</v>
+      </c>
     </row>
-    <row r="30" spans="1:73">
+    <row r="30" spans="1:77">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -8175,8 +8585,20 @@
       <c r="BU30" s="26">
         <v>0</v>
       </c>
+      <c r="BV30" s="26">
+        <v>0</v>
+      </c>
+      <c r="BW30" s="26">
+        <v>0</v>
+      </c>
+      <c r="BX30" s="26">
+        <v>0</v>
+      </c>
+      <c r="BY30" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:73">
+    <row r="31" spans="1:77">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -8396,8 +8818,20 @@
       <c r="BU31" s="29">
         <v>11</v>
       </c>
+      <c r="BV31" s="29">
+        <v>11</v>
+      </c>
+      <c r="BW31" s="29">
+        <v>11</v>
+      </c>
+      <c r="BX31" s="29">
+        <v>11</v>
+      </c>
+      <c r="BY31" s="29">
+        <v>11</v>
+      </c>
     </row>
-    <row r="32" spans="1:73">
+    <row r="32" spans="1:77">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -8617,8 +9051,20 @@
       <c r="BU32" s="26">
         <v>9</v>
       </c>
+      <c r="BV32" s="26">
+        <v>9</v>
+      </c>
+      <c r="BW32" s="26">
+        <v>9</v>
+      </c>
+      <c r="BX32" s="26">
+        <v>9</v>
+      </c>
+      <c r="BY32" s="26">
+        <v>9</v>
+      </c>
     </row>
-    <row r="33" spans="1:73">
+    <row r="33" spans="1:77">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -8838,8 +9284,20 @@
       <c r="BU33" s="26">
         <v>0</v>
       </c>
+      <c r="BV33" s="26">
+        <v>0</v>
+      </c>
+      <c r="BW33" s="26">
+        <v>0</v>
+      </c>
+      <c r="BX33" s="26">
+        <v>0</v>
+      </c>
+      <c r="BY33" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:73">
+    <row r="34" spans="1:77">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -9059,8 +9517,20 @@
       <c r="BU34" s="26">
         <v>0</v>
       </c>
+      <c r="BV34" s="26">
+        <v>0</v>
+      </c>
+      <c r="BW34" s="26">
+        <v>0</v>
+      </c>
+      <c r="BX34" s="26">
+        <v>0</v>
+      </c>
+      <c r="BY34" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:73" s="22" customFormat="1">
+    <row r="35" spans="1:77" s="22" customFormat="1">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -9280,8 +9750,20 @@
       <c r="BU35" s="20">
         <v>0</v>
       </c>
+      <c r="BV35" s="20">
+        <v>0</v>
+      </c>
+      <c r="BW35" s="20">
+        <v>0</v>
+      </c>
+      <c r="BX35" s="20">
+        <v>0</v>
+      </c>
+      <c r="BY35" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:73" s="22" customFormat="1">
+    <row r="36" spans="1:77" s="22" customFormat="1">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -9501,8 +9983,20 @@
       <c r="BU36" s="20">
         <v>242</v>
       </c>
+      <c r="BV36" s="20">
+        <v>242</v>
+      </c>
+      <c r="BW36" s="20">
+        <v>242</v>
+      </c>
+      <c r="BX36" s="20">
+        <v>242</v>
+      </c>
+      <c r="BY36" s="20">
+        <v>242</v>
+      </c>
     </row>
-    <row r="37" spans="1:73" s="22" customFormat="1">
+    <row r="37" spans="1:77" s="22" customFormat="1">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -9722,8 +10216,20 @@
       <c r="BU37" s="25" t="s">
         <v>253</v>
       </c>
+      <c r="BV37" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="BW37" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="BX37" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="BY37" s="25" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="38" spans="1:73" s="22" customFormat="1">
+    <row r="38" spans="1:77" s="22" customFormat="1">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -9943,8 +10449,20 @@
       <c r="BU38" s="25">
         <v>114858349</v>
       </c>
+      <c r="BV38" s="25">
+        <v>114858349</v>
+      </c>
+      <c r="BW38" s="25">
+        <v>114858349</v>
+      </c>
+      <c r="BX38" s="25">
+        <v>114858349</v>
+      </c>
+      <c r="BY38" s="25">
+        <v>114858349</v>
+      </c>
     </row>
-    <row r="39" spans="1:73" s="22" customFormat="1">
+    <row r="39" spans="1:77" s="22" customFormat="1">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -10164,8 +10682,20 @@
       <c r="BU39" s="25">
         <v>92010460</v>
       </c>
+      <c r="BV39" s="25">
+        <v>92010460</v>
+      </c>
+      <c r="BW39" s="25">
+        <v>92010460</v>
+      </c>
+      <c r="BX39" s="25">
+        <v>92010460</v>
+      </c>
+      <c r="BY39" s="25">
+        <v>92010460</v>
+      </c>
     </row>
-    <row r="40" spans="1:73" s="22" customFormat="1">
+    <row r="40" spans="1:77" s="22" customFormat="1">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -10385,8 +10915,20 @@
       <c r="BU40" s="25">
         <v>151909779</v>
       </c>
+      <c r="BV40" s="25">
+        <v>151909779</v>
+      </c>
+      <c r="BW40" s="25">
+        <v>151909779</v>
+      </c>
+      <c r="BX40" s="25">
+        <v>151909779</v>
+      </c>
+      <c r="BY40" s="25">
+        <v>151909779</v>
+      </c>
     </row>
-    <row r="41" spans="1:73" s="22" customFormat="1">
+    <row r="41" spans="1:77" s="22" customFormat="1">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -10606,8 +11148,20 @@
       <c r="BU41" s="25">
         <v>155024648</v>
       </c>
+      <c r="BV41" s="25">
+        <v>155024648</v>
+      </c>
+      <c r="BW41" s="25">
+        <v>155024648</v>
+      </c>
+      <c r="BX41" s="25">
+        <v>155024648</v>
+      </c>
+      <c r="BY41" s="25">
+        <v>155024648</v>
+      </c>
     </row>
-    <row r="42" spans="1:73" s="22" customFormat="1">
+    <row r="42" spans="1:77" s="22" customFormat="1">
       <c r="A42" s="7">
         <v>40</v>
       </c>
@@ -10827,8 +11381,20 @@
       <c r="BU42" s="25">
         <v>170169377</v>
       </c>
+      <c r="BV42" s="25">
+        <v>170169377</v>
+      </c>
+      <c r="BW42" s="25">
+        <v>170169377</v>
+      </c>
+      <c r="BX42" s="25">
+        <v>170169377</v>
+      </c>
+      <c r="BY42" s="25">
+        <v>170169377</v>
+      </c>
     </row>
-    <row r="43" spans="1:73">
+    <row r="43" spans="1:77">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -11048,8 +11614,20 @@
       <c r="BU43" s="26">
         <v>1.0049999999999999</v>
       </c>
+      <c r="BV43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="BW43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="BX43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="BY43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
     </row>
-    <row r="44" spans="1:73">
+    <row r="44" spans="1:77">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -11269,8 +11847,20 @@
       <c r="BU44" s="26">
         <v>-10</v>
       </c>
+      <c r="BV44" s="26">
+        <v>-10</v>
+      </c>
+      <c r="BW44" s="26">
+        <v>-10</v>
+      </c>
+      <c r="BX44" s="26">
+        <v>-10</v>
+      </c>
+      <c r="BY44" s="26">
+        <v>-10</v>
+      </c>
     </row>
-    <row r="45" spans="1:73" s="22" customFormat="1" ht="11.25" customHeight="1">
+    <row r="45" spans="1:77" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -11490,8 +12080,20 @@
       <c r="BU45" s="20">
         <v>1733</v>
       </c>
+      <c r="BV45" s="20">
+        <v>1733</v>
+      </c>
+      <c r="BW45" s="20">
+        <v>1733</v>
+      </c>
+      <c r="BX45" s="20">
+        <v>1733</v>
+      </c>
+      <c r="BY45" s="20">
+        <v>1733</v>
+      </c>
     </row>
-    <row r="46" spans="1:73" s="22" customFormat="1">
+    <row r="46" spans="1:77" s="22" customFormat="1">
       <c r="A46" s="7">
         <v>44</v>
       </c>
@@ -11711,8 +12313,20 @@
       <c r="BU46" s="20">
         <v>250</v>
       </c>
+      <c r="BV46" s="20">
+        <v>250</v>
+      </c>
+      <c r="BW46" s="20">
+        <v>250</v>
+      </c>
+      <c r="BX46" s="20">
+        <v>250</v>
+      </c>
+      <c r="BY46" s="20">
+        <v>250</v>
+      </c>
     </row>
-    <row r="47" spans="1:73" s="22" customFormat="1">
+    <row r="47" spans="1:77" s="22" customFormat="1">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -11932,8 +12546,20 @@
       <c r="BU47" s="20">
         <v>0.4</v>
       </c>
+      <c r="BV47" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="BW47" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="BX47" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="BY47" s="20">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="48" spans="1:73" s="22" customFormat="1">
+    <row r="48" spans="1:77" s="22" customFormat="1">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -12153,8 +12779,20 @@
       <c r="BU48" s="20">
         <v>64</v>
       </c>
+      <c r="BV48" s="20">
+        <v>64</v>
+      </c>
+      <c r="BW48" s="20">
+        <v>64</v>
+      </c>
+      <c r="BX48" s="20">
+        <v>64</v>
+      </c>
+      <c r="BY48" s="20">
+        <v>64</v>
+      </c>
     </row>
-    <row r="49" spans="1:73" s="22" customFormat="1">
+    <row r="49" spans="1:77" s="22" customFormat="1">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -12374,8 +13012,20 @@
       <c r="BU49" s="20">
         <v>256</v>
       </c>
+      <c r="BV49" s="20">
+        <v>256</v>
+      </c>
+      <c r="BW49" s="20">
+        <v>256</v>
+      </c>
+      <c r="BX49" s="20">
+        <v>256</v>
+      </c>
+      <c r="BY49" s="20">
+        <v>256</v>
+      </c>
     </row>
-    <row r="50" spans="1:73" s="22" customFormat="1">
+    <row r="50" spans="1:77" s="22" customFormat="1">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -12595,8 +13245,20 @@
       <c r="BU50" s="20">
         <v>0</v>
       </c>
+      <c r="BV50" s="20">
+        <v>0</v>
+      </c>
+      <c r="BW50" s="20">
+        <v>0</v>
+      </c>
+      <c r="BX50" s="20">
+        <v>0</v>
+      </c>
+      <c r="BY50" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:73" s="22" customFormat="1">
+    <row r="51" spans="1:77" s="22" customFormat="1">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -12816,8 +13478,20 @@
       <c r="BU51" s="20">
         <v>0</v>
       </c>
+      <c r="BV51" s="20">
+        <v>0</v>
+      </c>
+      <c r="BW51" s="20">
+        <v>0</v>
+      </c>
+      <c r="BX51" s="20">
+        <v>0</v>
+      </c>
+      <c r="BY51" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:73" s="22" customFormat="1">
+    <row r="52" spans="1:77" s="22" customFormat="1">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -13037,8 +13711,20 @@
       <c r="BU52" s="20">
         <v>0</v>
       </c>
+      <c r="BV52" s="20">
+        <v>0</v>
+      </c>
+      <c r="BW52" s="20">
+        <v>0</v>
+      </c>
+      <c r="BX52" s="20">
+        <v>0</v>
+      </c>
+      <c r="BY52" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:73" s="22" customFormat="1">
+    <row r="53" spans="1:77" s="22" customFormat="1">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -13258,8 +13944,20 @@
       <c r="BU53" s="20">
         <v>2224</v>
       </c>
+      <c r="BV53" s="20">
+        <v>2224</v>
+      </c>
+      <c r="BW53" s="20">
+        <v>2224</v>
+      </c>
+      <c r="BX53" s="20">
+        <v>2224</v>
+      </c>
+      <c r="BY53" s="20">
+        <v>2224</v>
+      </c>
     </row>
-    <row r="54" spans="1:73">
+    <row r="54" spans="1:77">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -13412,7 +14110,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:73">
+    <row r="55" spans="1:77">
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
@@ -13450,10 +14148,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BU55"/>
+  <dimension ref="A1:BY55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK4" workbookViewId="0">
-      <selection activeCell="BU12" sqref="BU12"/>
+    <sheetView topLeftCell="BT1" workbookViewId="0">
+      <selection activeCell="BV1" sqref="BV1:BY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13480,7 +14178,7 @@
     <col min="74" max="16384" width="11.5" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="16" customFormat="1">
+    <row r="1" spans="1:77" s="16" customFormat="1">
       <c r="A1" s="7"/>
       <c r="B1" s="20"/>
       <c r="C1" s="21">
@@ -13767,8 +14465,24 @@
         <f t="shared" si="1"/>
         <v>42165</v>
       </c>
+      <c r="BV1" s="1">
+        <f>+BV2-693960</f>
+        <v>42338</v>
+      </c>
+      <c r="BW1" s="1">
+        <f>+BW2-693960</f>
+        <v>42360</v>
+      </c>
+      <c r="BX1" s="1">
+        <f>+BX2-693960</f>
+        <v>42382</v>
+      </c>
+      <c r="BY1" s="1">
+        <f>+BY2-693960</f>
+        <v>42401</v>
+      </c>
     </row>
-    <row r="2" spans="1:73">
+    <row r="2" spans="1:77">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -13988,8 +14702,20 @@
       <c r="BU2" s="4">
         <v>736125</v>
       </c>
+      <c r="BV2" s="4">
+        <v>736298</v>
+      </c>
+      <c r="BW2" s="4">
+        <v>736320</v>
+      </c>
+      <c r="BX2" s="4">
+        <v>736342</v>
+      </c>
+      <c r="BY2" s="4">
+        <v>736361</v>
+      </c>
     </row>
-    <row r="3" spans="1:73">
+    <row r="3" spans="1:77">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -14209,8 +14935,20 @@
       <c r="BU3" s="27">
         <v>0</v>
       </c>
+      <c r="BV3" s="27">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="27">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="27">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:73">
+    <row r="4" spans="1:77">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -14430,8 +15168,20 @@
       <c r="BU4" s="27">
         <v>0</v>
       </c>
+      <c r="BV4" s="27">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="27">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="27">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:73">
+    <row r="5" spans="1:77">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -14651,8 +15401,20 @@
       <c r="BU5" s="27">
         <v>0</v>
       </c>
+      <c r="BV5" s="27">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="27">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="27">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:73">
+    <row r="6" spans="1:77">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -14872,8 +15634,20 @@
       <c r="BU6" s="27">
         <v>0</v>
       </c>
+      <c r="BV6" s="27">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="27">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="27">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:73">
+    <row r="7" spans="1:77">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -15093,8 +15867,20 @@
       <c r="BU7" s="27">
         <v>0</v>
       </c>
+      <c r="BV7" s="27">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="27">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="27">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:73">
+    <row r="8" spans="1:77">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -15314,8 +16100,20 @@
       <c r="BU8" s="20">
         <v>0</v>
       </c>
+      <c r="BV8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" s="18" customFormat="1">
+    <row r="9" spans="1:77" s="18" customFormat="1">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -15535,8 +16333,20 @@
       <c r="BU9" s="20">
         <v>0.34200000000000003</v>
       </c>
+      <c r="BV9" s="20">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="BW9" s="20">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="BX9" s="20">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="BY9" s="20">
+        <v>0.34200000000000003</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" s="18" customFormat="1">
+    <row r="10" spans="1:77" s="18" customFormat="1">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -15756,8 +16566,20 @@
       <c r="BU10" s="20">
         <v>2.35</v>
       </c>
+      <c r="BV10" s="20">
+        <v>2.35</v>
+      </c>
+      <c r="BW10" s="20">
+        <v>2.35</v>
+      </c>
+      <c r="BX10" s="20">
+        <v>2.35</v>
+      </c>
+      <c r="BY10" s="20">
+        <v>2.35</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" s="19" customFormat="1">
+    <row r="11" spans="1:77" s="19" customFormat="1">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -15977,8 +16799,20 @@
       <c r="BU11" s="31">
         <v>11495</v>
       </c>
+      <c r="BV11" s="31">
+        <v>11495</v>
+      </c>
+      <c r="BW11" s="31">
+        <v>11495</v>
+      </c>
+      <c r="BX11" s="31">
+        <v>11495</v>
+      </c>
+      <c r="BY11" s="31">
+        <v>11495</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" s="11" customFormat="1">
+    <row r="12" spans="1:77" s="11" customFormat="1">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -16198,8 +17032,20 @@
       <c r="BU12" s="20">
         <v>1570</v>
       </c>
+      <c r="BV12" s="20">
+        <v>1570</v>
+      </c>
+      <c r="BW12" s="20">
+        <v>1570</v>
+      </c>
+      <c r="BX12" s="20">
+        <v>1570</v>
+      </c>
+      <c r="BY12" s="20">
+        <v>1570</v>
+      </c>
     </row>
-    <row r="13" spans="1:73">
+    <row r="13" spans="1:77">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -16419,8 +17265,20 @@
       <c r="BU13" s="20">
         <v>80</v>
       </c>
+      <c r="BV13" s="20">
+        <v>80</v>
+      </c>
+      <c r="BW13" s="20">
+        <v>80</v>
+      </c>
+      <c r="BX13" s="20">
+        <v>80</v>
+      </c>
+      <c r="BY13" s="20">
+        <v>80</v>
+      </c>
     </row>
-    <row r="14" spans="1:73">
+    <row r="14" spans="1:77">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -16640,8 +17498,20 @@
       <c r="BU14" s="32">
         <v>2.9000000000000002E-8</v>
       </c>
+      <c r="BV14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
+      <c r="BW14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
+      <c r="BX14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
+      <c r="BY14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
     </row>
-    <row r="15" spans="1:73">
+    <row r="15" spans="1:77">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -16861,8 +17731,20 @@
       <c r="BU15" s="20">
         <v>1020</v>
       </c>
+      <c r="BV15" s="20">
+        <v>1020</v>
+      </c>
+      <c r="BW15" s="20">
+        <v>1020</v>
+      </c>
+      <c r="BX15" s="20">
+        <v>1020</v>
+      </c>
+      <c r="BY15" s="20">
+        <v>1020</v>
+      </c>
     </row>
-    <row r="16" spans="1:73">
+    <row r="16" spans="1:77">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -17082,8 +17964,20 @@
       <c r="BU16" s="20">
         <v>14</v>
       </c>
+      <c r="BV16" s="20">
+        <v>14</v>
+      </c>
+      <c r="BW16" s="20">
+        <v>14</v>
+      </c>
+      <c r="BX16" s="20">
+        <v>14</v>
+      </c>
+      <c r="BY16" s="20">
+        <v>14</v>
+      </c>
     </row>
-    <row r="17" spans="1:73">
+    <row r="17" spans="1:77">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -17303,8 +18197,20 @@
       <c r="BU17" s="20">
         <v>2423</v>
       </c>
+      <c r="BV17" s="20">
+        <v>2423</v>
+      </c>
+      <c r="BW17" s="20">
+        <v>2423</v>
+      </c>
+      <c r="BX17" s="20">
+        <v>2423</v>
+      </c>
+      <c r="BY17" s="20">
+        <v>2423</v>
+      </c>
     </row>
-    <row r="18" spans="1:73">
+    <row r="18" spans="1:77">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -17524,8 +18430,20 @@
       <c r="BU18" s="20">
         <v>0</v>
       </c>
+      <c r="BV18" s="20">
+        <v>0</v>
+      </c>
+      <c r="BW18" s="20">
+        <v>0</v>
+      </c>
+      <c r="BX18" s="20">
+        <v>0</v>
+      </c>
+      <c r="BY18" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:73">
+    <row r="19" spans="1:77">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -17745,8 +18663,20 @@
       <c r="BU19" s="22">
         <v>4370</v>
       </c>
+      <c r="BV19" s="22">
+        <v>4370</v>
+      </c>
+      <c r="BW19" s="22">
+        <v>4370</v>
+      </c>
+      <c r="BX19" s="22">
+        <v>4370</v>
+      </c>
+      <c r="BY19" s="22">
+        <v>4370</v>
+      </c>
     </row>
-    <row r="20" spans="1:73">
+    <row r="20" spans="1:77">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -17966,8 +18896,20 @@
       <c r="BU20" s="22">
         <v>10250</v>
       </c>
+      <c r="BV20" s="22">
+        <v>10250</v>
+      </c>
+      <c r="BW20" s="22">
+        <v>10250</v>
+      </c>
+      <c r="BX20" s="22">
+        <v>10250</v>
+      </c>
+      <c r="BY20" s="22">
+        <v>10250</v>
+      </c>
     </row>
-    <row r="21" spans="1:73">
+    <row r="21" spans="1:77">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -18187,8 +19129,20 @@
       <c r="BU21" s="22">
         <v>14150</v>
       </c>
+      <c r="BV21" s="22">
+        <v>14150</v>
+      </c>
+      <c r="BW21" s="22">
+        <v>14150</v>
+      </c>
+      <c r="BX21" s="22">
+        <v>14150</v>
+      </c>
+      <c r="BY21" s="22">
+        <v>14150</v>
+      </c>
     </row>
-    <row r="22" spans="1:73">
+    <row r="22" spans="1:77">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -18408,8 +19362,20 @@
       <c r="BU22" s="22">
         <v>21800</v>
       </c>
+      <c r="BV22" s="22">
+        <v>21800</v>
+      </c>
+      <c r="BW22" s="22">
+        <v>21800</v>
+      </c>
+      <c r="BX22" s="22">
+        <v>21800</v>
+      </c>
+      <c r="BY22" s="22">
+        <v>21800</v>
+      </c>
     </row>
-    <row r="23" spans="1:73">
+    <row r="23" spans="1:77">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -18629,8 +19595,20 @@
       <c r="BU23" s="22">
         <v>26400</v>
       </c>
+      <c r="BV23" s="22">
+        <v>26400</v>
+      </c>
+      <c r="BW23" s="22">
+        <v>26400</v>
+      </c>
+      <c r="BX23" s="22">
+        <v>26400</v>
+      </c>
+      <c r="BY23" s="22">
+        <v>26400</v>
+      </c>
     </row>
-    <row r="24" spans="1:73">
+    <row r="24" spans="1:77">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -18850,8 +19828,20 @@
       <c r="BU24" s="22">
         <v>2972</v>
       </c>
+      <c r="BV24" s="22">
+        <v>2972</v>
+      </c>
+      <c r="BW24" s="22">
+        <v>2972</v>
+      </c>
+      <c r="BX24" s="22">
+        <v>2972</v>
+      </c>
+      <c r="BY24" s="22">
+        <v>2972</v>
+      </c>
     </row>
-    <row r="25" spans="1:73">
+    <row r="25" spans="1:77">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -19071,8 +20061,20 @@
       <c r="BU25" s="20">
         <v>3</v>
       </c>
+      <c r="BV25" s="20">
+        <v>3</v>
+      </c>
+      <c r="BW25" s="20">
+        <v>3</v>
+      </c>
+      <c r="BX25" s="20">
+        <v>3</v>
+      </c>
+      <c r="BY25" s="20">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:73">
+    <row r="26" spans="1:77">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -19292,8 +20294,20 @@
       <c r="BU26" s="25">
         <v>0</v>
       </c>
+      <c r="BV26" s="25">
+        <v>0</v>
+      </c>
+      <c r="BW26" s="25">
+        <v>0</v>
+      </c>
+      <c r="BX26" s="25">
+        <v>0</v>
+      </c>
+      <c r="BY26" s="25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:73">
+    <row r="27" spans="1:77">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -19513,8 +20527,20 @@
       <c r="BU27" s="26">
         <v>0</v>
       </c>
+      <c r="BV27" s="26">
+        <v>0</v>
+      </c>
+      <c r="BW27" s="26">
+        <v>0</v>
+      </c>
+      <c r="BX27" s="26">
+        <v>0</v>
+      </c>
+      <c r="BY27" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:73">
+    <row r="28" spans="1:77">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -19734,8 +20760,20 @@
       <c r="BU28" s="20">
         <v>325</v>
       </c>
+      <c r="BV28" s="20">
+        <v>325</v>
+      </c>
+      <c r="BW28" s="20">
+        <v>325</v>
+      </c>
+      <c r="BX28" s="20">
+        <v>325</v>
+      </c>
+      <c r="BY28" s="20">
+        <v>325</v>
+      </c>
     </row>
-    <row r="29" spans="1:73">
+    <row r="29" spans="1:77">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -19955,8 +20993,20 @@
       <c r="BU29" s="26">
         <v>490</v>
       </c>
+      <c r="BV29" s="26">
+        <v>490</v>
+      </c>
+      <c r="BW29" s="26">
+        <v>490</v>
+      </c>
+      <c r="BX29" s="26">
+        <v>490</v>
+      </c>
+      <c r="BY29" s="26">
+        <v>490</v>
+      </c>
     </row>
-    <row r="30" spans="1:73">
+    <row r="30" spans="1:77">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -20176,8 +21226,20 @@
       <c r="BU30" s="26">
         <v>0</v>
       </c>
+      <c r="BV30" s="26">
+        <v>0</v>
+      </c>
+      <c r="BW30" s="26">
+        <v>0</v>
+      </c>
+      <c r="BX30" s="26">
+        <v>0</v>
+      </c>
+      <c r="BY30" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:73">
+    <row r="31" spans="1:77">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -20397,8 +21459,20 @@
       <c r="BU31" s="29">
         <v>15</v>
       </c>
+      <c r="BV31" s="29">
+        <v>15</v>
+      </c>
+      <c r="BW31" s="29">
+        <v>15</v>
+      </c>
+      <c r="BX31" s="29">
+        <v>15</v>
+      </c>
+      <c r="BY31" s="29">
+        <v>15</v>
+      </c>
     </row>
-    <row r="32" spans="1:73">
+    <row r="32" spans="1:77">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -20618,8 +21692,20 @@
       <c r="BU32" s="26">
         <v>22</v>
       </c>
+      <c r="BV32" s="26">
+        <v>22</v>
+      </c>
+      <c r="BW32" s="26">
+        <v>22</v>
+      </c>
+      <c r="BX32" s="26">
+        <v>22</v>
+      </c>
+      <c r="BY32" s="26">
+        <v>22</v>
+      </c>
     </row>
-    <row r="33" spans="1:73">
+    <row r="33" spans="1:77">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -20839,8 +21925,20 @@
       <c r="BU33" s="26">
         <v>0</v>
       </c>
+      <c r="BV33" s="26">
+        <v>0</v>
+      </c>
+      <c r="BW33" s="26">
+        <v>0</v>
+      </c>
+      <c r="BX33" s="26">
+        <v>0</v>
+      </c>
+      <c r="BY33" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:73">
+    <row r="34" spans="1:77">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -21060,8 +22158,20 @@
       <c r="BU34" s="26">
         <v>0</v>
       </c>
+      <c r="BV34" s="26">
+        <v>0</v>
+      </c>
+      <c r="BW34" s="26">
+        <v>0</v>
+      </c>
+      <c r="BX34" s="26">
+        <v>0</v>
+      </c>
+      <c r="BY34" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:73">
+    <row r="35" spans="1:77">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -21281,8 +22391,20 @@
       <c r="BU35" s="20">
         <v>0</v>
       </c>
+      <c r="BV35" s="20">
+        <v>0</v>
+      </c>
+      <c r="BW35" s="20">
+        <v>0</v>
+      </c>
+      <c r="BX35" s="20">
+        <v>0</v>
+      </c>
+      <c r="BY35" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:73">
+    <row r="36" spans="1:77">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -21502,8 +22624,20 @@
       <c r="BU36" s="20">
         <v>242</v>
       </c>
+      <c r="BV36" s="20">
+        <v>242</v>
+      </c>
+      <c r="BW36" s="20">
+        <v>242</v>
+      </c>
+      <c r="BX36" s="20">
+        <v>242</v>
+      </c>
+      <c r="BY36" s="20">
+        <v>242</v>
+      </c>
     </row>
-    <row r="37" spans="1:73">
+    <row r="37" spans="1:77">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -21723,8 +22857,20 @@
       <c r="BU37" s="25" t="s">
         <v>253</v>
       </c>
+      <c r="BV37" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="BW37" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="BX37" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="BY37" s="25" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="38" spans="1:73">
+    <row r="38" spans="1:77">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -21944,8 +23090,20 @@
       <c r="BU38" s="25">
         <v>114858349</v>
       </c>
+      <c r="BV38" s="25">
+        <v>114858349</v>
+      </c>
+      <c r="BW38" s="25">
+        <v>114858349</v>
+      </c>
+      <c r="BX38" s="25">
+        <v>114858349</v>
+      </c>
+      <c r="BY38" s="25">
+        <v>114858349</v>
+      </c>
     </row>
-    <row r="39" spans="1:73">
+    <row r="39" spans="1:77">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -22165,8 +23323,20 @@
       <c r="BU39" s="25">
         <v>92010460</v>
       </c>
+      <c r="BV39" s="25">
+        <v>92010460</v>
+      </c>
+      <c r="BW39" s="25">
+        <v>92010460</v>
+      </c>
+      <c r="BX39" s="25">
+        <v>92010460</v>
+      </c>
+      <c r="BY39" s="25">
+        <v>92010460</v>
+      </c>
     </row>
-    <row r="40" spans="1:73">
+    <row r="40" spans="1:77">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -22386,8 +23556,20 @@
       <c r="BU40" s="25">
         <v>151909779</v>
       </c>
+      <c r="BV40" s="25">
+        <v>151909779</v>
+      </c>
+      <c r="BW40" s="25">
+        <v>151909779</v>
+      </c>
+      <c r="BX40" s="25">
+        <v>151909779</v>
+      </c>
+      <c r="BY40" s="25">
+        <v>151909779</v>
+      </c>
     </row>
-    <row r="41" spans="1:73">
+    <row r="41" spans="1:77">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -22607,8 +23789,20 @@
       <c r="BU41" s="25">
         <v>155024648</v>
       </c>
+      <c r="BV41" s="25">
+        <v>155024648</v>
+      </c>
+      <c r="BW41" s="25">
+        <v>155024648</v>
+      </c>
+      <c r="BX41" s="25">
+        <v>155024648</v>
+      </c>
+      <c r="BY41" s="25">
+        <v>155024648</v>
+      </c>
     </row>
-    <row r="42" spans="1:73">
+    <row r="42" spans="1:77">
       <c r="A42" s="7">
         <v>40</v>
       </c>
@@ -22828,8 +24022,20 @@
       <c r="BU42" s="25">
         <v>170169377</v>
       </c>
+      <c r="BV42" s="25">
+        <v>170169377</v>
+      </c>
+      <c r="BW42" s="25">
+        <v>170169377</v>
+      </c>
+      <c r="BX42" s="25">
+        <v>170169377</v>
+      </c>
+      <c r="BY42" s="25">
+        <v>170169377</v>
+      </c>
     </row>
-    <row r="43" spans="1:73">
+    <row r="43" spans="1:77">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -23049,8 +24255,20 @@
       <c r="BU43" s="26">
         <v>1.0049999999999999</v>
       </c>
+      <c r="BV43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="BW43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="BX43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="BY43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
     </row>
-    <row r="44" spans="1:73">
+    <row r="44" spans="1:77">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -23270,8 +24488,20 @@
       <c r="BU44" s="26">
         <v>-10</v>
       </c>
+      <c r="BV44" s="26">
+        <v>-10</v>
+      </c>
+      <c r="BW44" s="26">
+        <v>-10</v>
+      </c>
+      <c r="BX44" s="26">
+        <v>-10</v>
+      </c>
+      <c r="BY44" s="26">
+        <v>-10</v>
+      </c>
     </row>
-    <row r="45" spans="1:73">
+    <row r="45" spans="1:77">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -23491,8 +24721,20 @@
       <c r="BU45" s="20">
         <v>1733</v>
       </c>
+      <c r="BV45" s="20">
+        <v>1733</v>
+      </c>
+      <c r="BW45" s="20">
+        <v>1733</v>
+      </c>
+      <c r="BX45" s="20">
+        <v>1733</v>
+      </c>
+      <c r="BY45" s="20">
+        <v>1733</v>
+      </c>
     </row>
-    <row r="46" spans="1:73">
+    <row r="46" spans="1:77">
       <c r="A46" s="7">
         <v>44</v>
       </c>
@@ -23712,8 +24954,20 @@
       <c r="BU46" s="20">
         <v>250</v>
       </c>
+      <c r="BV46" s="20">
+        <v>250</v>
+      </c>
+      <c r="BW46" s="20">
+        <v>250</v>
+      </c>
+      <c r="BX46" s="20">
+        <v>250</v>
+      </c>
+      <c r="BY46" s="20">
+        <v>250</v>
+      </c>
     </row>
-    <row r="47" spans="1:73">
+    <row r="47" spans="1:77">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -23933,8 +25187,20 @@
       <c r="BU47" s="20">
         <v>0.4</v>
       </c>
+      <c r="BV47" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="BW47" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="BX47" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="BY47" s="20">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="48" spans="1:73">
+    <row r="48" spans="1:77">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -24154,8 +25420,20 @@
       <c r="BU48" s="20">
         <v>64</v>
       </c>
+      <c r="BV48" s="20">
+        <v>64</v>
+      </c>
+      <c r="BW48" s="20">
+        <v>64</v>
+      </c>
+      <c r="BX48" s="20">
+        <v>64</v>
+      </c>
+      <c r="BY48" s="20">
+        <v>64</v>
+      </c>
     </row>
-    <row r="49" spans="1:73">
+    <row r="49" spans="1:77">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -24375,8 +25653,20 @@
       <c r="BU49" s="20">
         <v>256</v>
       </c>
+      <c r="BV49" s="20">
+        <v>256</v>
+      </c>
+      <c r="BW49" s="20">
+        <v>256</v>
+      </c>
+      <c r="BX49" s="20">
+        <v>256</v>
+      </c>
+      <c r="BY49" s="20">
+        <v>256</v>
+      </c>
     </row>
-    <row r="50" spans="1:73">
+    <row r="50" spans="1:77">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -24596,8 +25886,20 @@
       <c r="BU50" s="20">
         <v>0</v>
       </c>
+      <c r="BV50" s="20">
+        <v>0</v>
+      </c>
+      <c r="BW50" s="20">
+        <v>0</v>
+      </c>
+      <c r="BX50" s="20">
+        <v>0</v>
+      </c>
+      <c r="BY50" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:73">
+    <row r="51" spans="1:77">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -24817,8 +26119,20 @@
       <c r="BU51" s="20">
         <v>0</v>
       </c>
+      <c r="BV51" s="20">
+        <v>0</v>
+      </c>
+      <c r="BW51" s="20">
+        <v>0</v>
+      </c>
+      <c r="BX51" s="20">
+        <v>0</v>
+      </c>
+      <c r="BY51" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:73">
+    <row r="52" spans="1:77">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -25038,8 +26352,20 @@
       <c r="BU52" s="20">
         <v>0</v>
       </c>
+      <c r="BV52" s="20">
+        <v>0</v>
+      </c>
+      <c r="BW52" s="20">
+        <v>0</v>
+      </c>
+      <c r="BX52" s="20">
+        <v>0</v>
+      </c>
+      <c r="BY52" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:73">
+    <row r="53" spans="1:77">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -25259,8 +26585,20 @@
       <c r="BU53" s="20">
         <v>2224</v>
       </c>
+      <c r="BV53" s="20">
+        <v>2224</v>
+      </c>
+      <c r="BW53" s="20">
+        <v>2224</v>
+      </c>
+      <c r="BX53" s="20">
+        <v>2224</v>
+      </c>
+      <c r="BY53" s="20">
+        <v>2224</v>
+      </c>
     </row>
-    <row r="54" spans="1:73">
+    <row r="54" spans="1:77">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -25423,7 +26761,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:73">
+    <row r="55" spans="1:77">
       <c r="A55" s="22"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -25514,10 +26852,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69:B71"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B75" sqref="A72:B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -26747,7 +28085,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1">
-        <f t="shared" ref="A66:A71" si="5">+B66-693960</f>
+        <f t="shared" ref="A66:A75" si="5">+B66-693960</f>
         <v>42109</v>
       </c>
       <c r="B66" s="13">
@@ -26850,6 +28188,78 @@
         <v>140</v>
       </c>
       <c r="E71">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <f t="shared" si="5"/>
+        <v>42338</v>
+      </c>
+      <c r="B72" s="4">
+        <v>736298</v>
+      </c>
+      <c r="C72" t="s">
+        <v>265</v>
+      </c>
+      <c r="D72" t="s">
+        <v>140</v>
+      </c>
+      <c r="E72">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <f t="shared" si="5"/>
+        <v>42360</v>
+      </c>
+      <c r="B73" s="4">
+        <v>736320</v>
+      </c>
+      <c r="C73" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" t="s">
+        <v>140</v>
+      </c>
+      <c r="E73">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <f t="shared" si="5"/>
+        <v>42382</v>
+      </c>
+      <c r="B74" s="4">
+        <v>736342</v>
+      </c>
+      <c r="C74" t="s">
+        <v>266</v>
+      </c>
+      <c r="D74" t="s">
+        <v>140</v>
+      </c>
+      <c r="E74">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <f t="shared" si="5"/>
+        <v>42401</v>
+      </c>
+      <c r="B75" s="4">
+        <v>736361</v>
+      </c>
+      <c r="C75" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" t="s">
+        <v>140</v>
+      </c>
+      <c r="E75">
         <v>312</v>
       </c>
     </row>

--- a/icf185.xlsx
+++ b/icf185.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="0" windowWidth="21060" windowHeight="15360"/>
+    <workbookView xWindow="3340" yWindow="0" windowWidth="28480" windowHeight="22300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="icf.185" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="278">
   <si>
     <t>#</t>
   </si>
@@ -824,17 +824,50 @@
   <si>
     <t>"PTB"</t>
   </si>
+  <si>
+    <t>Brewer Experimento ULL</t>
+  </si>
+  <si>
+    <t>Calibración 1000W</t>
+  </si>
+  <si>
+    <t>Se cambia ICF28815</t>
+  </si>
+  <si>
+    <t>Brewer desplazado a la Marina</t>
+  </si>
+  <si>
+    <t>Brewer instalado en Izaña</t>
+  </si>
+  <si>
+    <t>experimento PTB/ cambio SL</t>
+  </si>
+  <si>
+    <t>Brewer retirado temporal</t>
+  </si>
+  <si>
+    <t>Brewer instalado en la azotea</t>
+  </si>
+  <si>
+    <t>Mantenimiento Kipp¬zonen</t>
+  </si>
+  <si>
+    <t>Brewer bajado laboratorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brewer instalado Izaña </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="d\-m\-yy;@"/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="178" formatCode="d\-m\-yy;@"/>
+    <numFmt numFmtId="179" formatCode="0.00000"/>
+    <numFmt numFmtId="180" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,23 +895,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -898,81 +914,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1000,7 +948,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1010,7 +958,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1043,75 +991,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="69">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1509,10 +1389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BY55"/>
+  <dimension ref="A1:CB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
-      <selection activeCell="BY3" sqref="BY3:BY53"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="CB3" sqref="CB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1537,7 +1417,7 @@
     <col min="33" max="16384" width="11.33203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" s="21" customFormat="1">
+    <row r="1" spans="1:80" s="21" customFormat="1">
       <c r="A1" s="7"/>
       <c r="B1" s="20"/>
       <c r="C1" s="21">
@@ -1825,23 +1705,35 @@
         <v>42165</v>
       </c>
       <c r="BV1" s="1">
-        <f>+BV2-693960</f>
+        <f t="shared" ref="BV1:CB1" si="4">+BV2-693960</f>
         <v>42338</v>
       </c>
       <c r="BW1" s="1">
-        <f>+BW2-693960</f>
+        <f t="shared" si="4"/>
         <v>42360</v>
       </c>
       <c r="BX1" s="1">
-        <f>+BX2-693960</f>
+        <f t="shared" si="4"/>
         <v>42382</v>
       </c>
       <c r="BY1" s="1">
-        <f>+BY2-693960</f>
+        <f t="shared" si="4"/>
         <v>42401</v>
       </c>
+      <c r="BZ1" s="1">
+        <f t="shared" si="4"/>
+        <v>42417</v>
+      </c>
+      <c r="CA1" s="1">
+        <f t="shared" si="4"/>
+        <v>42439</v>
+      </c>
+      <c r="CB1" s="1">
+        <f t="shared" si="4"/>
+        <v>42458</v>
+      </c>
     </row>
-    <row r="2" spans="1:77" s="22" customFormat="1">
+    <row r="2" spans="1:80" s="22" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -2073,8 +1965,17 @@
       <c r="BY2" s="4">
         <v>736361</v>
       </c>
+      <c r="BZ2" s="4">
+        <v>736377</v>
+      </c>
+      <c r="CA2" s="4">
+        <v>736399</v>
+      </c>
+      <c r="CB2" s="4">
+        <v>736418</v>
+      </c>
     </row>
-    <row r="3" spans="1:77" ht="18" customHeight="1">
+    <row r="3" spans="1:80" ht="18" customHeight="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -2306,8 +2207,17 @@
       <c r="BY3" s="27">
         <v>0</v>
       </c>
+      <c r="BZ3" s="27">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="27">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:80">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -2539,8 +2449,17 @@
       <c r="BY4" s="27">
         <v>-0.2</v>
       </c>
+      <c r="BZ4" s="27">
+        <v>-0.2</v>
+      </c>
+      <c r="CA4" s="27">
+        <v>-0.2</v>
+      </c>
+      <c r="CB4" s="27">
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:80">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -2772,8 +2691,17 @@
       <c r="BY5" s="27">
         <v>-0.2</v>
       </c>
+      <c r="BZ5" s="27">
+        <v>-0.2</v>
+      </c>
+      <c r="CA5" s="27">
+        <v>-0.2</v>
+      </c>
+      <c r="CB5" s="27">
+        <v>-0.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:80">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -3005,8 +2933,17 @@
       <c r="BY6" s="27">
         <v>0</v>
       </c>
+      <c r="BZ6" s="27">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="27">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:80">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -3238,8 +3175,17 @@
       <c r="BY7" s="27">
         <v>0.7</v>
       </c>
+      <c r="BZ7" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="CA7" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="CB7" s="27">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:80">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -3471,8 +3417,17 @@
       <c r="BY8" s="20">
         <v>0</v>
       </c>
+      <c r="BZ8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:80">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -3704,8 +3659,17 @@
       <c r="BY9" s="20">
         <v>0.34100000000000003</v>
       </c>
+      <c r="BZ9" s="20">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="CA9" s="20">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="CB9" s="20">
+        <v>0.34100000000000003</v>
+      </c>
     </row>
-    <row r="10" spans="1:77">
+    <row r="10" spans="1:80">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -3937,8 +3901,17 @@
       <c r="BY10" s="20">
         <v>2.35</v>
       </c>
+      <c r="BZ10" s="20">
+        <v>2.35</v>
+      </c>
+      <c r="CA10" s="20">
+        <v>2.35</v>
+      </c>
+      <c r="CB10" s="20">
+        <v>2.35</v>
+      </c>
     </row>
-    <row r="11" spans="1:77">
+    <row r="11" spans="1:80">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -4170,8 +4143,17 @@
       <c r="BY11" s="31">
         <v>11495</v>
       </c>
+      <c r="BZ11" s="31">
+        <v>11495</v>
+      </c>
+      <c r="CA11" s="31">
+        <v>11495</v>
+      </c>
+      <c r="CB11" s="31">
+        <v>11495</v>
+      </c>
     </row>
-    <row r="12" spans="1:77" s="22" customFormat="1" ht="17.25" customHeight="1">
+    <row r="12" spans="1:80" s="22" customFormat="1" ht="17.25" customHeight="1">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -4403,8 +4385,17 @@
       <c r="BY12" s="20">
         <v>1555</v>
       </c>
+      <c r="BZ12" s="20">
+        <v>1555</v>
+      </c>
+      <c r="CA12" s="20">
+        <v>1555</v>
+      </c>
+      <c r="CB12" s="20">
+        <v>1555</v>
+      </c>
     </row>
-    <row r="13" spans="1:77" s="22" customFormat="1">
+    <row r="13" spans="1:80" s="22" customFormat="1">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -4636,8 +4627,17 @@
       <c r="BY13" s="20">
         <v>80</v>
       </c>
+      <c r="BZ13" s="20">
+        <v>80</v>
+      </c>
+      <c r="CA13" s="20">
+        <v>80</v>
+      </c>
+      <c r="CB13" s="20">
+        <v>80</v>
+      </c>
     </row>
-    <row r="14" spans="1:77" s="32" customFormat="1" ht="17.25" customHeight="1">
+    <row r="14" spans="1:80" s="32" customFormat="1" ht="17.25" customHeight="1">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -4869,8 +4869,17 @@
       <c r="BY14" s="32">
         <v>2.9000000000000002E-8</v>
       </c>
+      <c r="BZ14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
+      <c r="CA14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
+      <c r="CB14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
     </row>
-    <row r="15" spans="1:77" s="22" customFormat="1" ht="16.5" customHeight="1">
+    <row r="15" spans="1:80" s="22" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -5102,8 +5111,17 @@
       <c r="BY15" s="20">
         <v>1020</v>
       </c>
+      <c r="BZ15" s="20">
+        <v>1020</v>
+      </c>
+      <c r="CA15" s="20">
+        <v>1020</v>
+      </c>
+      <c r="CB15" s="20">
+        <v>1020</v>
+      </c>
     </row>
-    <row r="16" spans="1:77" s="22" customFormat="1" ht="16.5" customHeight="1">
+    <row r="16" spans="1:80" s="22" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -5335,8 +5353,17 @@
       <c r="BY16" s="20">
         <v>14</v>
       </c>
+      <c r="BZ16" s="20">
+        <v>14</v>
+      </c>
+      <c r="CA16" s="20">
+        <v>14</v>
+      </c>
+      <c r="CB16" s="20">
+        <v>14</v>
+      </c>
     </row>
-    <row r="17" spans="1:77" s="22" customFormat="1" ht="16.5" customHeight="1">
+    <row r="17" spans="1:80" s="22" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -5568,8 +5595,17 @@
       <c r="BY17" s="20">
         <v>2423</v>
       </c>
+      <c r="BZ17" s="20">
+        <v>2423</v>
+      </c>
+      <c r="CA17" s="20">
+        <v>2423</v>
+      </c>
+      <c r="CB17" s="20">
+        <v>2423</v>
+      </c>
     </row>
-    <row r="18" spans="1:77" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:80" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -5801,8 +5837,17 @@
       <c r="BY18" s="20">
         <v>0</v>
       </c>
+      <c r="BZ18" s="20">
+        <v>0</v>
+      </c>
+      <c r="CA18" s="20">
+        <v>0</v>
+      </c>
+      <c r="CB18" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:77" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:80" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -6034,8 +6079,17 @@
       <c r="BY19" s="22">
         <v>4370</v>
       </c>
+      <c r="BZ19" s="22">
+        <v>4370</v>
+      </c>
+      <c r="CA19" s="22">
+        <v>4370</v>
+      </c>
+      <c r="CB19" s="22">
+        <v>4370</v>
+      </c>
     </row>
-    <row r="20" spans="1:77" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:80" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -6267,8 +6321,17 @@
       <c r="BY20" s="22">
         <v>10250</v>
       </c>
+      <c r="BZ20" s="22">
+        <v>10250</v>
+      </c>
+      <c r="CA20" s="22">
+        <v>10250</v>
+      </c>
+      <c r="CB20" s="22">
+        <v>10250</v>
+      </c>
     </row>
-    <row r="21" spans="1:77" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:80" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -6500,8 +6563,17 @@
       <c r="BY21" s="22">
         <v>14150</v>
       </c>
+      <c r="BZ21" s="22">
+        <v>14150</v>
+      </c>
+      <c r="CA21" s="22">
+        <v>14150</v>
+      </c>
+      <c r="CB21" s="22">
+        <v>14150</v>
+      </c>
     </row>
-    <row r="22" spans="1:77" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:80" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -6733,8 +6805,17 @@
       <c r="BY22" s="22">
         <v>21800</v>
       </c>
+      <c r="BZ22" s="22">
+        <v>21800</v>
+      </c>
+      <c r="CA22" s="22">
+        <v>21800</v>
+      </c>
+      <c r="CB22" s="22">
+        <v>21800</v>
+      </c>
     </row>
-    <row r="23" spans="1:77" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:80" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -6966,8 +7047,17 @@
       <c r="BY23" s="22">
         <v>26400</v>
       </c>
+      <c r="BZ23" s="22">
+        <v>26400</v>
+      </c>
+      <c r="CA23" s="22">
+        <v>26400</v>
+      </c>
+      <c r="CB23" s="22">
+        <v>26400</v>
+      </c>
     </row>
-    <row r="24" spans="1:77" s="22" customFormat="1">
+    <row r="24" spans="1:80" s="22" customFormat="1">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -7199,8 +7289,17 @@
       <c r="BY24" s="22">
         <v>2972</v>
       </c>
+      <c r="BZ24" s="22">
+        <v>2972</v>
+      </c>
+      <c r="CA24" s="22">
+        <v>2972</v>
+      </c>
+      <c r="CB24" s="22">
+        <v>2972</v>
+      </c>
     </row>
-    <row r="25" spans="1:77" s="22" customFormat="1">
+    <row r="25" spans="1:80" s="22" customFormat="1">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -7432,8 +7531,17 @@
       <c r="BY25" s="20">
         <v>3</v>
       </c>
+      <c r="BZ25" s="20">
+        <v>3</v>
+      </c>
+      <c r="CA25" s="20">
+        <v>3</v>
+      </c>
+      <c r="CB25" s="20">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:77" s="22" customFormat="1">
+    <row r="26" spans="1:80" s="22" customFormat="1">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -7665,8 +7773,17 @@
       <c r="BY26" s="25">
         <v>1</v>
       </c>
+      <c r="BZ26" s="25">
+        <v>1</v>
+      </c>
+      <c r="CA26" s="25">
+        <v>1</v>
+      </c>
+      <c r="CB26" s="25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:77">
+    <row r="27" spans="1:80">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -7898,8 +8015,17 @@
       <c r="BY27" s="26">
         <v>0</v>
       </c>
+      <c r="BZ27" s="26">
+        <v>0</v>
+      </c>
+      <c r="CA27" s="26">
+        <v>0</v>
+      </c>
+      <c r="CB27" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:77">
+    <row r="28" spans="1:80">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -8131,8 +8257,17 @@
       <c r="BY28" s="20">
         <v>312</v>
       </c>
+      <c r="BZ28" s="20">
+        <v>312</v>
+      </c>
+      <c r="CA28" s="20">
+        <v>312</v>
+      </c>
+      <c r="CB28" s="20">
+        <v>312</v>
+      </c>
     </row>
-    <row r="29" spans="1:77">
+    <row r="29" spans="1:80">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -8364,8 +8499,17 @@
       <c r="BY29" s="26">
         <v>490</v>
       </c>
+      <c r="BZ29" s="26">
+        <v>490</v>
+      </c>
+      <c r="CA29" s="26">
+        <v>490</v>
+      </c>
+      <c r="CB29" s="26">
+        <v>490</v>
+      </c>
     </row>
-    <row r="30" spans="1:77">
+    <row r="30" spans="1:80">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -8597,8 +8741,17 @@
       <c r="BY30" s="26">
         <v>0</v>
       </c>
+      <c r="BZ30" s="26">
+        <v>0</v>
+      </c>
+      <c r="CA30" s="26">
+        <v>0</v>
+      </c>
+      <c r="CB30" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:77">
+    <row r="31" spans="1:80">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -8830,8 +8983,17 @@
       <c r="BY31" s="29">
         <v>11</v>
       </c>
+      <c r="BZ31" s="29">
+        <v>11</v>
+      </c>
+      <c r="CA31" s="29">
+        <v>11</v>
+      </c>
+      <c r="CB31" s="29">
+        <v>11</v>
+      </c>
     </row>
-    <row r="32" spans="1:77">
+    <row r="32" spans="1:80">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -9063,8 +9225,17 @@
       <c r="BY32" s="26">
         <v>9</v>
       </c>
+      <c r="BZ32" s="26">
+        <v>9</v>
+      </c>
+      <c r="CA32" s="26">
+        <v>9</v>
+      </c>
+      <c r="CB32" s="26">
+        <v>9</v>
+      </c>
     </row>
-    <row r="33" spans="1:77">
+    <row r="33" spans="1:80">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -9296,8 +9467,17 @@
       <c r="BY33" s="26">
         <v>0</v>
       </c>
+      <c r="BZ33" s="26">
+        <v>0</v>
+      </c>
+      <c r="CA33" s="26">
+        <v>0</v>
+      </c>
+      <c r="CB33" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:77">
+    <row r="34" spans="1:80">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -9529,8 +9709,17 @@
       <c r="BY34" s="26">
         <v>0</v>
       </c>
+      <c r="BZ34" s="26">
+        <v>0</v>
+      </c>
+      <c r="CA34" s="26">
+        <v>0</v>
+      </c>
+      <c r="CB34" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:77" s="22" customFormat="1">
+    <row r="35" spans="1:80" s="22" customFormat="1">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -9762,8 +9951,17 @@
       <c r="BY35" s="20">
         <v>0</v>
       </c>
+      <c r="BZ35" s="20">
+        <v>0</v>
+      </c>
+      <c r="CA35" s="20">
+        <v>0</v>
+      </c>
+      <c r="CB35" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:77" s="22" customFormat="1">
+    <row r="36" spans="1:80" s="22" customFormat="1">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -9995,8 +10193,17 @@
       <c r="BY36" s="20">
         <v>242</v>
       </c>
+      <c r="BZ36" s="20">
+        <v>242</v>
+      </c>
+      <c r="CA36" s="20">
+        <v>242</v>
+      </c>
+      <c r="CB36" s="20">
+        <v>242</v>
+      </c>
     </row>
-    <row r="37" spans="1:77" s="22" customFormat="1">
+    <row r="37" spans="1:80" s="22" customFormat="1">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -10228,8 +10435,17 @@
       <c r="BY37" s="25" t="s">
         <v>253</v>
       </c>
+      <c r="BZ37" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="CA37" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="CB37" s="25" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="38" spans="1:77" s="22" customFormat="1">
+    <row r="38" spans="1:80" s="22" customFormat="1">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -10461,8 +10677,17 @@
       <c r="BY38" s="25">
         <v>114858349</v>
       </c>
+      <c r="BZ38" s="25">
+        <v>114858349</v>
+      </c>
+      <c r="CA38" s="25">
+        <v>114858349</v>
+      </c>
+      <c r="CB38" s="25">
+        <v>114858349</v>
+      </c>
     </row>
-    <row r="39" spans="1:77" s="22" customFormat="1">
+    <row r="39" spans="1:80" s="22" customFormat="1">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -10694,8 +10919,17 @@
       <c r="BY39" s="25">
         <v>92010460</v>
       </c>
+      <c r="BZ39" s="25">
+        <v>92010460</v>
+      </c>
+      <c r="CA39" s="25">
+        <v>92010460</v>
+      </c>
+      <c r="CB39" s="25">
+        <v>92010460</v>
+      </c>
     </row>
-    <row r="40" spans="1:77" s="22" customFormat="1">
+    <row r="40" spans="1:80" s="22" customFormat="1">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -10927,8 +11161,17 @@
       <c r="BY40" s="25">
         <v>151909779</v>
       </c>
+      <c r="BZ40" s="25">
+        <v>151909779</v>
+      </c>
+      <c r="CA40" s="25">
+        <v>151909779</v>
+      </c>
+      <c r="CB40" s="25">
+        <v>151909779</v>
+      </c>
     </row>
-    <row r="41" spans="1:77" s="22" customFormat="1">
+    <row r="41" spans="1:80" s="22" customFormat="1">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -11160,8 +11403,17 @@
       <c r="BY41" s="25">
         <v>155024648</v>
       </c>
+      <c r="BZ41" s="25">
+        <v>155024648</v>
+      </c>
+      <c r="CA41" s="25">
+        <v>155024648</v>
+      </c>
+      <c r="CB41" s="25">
+        <v>155024648</v>
+      </c>
     </row>
-    <row r="42" spans="1:77" s="22" customFormat="1">
+    <row r="42" spans="1:80" s="22" customFormat="1">
       <c r="A42" s="7">
         <v>40</v>
       </c>
@@ -11393,8 +11645,17 @@
       <c r="BY42" s="25">
         <v>170169377</v>
       </c>
+      <c r="BZ42" s="25">
+        <v>170169377</v>
+      </c>
+      <c r="CA42" s="25">
+        <v>170169377</v>
+      </c>
+      <c r="CB42" s="25">
+        <v>170169377</v>
+      </c>
     </row>
-    <row r="43" spans="1:77">
+    <row r="43" spans="1:80">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -11626,8 +11887,17 @@
       <c r="BY43" s="26">
         <v>1.0049999999999999</v>
       </c>
+      <c r="BZ43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="CA43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="CB43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
     </row>
-    <row r="44" spans="1:77">
+    <row r="44" spans="1:80">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -11859,8 +12129,17 @@
       <c r="BY44" s="26">
         <v>-10</v>
       </c>
+      <c r="BZ44" s="26">
+        <v>-10</v>
+      </c>
+      <c r="CA44" s="26">
+        <v>-10</v>
+      </c>
+      <c r="CB44" s="26">
+        <v>-10</v>
+      </c>
     </row>
-    <row r="45" spans="1:77" s="22" customFormat="1" ht="11.25" customHeight="1">
+    <row r="45" spans="1:80" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -12092,8 +12371,17 @@
       <c r="BY45" s="20">
         <v>1733</v>
       </c>
+      <c r="BZ45" s="20">
+        <v>1733</v>
+      </c>
+      <c r="CA45" s="20">
+        <v>1733</v>
+      </c>
+      <c r="CB45" s="20">
+        <v>1733</v>
+      </c>
     </row>
-    <row r="46" spans="1:77" s="22" customFormat="1">
+    <row r="46" spans="1:80" s="22" customFormat="1">
       <c r="A46" s="7">
         <v>44</v>
       </c>
@@ -12325,8 +12613,17 @@
       <c r="BY46" s="20">
         <v>250</v>
       </c>
+      <c r="BZ46" s="20">
+        <v>250</v>
+      </c>
+      <c r="CA46" s="20">
+        <v>250</v>
+      </c>
+      <c r="CB46" s="20">
+        <v>250</v>
+      </c>
     </row>
-    <row r="47" spans="1:77" s="22" customFormat="1">
+    <row r="47" spans="1:80" s="22" customFormat="1">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -12558,8 +12855,17 @@
       <c r="BY47" s="20">
         <v>0.4</v>
       </c>
+      <c r="BZ47" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="CA47" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="CB47" s="20">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="48" spans="1:77" s="22" customFormat="1">
+    <row r="48" spans="1:80" s="22" customFormat="1">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -12791,8 +13097,17 @@
       <c r="BY48" s="20">
         <v>64</v>
       </c>
+      <c r="BZ48" s="20">
+        <v>64</v>
+      </c>
+      <c r="CA48" s="20">
+        <v>64</v>
+      </c>
+      <c r="CB48" s="20">
+        <v>64</v>
+      </c>
     </row>
-    <row r="49" spans="1:77" s="22" customFormat="1">
+    <row r="49" spans="1:80" s="22" customFormat="1">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -13024,8 +13339,17 @@
       <c r="BY49" s="20">
         <v>256</v>
       </c>
+      <c r="BZ49" s="20">
+        <v>256</v>
+      </c>
+      <c r="CA49" s="20">
+        <v>256</v>
+      </c>
+      <c r="CB49" s="20">
+        <v>256</v>
+      </c>
     </row>
-    <row r="50" spans="1:77" s="22" customFormat="1">
+    <row r="50" spans="1:80" s="22" customFormat="1">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -13257,8 +13581,17 @@
       <c r="BY50" s="20">
         <v>0</v>
       </c>
+      <c r="BZ50" s="20">
+        <v>0</v>
+      </c>
+      <c r="CA50" s="20">
+        <v>0</v>
+      </c>
+      <c r="CB50" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:77" s="22" customFormat="1">
+    <row r="51" spans="1:80" s="22" customFormat="1">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -13490,8 +13823,17 @@
       <c r="BY51" s="20">
         <v>0</v>
       </c>
+      <c r="BZ51" s="20">
+        <v>0</v>
+      </c>
+      <c r="CA51" s="20">
+        <v>0</v>
+      </c>
+      <c r="CB51" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:77" s="22" customFormat="1">
+    <row r="52" spans="1:80" s="22" customFormat="1">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -13723,8 +14065,17 @@
       <c r="BY52" s="20">
         <v>0</v>
       </c>
+      <c r="BZ52" s="20">
+        <v>0</v>
+      </c>
+      <c r="CA52" s="20">
+        <v>0</v>
+      </c>
+      <c r="CB52" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:77" s="22" customFormat="1">
+    <row r="53" spans="1:80" s="22" customFormat="1">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -13956,8 +14307,17 @@
       <c r="BY53" s="20">
         <v>2224</v>
       </c>
+      <c r="BZ53" s="20">
+        <v>2224</v>
+      </c>
+      <c r="CA53" s="20">
+        <v>2224</v>
+      </c>
+      <c r="CB53" s="20">
+        <v>2224</v>
+      </c>
     </row>
-    <row r="54" spans="1:77">
+    <row r="54" spans="1:80">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -14110,7 +14470,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:77">
+    <row r="55" spans="1:80">
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
@@ -14148,10 +14508,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BY55"/>
+  <dimension ref="A1:CB55"/>
   <sheetViews>
-    <sheetView topLeftCell="BT1" workbookViewId="0">
-      <selection activeCell="BV1" sqref="BV1:BY2"/>
+    <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
+      <selection activeCell="CB3" sqref="CB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14178,7 +14538,7 @@
     <col min="74" max="16384" width="11.5" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" s="16" customFormat="1">
+    <row r="1" spans="1:80" s="16" customFormat="1">
       <c r="A1" s="7"/>
       <c r="B1" s="20"/>
       <c r="C1" s="21">
@@ -14466,23 +14826,35 @@
         <v>42165</v>
       </c>
       <c r="BV1" s="1">
-        <f>+BV2-693960</f>
+        <f t="shared" ref="BV1:CB1" si="2">+BV2-693960</f>
         <v>42338</v>
       </c>
       <c r="BW1" s="1">
-        <f>+BW2-693960</f>
+        <f t="shared" si="2"/>
         <v>42360</v>
       </c>
       <c r="BX1" s="1">
-        <f>+BX2-693960</f>
+        <f t="shared" si="2"/>
         <v>42382</v>
       </c>
       <c r="BY1" s="1">
-        <f>+BY2-693960</f>
+        <f t="shared" si="2"/>
         <v>42401</v>
       </c>
+      <c r="BZ1" s="1">
+        <f t="shared" si="2"/>
+        <v>42417</v>
+      </c>
+      <c r="CA1" s="1">
+        <f t="shared" si="2"/>
+        <v>42439</v>
+      </c>
+      <c r="CB1" s="1">
+        <f t="shared" si="2"/>
+        <v>42458</v>
+      </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:80">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -14714,8 +15086,17 @@
       <c r="BY2" s="4">
         <v>736361</v>
       </c>
+      <c r="BZ2" s="4">
+        <v>736377</v>
+      </c>
+      <c r="CA2" s="4">
+        <v>736399</v>
+      </c>
+      <c r="CB2" s="4">
+        <v>736418</v>
+      </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:80">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -14947,8 +15328,17 @@
       <c r="BY3" s="27">
         <v>0</v>
       </c>
+      <c r="BZ3" s="27">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="27">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:80">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -15180,8 +15570,17 @@
       <c r="BY4" s="27">
         <v>0</v>
       </c>
+      <c r="BZ4" s="27">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="27">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:80">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -15413,8 +15812,17 @@
       <c r="BY5" s="27">
         <v>0</v>
       </c>
+      <c r="BZ5" s="27">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="27">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:80">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -15646,8 +16054,17 @@
       <c r="BY6" s="27">
         <v>0</v>
       </c>
+      <c r="BZ6" s="27">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="27">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:80">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -15879,8 +16296,17 @@
       <c r="BY7" s="27">
         <v>0</v>
       </c>
+      <c r="BZ7" s="27">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="27">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:80">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -16112,8 +16538,17 @@
       <c r="BY8" s="20">
         <v>0</v>
       </c>
+      <c r="BZ8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:77" s="18" customFormat="1">
+    <row r="9" spans="1:80" s="18" customFormat="1">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -16345,8 +16780,17 @@
       <c r="BY9" s="20">
         <v>0.34200000000000003</v>
       </c>
+      <c r="BZ9" s="20">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="CA9" s="20">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="CB9" s="20">
+        <v>0.34200000000000003</v>
+      </c>
     </row>
-    <row r="10" spans="1:77" s="18" customFormat="1">
+    <row r="10" spans="1:80" s="18" customFormat="1">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -16578,8 +17022,17 @@
       <c r="BY10" s="20">
         <v>2.35</v>
       </c>
+      <c r="BZ10" s="20">
+        <v>2.35</v>
+      </c>
+      <c r="CA10" s="20">
+        <v>2.35</v>
+      </c>
+      <c r="CB10" s="20">
+        <v>2.35</v>
+      </c>
     </row>
-    <row r="11" spans="1:77" s="19" customFormat="1">
+    <row r="11" spans="1:80" s="19" customFormat="1">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -16811,8 +17264,17 @@
       <c r="BY11" s="31">
         <v>11495</v>
       </c>
+      <c r="BZ11" s="31">
+        <v>11495</v>
+      </c>
+      <c r="CA11" s="31">
+        <v>11495</v>
+      </c>
+      <c r="CB11" s="31">
+        <v>11495</v>
+      </c>
     </row>
-    <row r="12" spans="1:77" s="11" customFormat="1">
+    <row r="12" spans="1:80" s="11" customFormat="1">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -17044,8 +17506,17 @@
       <c r="BY12" s="20">
         <v>1570</v>
       </c>
+      <c r="BZ12" s="20">
+        <v>1570</v>
+      </c>
+      <c r="CA12" s="20">
+        <v>1570</v>
+      </c>
+      <c r="CB12" s="20">
+        <v>1570</v>
+      </c>
     </row>
-    <row r="13" spans="1:77">
+    <row r="13" spans="1:80">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -17277,8 +17748,17 @@
       <c r="BY13" s="20">
         <v>80</v>
       </c>
+      <c r="BZ13" s="20">
+        <v>80</v>
+      </c>
+      <c r="CA13" s="20">
+        <v>80</v>
+      </c>
+      <c r="CB13" s="20">
+        <v>80</v>
+      </c>
     </row>
-    <row r="14" spans="1:77">
+    <row r="14" spans="1:80">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -17510,8 +17990,17 @@
       <c r="BY14" s="32">
         <v>2.9000000000000002E-8</v>
       </c>
+      <c r="BZ14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
+      <c r="CA14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
+      <c r="CB14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
     </row>
-    <row r="15" spans="1:77">
+    <row r="15" spans="1:80">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -17743,8 +18232,17 @@
       <c r="BY15" s="20">
         <v>1020</v>
       </c>
+      <c r="BZ15" s="20">
+        <v>1020</v>
+      </c>
+      <c r="CA15" s="20">
+        <v>1020</v>
+      </c>
+      <c r="CB15" s="20">
+        <v>1020</v>
+      </c>
     </row>
-    <row r="16" spans="1:77">
+    <row r="16" spans="1:80">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -17976,8 +18474,17 @@
       <c r="BY16" s="20">
         <v>14</v>
       </c>
+      <c r="BZ16" s="20">
+        <v>14</v>
+      </c>
+      <c r="CA16" s="20">
+        <v>14</v>
+      </c>
+      <c r="CB16" s="20">
+        <v>14</v>
+      </c>
     </row>
-    <row r="17" spans="1:77">
+    <row r="17" spans="1:80">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -18209,8 +18716,17 @@
       <c r="BY17" s="20">
         <v>2423</v>
       </c>
+      <c r="BZ17" s="20">
+        <v>2423</v>
+      </c>
+      <c r="CA17" s="20">
+        <v>2423</v>
+      </c>
+      <c r="CB17" s="20">
+        <v>2423</v>
+      </c>
     </row>
-    <row r="18" spans="1:77">
+    <row r="18" spans="1:80">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -18442,8 +18958,17 @@
       <c r="BY18" s="20">
         <v>0</v>
       </c>
+      <c r="BZ18" s="20">
+        <v>0</v>
+      </c>
+      <c r="CA18" s="20">
+        <v>0</v>
+      </c>
+      <c r="CB18" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:77">
+    <row r="19" spans="1:80">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -18675,8 +19200,17 @@
       <c r="BY19" s="22">
         <v>4370</v>
       </c>
+      <c r="BZ19" s="22">
+        <v>4370</v>
+      </c>
+      <c r="CA19" s="22">
+        <v>4370</v>
+      </c>
+      <c r="CB19" s="22">
+        <v>4370</v>
+      </c>
     </row>
-    <row r="20" spans="1:77">
+    <row r="20" spans="1:80">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -18908,8 +19442,17 @@
       <c r="BY20" s="22">
         <v>10250</v>
       </c>
+      <c r="BZ20" s="22">
+        <v>10250</v>
+      </c>
+      <c r="CA20" s="22">
+        <v>10250</v>
+      </c>
+      <c r="CB20" s="22">
+        <v>10250</v>
+      </c>
     </row>
-    <row r="21" spans="1:77">
+    <row r="21" spans="1:80">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -19141,8 +19684,17 @@
       <c r="BY21" s="22">
         <v>14150</v>
       </c>
+      <c r="BZ21" s="22">
+        <v>14150</v>
+      </c>
+      <c r="CA21" s="22">
+        <v>14150</v>
+      </c>
+      <c r="CB21" s="22">
+        <v>14150</v>
+      </c>
     </row>
-    <row r="22" spans="1:77">
+    <row r="22" spans="1:80">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -19374,8 +19926,17 @@
       <c r="BY22" s="22">
         <v>21800</v>
       </c>
+      <c r="BZ22" s="22">
+        <v>21800</v>
+      </c>
+      <c r="CA22" s="22">
+        <v>21800</v>
+      </c>
+      <c r="CB22" s="22">
+        <v>21800</v>
+      </c>
     </row>
-    <row r="23" spans="1:77">
+    <row r="23" spans="1:80">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -19607,8 +20168,17 @@
       <c r="BY23" s="22">
         <v>26400</v>
       </c>
+      <c r="BZ23" s="22">
+        <v>26400</v>
+      </c>
+      <c r="CA23" s="22">
+        <v>26400</v>
+      </c>
+      <c r="CB23" s="22">
+        <v>26400</v>
+      </c>
     </row>
-    <row r="24" spans="1:77">
+    <row r="24" spans="1:80">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -19840,8 +20410,17 @@
       <c r="BY24" s="22">
         <v>2972</v>
       </c>
+      <c r="BZ24" s="22">
+        <v>2972</v>
+      </c>
+      <c r="CA24" s="22">
+        <v>2972</v>
+      </c>
+      <c r="CB24" s="22">
+        <v>2972</v>
+      </c>
     </row>
-    <row r="25" spans="1:77">
+    <row r="25" spans="1:80">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -20073,8 +20652,17 @@
       <c r="BY25" s="20">
         <v>3</v>
       </c>
+      <c r="BZ25" s="20">
+        <v>3</v>
+      </c>
+      <c r="CA25" s="20">
+        <v>3</v>
+      </c>
+      <c r="CB25" s="20">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:77">
+    <row r="26" spans="1:80">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -20306,8 +20894,17 @@
       <c r="BY26" s="25">
         <v>0</v>
       </c>
+      <c r="BZ26" s="25">
+        <v>0</v>
+      </c>
+      <c r="CA26" s="25">
+        <v>0</v>
+      </c>
+      <c r="CB26" s="25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:77">
+    <row r="27" spans="1:80">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -20539,8 +21136,17 @@
       <c r="BY27" s="26">
         <v>0</v>
       </c>
+      <c r="BZ27" s="26">
+        <v>0</v>
+      </c>
+      <c r="CA27" s="26">
+        <v>0</v>
+      </c>
+      <c r="CB27" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:77">
+    <row r="28" spans="1:80">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -20772,8 +21378,17 @@
       <c r="BY28" s="20">
         <v>325</v>
       </c>
+      <c r="BZ28" s="20">
+        <v>325</v>
+      </c>
+      <c r="CA28" s="20">
+        <v>325</v>
+      </c>
+      <c r="CB28" s="20">
+        <v>325</v>
+      </c>
     </row>
-    <row r="29" spans="1:77">
+    <row r="29" spans="1:80">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -21005,8 +21620,17 @@
       <c r="BY29" s="26">
         <v>490</v>
       </c>
+      <c r="BZ29" s="26">
+        <v>490</v>
+      </c>
+      <c r="CA29" s="26">
+        <v>490</v>
+      </c>
+      <c r="CB29" s="26">
+        <v>490</v>
+      </c>
     </row>
-    <row r="30" spans="1:77">
+    <row r="30" spans="1:80">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -21238,8 +21862,17 @@
       <c r="BY30" s="26">
         <v>0</v>
       </c>
+      <c r="BZ30" s="26">
+        <v>0</v>
+      </c>
+      <c r="CA30" s="26">
+        <v>0</v>
+      </c>
+      <c r="CB30" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:77">
+    <row r="31" spans="1:80">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -21471,8 +22104,17 @@
       <c r="BY31" s="29">
         <v>15</v>
       </c>
+      <c r="BZ31" s="29">
+        <v>15</v>
+      </c>
+      <c r="CA31" s="29">
+        <v>15</v>
+      </c>
+      <c r="CB31" s="29">
+        <v>15</v>
+      </c>
     </row>
-    <row r="32" spans="1:77">
+    <row r="32" spans="1:80">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -21704,8 +22346,17 @@
       <c r="BY32" s="26">
         <v>22</v>
       </c>
+      <c r="BZ32" s="26">
+        <v>22</v>
+      </c>
+      <c r="CA32" s="26">
+        <v>22</v>
+      </c>
+      <c r="CB32" s="26">
+        <v>22</v>
+      </c>
     </row>
-    <row r="33" spans="1:77">
+    <row r="33" spans="1:80">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -21937,8 +22588,17 @@
       <c r="BY33" s="26">
         <v>0</v>
       </c>
+      <c r="BZ33" s="26">
+        <v>0</v>
+      </c>
+      <c r="CA33" s="26">
+        <v>0</v>
+      </c>
+      <c r="CB33" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:77">
+    <row r="34" spans="1:80">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -22170,8 +22830,17 @@
       <c r="BY34" s="26">
         <v>0</v>
       </c>
+      <c r="BZ34" s="26">
+        <v>0</v>
+      </c>
+      <c r="CA34" s="26">
+        <v>0</v>
+      </c>
+      <c r="CB34" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:77">
+    <row r="35" spans="1:80">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -22403,8 +23072,17 @@
       <c r="BY35" s="20">
         <v>0</v>
       </c>
+      <c r="BZ35" s="20">
+        <v>0</v>
+      </c>
+      <c r="CA35" s="20">
+        <v>0</v>
+      </c>
+      <c r="CB35" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:77">
+    <row r="36" spans="1:80">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -22636,8 +23314,17 @@
       <c r="BY36" s="20">
         <v>242</v>
       </c>
+      <c r="BZ36" s="20">
+        <v>242</v>
+      </c>
+      <c r="CA36" s="20">
+        <v>242</v>
+      </c>
+      <c r="CB36" s="20">
+        <v>242</v>
+      </c>
     </row>
-    <row r="37" spans="1:77">
+    <row r="37" spans="1:80">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -22869,8 +23556,17 @@
       <c r="BY37" s="25" t="s">
         <v>253</v>
       </c>
+      <c r="BZ37" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="CA37" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="CB37" s="25" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="38" spans="1:77">
+    <row r="38" spans="1:80">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -23102,8 +23798,17 @@
       <c r="BY38" s="25">
         <v>114858349</v>
       </c>
+      <c r="BZ38" s="25">
+        <v>114858349</v>
+      </c>
+      <c r="CA38" s="25">
+        <v>114858349</v>
+      </c>
+      <c r="CB38" s="25">
+        <v>114858349</v>
+      </c>
     </row>
-    <row r="39" spans="1:77">
+    <row r="39" spans="1:80">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -23335,8 +24040,17 @@
       <c r="BY39" s="25">
         <v>92010460</v>
       </c>
+      <c r="BZ39" s="25">
+        <v>92010460</v>
+      </c>
+      <c r="CA39" s="25">
+        <v>92010460</v>
+      </c>
+      <c r="CB39" s="25">
+        <v>92010460</v>
+      </c>
     </row>
-    <row r="40" spans="1:77">
+    <row r="40" spans="1:80">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -23568,8 +24282,17 @@
       <c r="BY40" s="25">
         <v>151909779</v>
       </c>
+      <c r="BZ40" s="25">
+        <v>151909779</v>
+      </c>
+      <c r="CA40" s="25">
+        <v>151909779</v>
+      </c>
+      <c r="CB40" s="25">
+        <v>151909779</v>
+      </c>
     </row>
-    <row r="41" spans="1:77">
+    <row r="41" spans="1:80">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -23801,8 +24524,17 @@
       <c r="BY41" s="25">
         <v>155024648</v>
       </c>
+      <c r="BZ41" s="25">
+        <v>155024648</v>
+      </c>
+      <c r="CA41" s="25">
+        <v>155024648</v>
+      </c>
+      <c r="CB41" s="25">
+        <v>155024648</v>
+      </c>
     </row>
-    <row r="42" spans="1:77">
+    <row r="42" spans="1:80">
       <c r="A42" s="7">
         <v>40</v>
       </c>
@@ -24034,8 +24766,17 @@
       <c r="BY42" s="25">
         <v>170169377</v>
       </c>
+      <c r="BZ42" s="25">
+        <v>170169377</v>
+      </c>
+      <c r="CA42" s="25">
+        <v>170169377</v>
+      </c>
+      <c r="CB42" s="25">
+        <v>170169377</v>
+      </c>
     </row>
-    <row r="43" spans="1:77">
+    <row r="43" spans="1:80">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -24267,8 +25008,17 @@
       <c r="BY43" s="26">
         <v>1.0049999999999999</v>
       </c>
+      <c r="BZ43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="CA43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="CB43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
     </row>
-    <row r="44" spans="1:77">
+    <row r="44" spans="1:80">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -24500,8 +25250,17 @@
       <c r="BY44" s="26">
         <v>-10</v>
       </c>
+      <c r="BZ44" s="26">
+        <v>-10</v>
+      </c>
+      <c r="CA44" s="26">
+        <v>-10</v>
+      </c>
+      <c r="CB44" s="26">
+        <v>-10</v>
+      </c>
     </row>
-    <row r="45" spans="1:77">
+    <row r="45" spans="1:80">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -24733,8 +25492,17 @@
       <c r="BY45" s="20">
         <v>1733</v>
       </c>
+      <c r="BZ45" s="20">
+        <v>1733</v>
+      </c>
+      <c r="CA45" s="20">
+        <v>1733</v>
+      </c>
+      <c r="CB45" s="20">
+        <v>1733</v>
+      </c>
     </row>
-    <row r="46" spans="1:77">
+    <row r="46" spans="1:80">
       <c r="A46" s="7">
         <v>44</v>
       </c>
@@ -24966,8 +25734,17 @@
       <c r="BY46" s="20">
         <v>250</v>
       </c>
+      <c r="BZ46" s="20">
+        <v>250</v>
+      </c>
+      <c r="CA46" s="20">
+        <v>250</v>
+      </c>
+      <c r="CB46" s="20">
+        <v>250</v>
+      </c>
     </row>
-    <row r="47" spans="1:77">
+    <row r="47" spans="1:80">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -25199,8 +25976,17 @@
       <c r="BY47" s="20">
         <v>0.4</v>
       </c>
+      <c r="BZ47" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="CA47" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="CB47" s="20">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="48" spans="1:77">
+    <row r="48" spans="1:80">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -25432,8 +26218,17 @@
       <c r="BY48" s="20">
         <v>64</v>
       </c>
+      <c r="BZ48" s="20">
+        <v>64</v>
+      </c>
+      <c r="CA48" s="20">
+        <v>64</v>
+      </c>
+      <c r="CB48" s="20">
+        <v>64</v>
+      </c>
     </row>
-    <row r="49" spans="1:77">
+    <row r="49" spans="1:80">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -25665,8 +26460,17 @@
       <c r="BY49" s="20">
         <v>256</v>
       </c>
+      <c r="BZ49" s="20">
+        <v>256</v>
+      </c>
+      <c r="CA49" s="20">
+        <v>256</v>
+      </c>
+      <c r="CB49" s="20">
+        <v>256</v>
+      </c>
     </row>
-    <row r="50" spans="1:77">
+    <row r="50" spans="1:80">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -25898,8 +26702,17 @@
       <c r="BY50" s="20">
         <v>0</v>
       </c>
+      <c r="BZ50" s="20">
+        <v>0</v>
+      </c>
+      <c r="CA50" s="20">
+        <v>0</v>
+      </c>
+      <c r="CB50" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:77">
+    <row r="51" spans="1:80">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -26131,8 +26944,17 @@
       <c r="BY51" s="20">
         <v>0</v>
       </c>
+      <c r="BZ51" s="20">
+        <v>0</v>
+      </c>
+      <c r="CA51" s="20">
+        <v>0</v>
+      </c>
+      <c r="CB51" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:77">
+    <row r="52" spans="1:80">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -26364,8 +27186,17 @@
       <c r="BY52" s="20">
         <v>0</v>
       </c>
+      <c r="BZ52" s="20">
+        <v>0</v>
+      </c>
+      <c r="CA52" s="20">
+        <v>0</v>
+      </c>
+      <c r="CB52" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:77">
+    <row r="53" spans="1:80">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -26597,8 +27428,17 @@
       <c r="BY53" s="20">
         <v>2224</v>
       </c>
+      <c r="BZ53" s="20">
+        <v>2224</v>
+      </c>
+      <c r="CA53" s="20">
+        <v>2224</v>
+      </c>
+      <c r="CB53" s="20">
+        <v>2224</v>
+      </c>
     </row>
-    <row r="54" spans="1:77">
+    <row r="54" spans="1:80">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -26761,7 +27601,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:77">
+    <row r="55" spans="1:80">
       <c r="A55" s="22"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -26852,10 +27692,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B75" sqref="A72:B75"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -28085,7 +28925,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1">
-        <f t="shared" ref="A66:A75" si="5">+B66-693960</f>
+        <f t="shared" ref="A66:A78" si="5">+B66-693960</f>
         <v>42109</v>
       </c>
       <c r="B66" s="13">
@@ -28260,6 +29100,60 @@
         <v>140</v>
       </c>
       <c r="E75">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <f t="shared" si="5"/>
+        <v>42417</v>
+      </c>
+      <c r="B76" s="4">
+        <v>736377</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D76" t="s">
+        <v>140</v>
+      </c>
+      <c r="E76">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <f t="shared" si="5"/>
+        <v>42439</v>
+      </c>
+      <c r="B77" s="4">
+        <v>736399</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D77" t="s">
+        <v>140</v>
+      </c>
+      <c r="E77">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <f t="shared" si="5"/>
+        <v>42458</v>
+      </c>
+      <c r="B78" s="4">
+        <v>736418</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D78" t="s">
+        <v>140</v>
+      </c>
+      <c r="E78">
         <v>312</v>
       </c>
     </row>
@@ -28277,10 +29171,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E92"/>
+  <dimension ref="A2:E103"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -29175,6 +30069,94 @@
         <v>175</v>
       </c>
     </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="5">
+        <v>42192</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="5">
+        <v>42276</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="5">
+        <v>42292</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="5">
+        <v>42338</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="5">
+        <v>42360</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="5">
+        <v>42382</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="5">
+        <v>42401</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="5">
+        <v>42417</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="5">
+        <v>42424</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="5">
+        <v>42439</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="5">
+        <v>42458</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/icf185.xlsx
+++ b/icf185.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <workbookPr showInkAnnotation="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aredondas/CODE/iberonesia/RBCC_E/configs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="0" windowWidth="28480" windowHeight="22300" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="28480" windowHeight="16540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="icf.185" sheetId="1" r:id="rId1"/>
     <sheet name="icf_a.185" sheetId="6" r:id="rId2"/>
     <sheet name="Eventos.185" sheetId="2" r:id="rId3"/>
     <sheet name="Incidencias.185" sheetId="3" r:id="rId4"/>
+    <sheet name="sandbox" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="286">
   <si>
     <t>#</t>
   </si>
@@ -813,9 +819,6 @@
     <t>"Huelva 2015"</t>
   </si>
   <si>
-    <t>"Huelva 2025"</t>
-  </si>
-  <si>
     <t>"IOS 2015"</t>
   </si>
   <si>
@@ -857,17 +860,44 @@
   <si>
     <t xml:space="preserve">Brewer instalado Izaña </t>
   </si>
+  <si>
+    <t>Bewer Arosa-Davos</t>
+  </si>
+  <si>
+    <t>ATMOZ campaing</t>
+  </si>
+  <si>
+    <t>" Arosa-Davos"</t>
+  </si>
+  <si>
+    <t>"Arosa-Davos 2016"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkiii       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apr 30/04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jul 08/14    </t>
+  </si>
+  <si>
+    <t>icf19016</t>
+  </si>
+  <si>
+    <t>icf19116</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="178" formatCode="d\-m\-yy;@"/>
-    <numFmt numFmtId="179" formatCode="0.00000"/>
-    <numFmt numFmtId="180" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="d\-m\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -896,6 +926,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -917,10 +960,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -948,7 +991,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -958,7 +1001,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -990,6 +1033,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1064,6 +1113,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1389,13 +1443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CB55"/>
+  <dimension ref="A1:CE55"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="CB3" sqref="CB3"/>
+    <sheetView topLeftCell="BQ1" workbookViewId="0">
+      <selection activeCell="CA12" sqref="CA12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="22"/>
     <col min="2" max="3" width="29.1640625" style="20" customWidth="1"/>
@@ -1414,10 +1468,12 @@
     <col min="25" max="26" width="11.83203125" style="28" bestFit="1" customWidth="1"/>
     <col min="27" max="31" width="11.5" style="28" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11.5" style="28" customWidth="1"/>
-    <col min="33" max="16384" width="11.33203125" style="28"/>
+    <col min="33" max="72" width="11.33203125" style="28"/>
+    <col min="73" max="73" width="11.33203125" style="9"/>
+    <col min="74" max="16384" width="11.33203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" s="21" customFormat="1">
+    <row r="1" spans="1:83" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="20"/>
       <c r="C1" s="21">
@@ -1549,7 +1605,7 @@
         <v>40756</v>
       </c>
       <c r="AI1" s="21">
-        <f t="shared" ref="AI1:BU1" si="3">+AI2-693960</f>
+        <f t="shared" ref="AI1:CB1" si="3">+AI2-693960</f>
         <v>40855</v>
       </c>
       <c r="AJ1" s="21">
@@ -1705,35 +1761,47 @@
         <v>42165</v>
       </c>
       <c r="BV1" s="1">
-        <f t="shared" ref="BV1:CB1" si="4">+BV2-693960</f>
+        <f t="shared" si="3"/>
         <v>42338</v>
       </c>
       <c r="BW1" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>42360</v>
       </c>
       <c r="BX1" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>42382</v>
       </c>
       <c r="BY1" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>42401</v>
       </c>
       <c r="BZ1" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>42417</v>
       </c>
       <c r="CA1" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>42439</v>
       </c>
       <c r="CB1" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>42458</v>
       </c>
-    </row>
-    <row r="2" spans="1:80" s="22" customFormat="1">
+      <c r="CC1" s="1">
+        <f>+CC2-693960</f>
+        <v>42544</v>
+      </c>
+      <c r="CD1" s="1">
+        <f>+CD2-693960</f>
+        <v>42564</v>
+      </c>
+      <c r="CE1" s="1">
+        <f>+CE2-693960</f>
+        <v>42618</v>
+      </c>
+    </row>
+    <row r="2" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1974,8 +2042,17 @@
       <c r="CB2" s="4">
         <v>736418</v>
       </c>
-    </row>
-    <row r="3" spans="1:80" ht="18" customHeight="1">
+      <c r="CC2" s="4">
+        <v>736504</v>
+      </c>
+      <c r="CD2" s="4">
+        <v>736524</v>
+      </c>
+      <c r="CE2" s="4">
+        <v>736578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:83" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -2216,8 +2293,17 @@
       <c r="CB3" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:80">
+      <c r="CC3" s="27">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="27">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -2435,31 +2521,40 @@
         <v>-0.2</v>
       </c>
       <c r="BU4" s="27">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="BV4" s="27">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="BW4" s="27">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="27">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="BY4" s="27">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="BZ4" s="27">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="CA4" s="27">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="CB4" s="27">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:80">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="27">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="27">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -2677,31 +2772,40 @@
         <v>-0.2</v>
       </c>
       <c r="BU5" s="27">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="BV5" s="27">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="BW5" s="27">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="27">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="BY5" s="27">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="BZ5" s="27">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="CA5" s="27">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="CB5" s="27">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:80">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="27">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="27">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -2942,8 +3046,17 @@
       <c r="CB6" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:80">
+      <c r="CC6" s="27">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="27">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -3161,31 +3274,40 @@
         <v>0.7</v>
       </c>
       <c r="BU7" s="27">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="BV7" s="27">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="BW7" s="27">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="27">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="BY7" s="27">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="BZ7" s="27">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="CA7" s="27">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="CB7" s="27">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:80">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="27">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="27">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -3426,8 +3548,17 @@
       <c r="CB8" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:80">
+      <c r="CC8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -3645,31 +3776,40 @@
         <v>0.34100000000000003</v>
       </c>
       <c r="BU9" s="20">
-        <v>0.34100000000000003</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="BV9" s="20">
-        <v>0.34100000000000003</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="BW9" s="20">
-        <v>0.34100000000000003</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="BX9" s="20">
-        <v>0.34100000000000003</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="BY9" s="20">
-        <v>0.34100000000000003</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="BZ9" s="20">
-        <v>0.34100000000000003</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="CA9" s="20">
-        <v>0.34100000000000003</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="CB9" s="20">
-        <v>0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:80">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="CC9" s="20">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="CD9" s="20">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="CE9" s="20">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -3910,8 +4050,17 @@
       <c r="CB10" s="20">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="11" spans="1:80">
+      <c r="CC10" s="20">
+        <v>2.35</v>
+      </c>
+      <c r="CD10" s="20">
+        <v>2.35</v>
+      </c>
+      <c r="CE10" s="20">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -4152,8 +4301,17 @@
       <c r="CB11" s="31">
         <v>11495</v>
       </c>
-    </row>
-    <row r="12" spans="1:80" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="CC11" s="31">
+        <v>11495</v>
+      </c>
+      <c r="CD11" s="31">
+        <v>11495</v>
+      </c>
+      <c r="CE11" s="31">
+        <v>11495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:83" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -4371,31 +4529,40 @@
         <v>1555</v>
       </c>
       <c r="BU12" s="20">
-        <v>1555</v>
+        <v>1570</v>
       </c>
       <c r="BV12" s="20">
-        <v>1555</v>
+        <v>1570</v>
       </c>
       <c r="BW12" s="20">
-        <v>1555</v>
+        <v>1570</v>
       </c>
       <c r="BX12" s="20">
-        <v>1555</v>
+        <v>1570</v>
       </c>
       <c r="BY12" s="20">
-        <v>1555</v>
+        <v>1570</v>
       </c>
       <c r="BZ12" s="20">
-        <v>1555</v>
+        <v>1570</v>
       </c>
       <c r="CA12" s="20">
-        <v>1555</v>
+        <v>1570</v>
       </c>
       <c r="CB12" s="20">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="13" spans="1:80" s="22" customFormat="1">
+        <v>1570</v>
+      </c>
+      <c r="CC12" s="20">
+        <v>1570</v>
+      </c>
+      <c r="CD12" s="20">
+        <v>1570</v>
+      </c>
+      <c r="CE12" s="20">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="13" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -4636,8 +4803,17 @@
       <c r="CB13" s="20">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="1:80" s="32" customFormat="1" ht="17.25" customHeight="1">
+      <c r="CC13" s="20">
+        <v>80</v>
+      </c>
+      <c r="CD13" s="20">
+        <v>80</v>
+      </c>
+      <c r="CE13" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:83" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -4878,8 +5054,17 @@
       <c r="CB14" s="32">
         <v>2.9000000000000002E-8</v>
       </c>
-    </row>
-    <row r="15" spans="1:80" s="22" customFormat="1" ht="16.5" customHeight="1">
+      <c r="CC14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
+      <c r="CD14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
+      <c r="CE14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:83" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -5120,8 +5305,17 @@
       <c r="CB15" s="20">
         <v>1020</v>
       </c>
-    </row>
-    <row r="16" spans="1:80" s="22" customFormat="1" ht="16.5" customHeight="1">
+      <c r="CC15" s="20">
+        <v>1020</v>
+      </c>
+      <c r="CD15" s="20">
+        <v>1020</v>
+      </c>
+      <c r="CE15" s="20">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:83" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -5362,8 +5556,17 @@
       <c r="CB16" s="20">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:80" s="22" customFormat="1" ht="16.5" customHeight="1">
+      <c r="CC16" s="20">
+        <v>14</v>
+      </c>
+      <c r="CD16" s="20">
+        <v>14</v>
+      </c>
+      <c r="CE16" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:83" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -5604,8 +5807,17 @@
       <c r="CB17" s="20">
         <v>2423</v>
       </c>
-    </row>
-    <row r="18" spans="1:80" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="CC17" s="20">
+        <v>2423</v>
+      </c>
+      <c r="CD17" s="20">
+        <v>2423</v>
+      </c>
+      <c r="CE17" s="20">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:83" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -5846,8 +6058,17 @@
       <c r="CB18" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:80" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="CC18" s="20">
+        <v>0</v>
+      </c>
+      <c r="CD18" s="20">
+        <v>0</v>
+      </c>
+      <c r="CE18" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:83" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -6088,8 +6309,17 @@
       <c r="CB19" s="22">
         <v>4370</v>
       </c>
-    </row>
-    <row r="20" spans="1:80" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="CC19" s="22">
+        <v>4370</v>
+      </c>
+      <c r="CD19" s="22">
+        <v>4370</v>
+      </c>
+      <c r="CE19" s="22">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:83" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -6330,8 +6560,17 @@
       <c r="CB20" s="22">
         <v>10250</v>
       </c>
-    </row>
-    <row r="21" spans="1:80" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="CC20" s="22">
+        <v>10250</v>
+      </c>
+      <c r="CD20" s="22">
+        <v>10250</v>
+      </c>
+      <c r="CE20" s="22">
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:83" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -6572,8 +6811,17 @@
       <c r="CB21" s="22">
         <v>14150</v>
       </c>
-    </row>
-    <row r="22" spans="1:80" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="CC21" s="22">
+        <v>14150</v>
+      </c>
+      <c r="CD21" s="22">
+        <v>14150</v>
+      </c>
+      <c r="CE21" s="22">
+        <v>14150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:83" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -6814,8 +7062,17 @@
       <c r="CB22" s="22">
         <v>21800</v>
       </c>
-    </row>
-    <row r="23" spans="1:80" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="CC22" s="22">
+        <v>21800</v>
+      </c>
+      <c r="CD22" s="22">
+        <v>21800</v>
+      </c>
+      <c r="CE22" s="22">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:83" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -7056,8 +7313,17 @@
       <c r="CB23" s="22">
         <v>26400</v>
       </c>
-    </row>
-    <row r="24" spans="1:80" s="22" customFormat="1">
+      <c r="CC23" s="22">
+        <v>26400</v>
+      </c>
+      <c r="CD23" s="22">
+        <v>26400</v>
+      </c>
+      <c r="CE23" s="22">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -7298,8 +7564,17 @@
       <c r="CB24" s="22">
         <v>2972</v>
       </c>
-    </row>
-    <row r="25" spans="1:80" s="22" customFormat="1">
+      <c r="CC24" s="22">
+        <v>2972</v>
+      </c>
+      <c r="CD24" s="22">
+        <v>2972</v>
+      </c>
+      <c r="CE24" s="22">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -7540,8 +7815,17 @@
       <c r="CB25" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:80" s="22" customFormat="1">
+      <c r="CC25" s="20">
+        <v>3</v>
+      </c>
+      <c r="CD25" s="20">
+        <v>3</v>
+      </c>
+      <c r="CE25" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -7759,31 +8043,40 @@
         <v>1</v>
       </c>
       <c r="BU26" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV26" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW26" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY26" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ26" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA26" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB26" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:80">
+        <v>0</v>
+      </c>
+      <c r="CC26" s="25">
+        <v>0</v>
+      </c>
+      <c r="CD26" s="25">
+        <v>0</v>
+      </c>
+      <c r="CE26" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -8024,8 +8317,17 @@
       <c r="CB27" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:80">
+      <c r="CC27" s="26">
+        <v>0</v>
+      </c>
+      <c r="CD27" s="26">
+        <v>0</v>
+      </c>
+      <c r="CE27" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -8243,31 +8545,40 @@
         <v>312</v>
       </c>
       <c r="BU28" s="20">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="BV28" s="20">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="BW28" s="20">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="BX28" s="20">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="BY28" s="20">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="BZ28" s="20">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="CA28" s="20">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="CB28" s="20">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="29" spans="1:80">
+        <v>325</v>
+      </c>
+      <c r="CC28" s="20">
+        <v>325</v>
+      </c>
+      <c r="CD28" s="20">
+        <v>325</v>
+      </c>
+      <c r="CE28" s="20">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -8508,8 +8819,17 @@
       <c r="CB29" s="26">
         <v>490</v>
       </c>
-    </row>
-    <row r="30" spans="1:80">
+      <c r="CC29" s="26">
+        <v>490</v>
+      </c>
+      <c r="CD29" s="26">
+        <v>490</v>
+      </c>
+      <c r="CE29" s="26">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="30" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -8750,8 +9070,17 @@
       <c r="CB30" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:80">
+      <c r="CC30" s="26">
+        <v>0</v>
+      </c>
+      <c r="CD30" s="26">
+        <v>0</v>
+      </c>
+      <c r="CE30" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -8969,31 +9298,40 @@
         <v>11</v>
       </c>
       <c r="BU31" s="29">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BV31" s="29">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BW31" s="29">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BX31" s="29">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BY31" s="29">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BZ31" s="29">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CA31" s="29">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CB31" s="29">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:80">
+        <v>13</v>
+      </c>
+      <c r="CC31" s="29">
+        <v>13</v>
+      </c>
+      <c r="CD31" s="29">
+        <v>13</v>
+      </c>
+      <c r="CE31" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -9211,31 +9549,40 @@
         <v>9</v>
       </c>
       <c r="BU32" s="26">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="BV32" s="26">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="BW32" s="26">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="BX32" s="26">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="BY32" s="26">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="BZ32" s="26">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="CA32" s="26">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="CB32" s="26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:80">
+        <v>22</v>
+      </c>
+      <c r="CC32" s="26">
+        <v>22</v>
+      </c>
+      <c r="CD32" s="26">
+        <v>22</v>
+      </c>
+      <c r="CE32" s="26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -9476,8 +9823,17 @@
       <c r="CB33" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:80">
+      <c r="CC33" s="26">
+        <v>0</v>
+      </c>
+      <c r="CD33" s="26">
+        <v>0</v>
+      </c>
+      <c r="CE33" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -9718,8 +10074,17 @@
       <c r="CB34" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:80" s="22" customFormat="1">
+      <c r="CC34" s="26">
+        <v>0</v>
+      </c>
+      <c r="CD34" s="26">
+        <v>0</v>
+      </c>
+      <c r="CE34" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -9960,8 +10325,17 @@
       <c r="CB35" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:80" s="22" customFormat="1">
+      <c r="CC35" s="20">
+        <v>0</v>
+      </c>
+      <c r="CD35" s="20">
+        <v>0</v>
+      </c>
+      <c r="CE35" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -10202,8 +10576,17 @@
       <c r="CB36" s="20">
         <v>242</v>
       </c>
-    </row>
-    <row r="37" spans="1:80" s="22" customFormat="1">
+      <c r="CC36" s="20">
+        <v>242</v>
+      </c>
+      <c r="CD36" s="20">
+        <v>242</v>
+      </c>
+      <c r="CE36" s="20">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -10444,8 +10827,17 @@
       <c r="CB37" s="25" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="38" spans="1:80" s="22" customFormat="1">
+      <c r="CC37" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="CD37" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="CE37" s="25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -10686,8 +11078,17 @@
       <c r="CB38" s="25">
         <v>114858349</v>
       </c>
-    </row>
-    <row r="39" spans="1:80" s="22" customFormat="1">
+      <c r="CC38" s="25">
+        <v>114858349</v>
+      </c>
+      <c r="CD38" s="25">
+        <v>114858349</v>
+      </c>
+      <c r="CE38" s="25">
+        <v>114858349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -10928,8 +11329,17 @@
       <c r="CB39" s="25">
         <v>92010460</v>
       </c>
-    </row>
-    <row r="40" spans="1:80" s="22" customFormat="1">
+      <c r="CC39" s="25">
+        <v>92010460</v>
+      </c>
+      <c r="CD39" s="25">
+        <v>92010460</v>
+      </c>
+      <c r="CE39" s="25">
+        <v>92010460</v>
+      </c>
+    </row>
+    <row r="40" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -11170,8 +11580,17 @@
       <c r="CB40" s="25">
         <v>151909779</v>
       </c>
-    </row>
-    <row r="41" spans="1:80" s="22" customFormat="1">
+      <c r="CC40" s="25">
+        <v>151909779</v>
+      </c>
+      <c r="CD40" s="25">
+        <v>151909779</v>
+      </c>
+      <c r="CE40" s="25">
+        <v>151909779</v>
+      </c>
+    </row>
+    <row r="41" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -11412,8 +11831,17 @@
       <c r="CB41" s="25">
         <v>155024648</v>
       </c>
-    </row>
-    <row r="42" spans="1:80" s="22" customFormat="1">
+      <c r="CC41" s="25">
+        <v>155024648</v>
+      </c>
+      <c r="CD41" s="25">
+        <v>155024648</v>
+      </c>
+      <c r="CE41" s="25">
+        <v>155024648</v>
+      </c>
+    </row>
+    <row r="42" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>40</v>
       </c>
@@ -11654,8 +12082,17 @@
       <c r="CB42" s="25">
         <v>170169377</v>
       </c>
-    </row>
-    <row r="43" spans="1:80">
+      <c r="CC42" s="25">
+        <v>170169377</v>
+      </c>
+      <c r="CD42" s="25">
+        <v>170169377</v>
+      </c>
+      <c r="CE42" s="25">
+        <v>170169377</v>
+      </c>
+    </row>
+    <row r="43" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -11896,8 +12333,17 @@
       <c r="CB43" s="26">
         <v>1.0049999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:80">
+      <c r="CC43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="CD43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="CE43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -12138,8 +12584,17 @@
       <c r="CB44" s="26">
         <v>-10</v>
       </c>
-    </row>
-    <row r="45" spans="1:80" s="22" customFormat="1" ht="11.25" customHeight="1">
+      <c r="CC44" s="26">
+        <v>-10</v>
+      </c>
+      <c r="CD44" s="26">
+        <v>-10</v>
+      </c>
+      <c r="CE44" s="26">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:83" s="22" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -12380,8 +12835,17 @@
       <c r="CB45" s="20">
         <v>1733</v>
       </c>
-    </row>
-    <row r="46" spans="1:80" s="22" customFormat="1">
+      <c r="CC45" s="20">
+        <v>1733</v>
+      </c>
+      <c r="CD45" s="20">
+        <v>1733</v>
+      </c>
+      <c r="CE45" s="20">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="46" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>44</v>
       </c>
@@ -12622,8 +13086,17 @@
       <c r="CB46" s="20">
         <v>250</v>
       </c>
-    </row>
-    <row r="47" spans="1:80" s="22" customFormat="1">
+      <c r="CC46" s="20">
+        <v>250</v>
+      </c>
+      <c r="CD46" s="20">
+        <v>250</v>
+      </c>
+      <c r="CE46" s="20">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -12864,8 +13337,17 @@
       <c r="CB47" s="20">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:80" s="22" customFormat="1">
+      <c r="CC47" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="CD47" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="CE47" s="20">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -13106,8 +13588,17 @@
       <c r="CB48" s="20">
         <v>64</v>
       </c>
-    </row>
-    <row r="49" spans="1:80" s="22" customFormat="1">
+      <c r="CC48" s="20">
+        <v>64</v>
+      </c>
+      <c r="CD48" s="20">
+        <v>64</v>
+      </c>
+      <c r="CE48" s="20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -13348,8 +13839,17 @@
       <c r="CB49" s="20">
         <v>256</v>
       </c>
-    </row>
-    <row r="50" spans="1:80" s="22" customFormat="1">
+      <c r="CC49" s="20">
+        <v>256</v>
+      </c>
+      <c r="CD49" s="20">
+        <v>256</v>
+      </c>
+      <c r="CE49" s="20">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -13590,8 +14090,17 @@
       <c r="CB50" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:80" s="22" customFormat="1">
+      <c r="CC50" s="20">
+        <v>0</v>
+      </c>
+      <c r="CD50" s="20">
+        <v>0</v>
+      </c>
+      <c r="CE50" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -13832,8 +14341,17 @@
       <c r="CB51" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:80" s="22" customFormat="1">
+      <c r="CC51" s="20">
+        <v>0</v>
+      </c>
+      <c r="CD51" s="20">
+        <v>0</v>
+      </c>
+      <c r="CE51" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -14074,8 +14592,17 @@
       <c r="CB52" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:80" s="22" customFormat="1">
+      <c r="CC52" s="20">
+        <v>0</v>
+      </c>
+      <c r="CD52" s="20">
+        <v>0</v>
+      </c>
+      <c r="CE52" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -14316,8 +14843,17 @@
       <c r="CB53" s="20">
         <v>2224</v>
       </c>
-    </row>
-    <row r="54" spans="1:80">
+      <c r="CC53" s="20">
+        <v>2224</v>
+      </c>
+      <c r="CD53" s="20">
+        <v>2224</v>
+      </c>
+      <c r="CE53" s="20">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -14470,7 +15006,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:80">
+    <row r="55" spans="1:83" x14ac:dyDescent="0.2">
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
@@ -14493,28 +15029,24 @@
       <c r="AF55" s="25" t="s">
         <v>76</v>
       </c>
+      <c r="BU55" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CB55"/>
+  <dimension ref="A1:CE55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
-      <selection activeCell="CB3" sqref="CB3"/>
+    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
+      <selection activeCell="CC12" sqref="CC12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="10" customWidth="1"/>
     <col min="2" max="3" width="29.1640625" style="8" customWidth="1"/>
@@ -14538,7 +15070,7 @@
     <col min="74" max="16384" width="11.5" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" s="16" customFormat="1">
+    <row r="1" spans="1:83" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="20"/>
       <c r="C1" s="21">
@@ -14853,8 +15385,20 @@
         <f t="shared" si="2"/>
         <v>42458</v>
       </c>
-    </row>
-    <row r="2" spans="1:80">
+      <c r="CC1" s="1">
+        <f>+CC2-693960</f>
+        <v>42544</v>
+      </c>
+      <c r="CD1" s="1">
+        <f>+CD2-693960</f>
+        <v>42564</v>
+      </c>
+      <c r="CE1" s="1">
+        <f>+CE2-693960</f>
+        <v>42618</v>
+      </c>
+    </row>
+    <row r="2" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -15095,8 +15639,17 @@
       <c r="CB2" s="4">
         <v>736418</v>
       </c>
-    </row>
-    <row r="3" spans="1:80">
+      <c r="CC2" s="4">
+        <v>736504</v>
+      </c>
+      <c r="CD2" s="4">
+        <v>736524</v>
+      </c>
+      <c r="CE2" s="4">
+        <v>736578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -15337,8 +15890,17 @@
       <c r="CB3" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:80">
+      <c r="CC3" s="27">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="27">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -15579,8 +16141,17 @@
       <c r="CB4" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:80">
+      <c r="CC4" s="27">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="27">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -15821,8 +16392,17 @@
       <c r="CB5" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:80">
+      <c r="CC5" s="27">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="27">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -16063,8 +16643,17 @@
       <c r="CB6" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:80">
+      <c r="CC6" s="27">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="27">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -16305,8 +16894,17 @@
       <c r="CB7" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:80">
+      <c r="CC7" s="27">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="27">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -16547,8 +17145,17 @@
       <c r="CB8" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:80" s="18" customFormat="1">
+      <c r="CC8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:83" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -16766,31 +17373,40 @@
         <v>0.34</v>
       </c>
       <c r="BU9" s="20">
-        <v>0.34200000000000003</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="BV9" s="20">
-        <v>0.34200000000000003</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="BW9" s="20">
-        <v>0.34200000000000003</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="BX9" s="20">
-        <v>0.34200000000000003</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="BY9" s="20">
-        <v>0.34200000000000003</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="BZ9" s="20">
-        <v>0.34200000000000003</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="CA9" s="20">
-        <v>0.34200000000000003</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="CB9" s="20">
-        <v>0.34200000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:80" s="18" customFormat="1">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="CC9" s="20">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="CD9" s="20">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="CE9" s="20">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:83" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -17031,8 +17647,17 @@
       <c r="CB10" s="20">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="11" spans="1:80" s="19" customFormat="1">
+      <c r="CC10" s="20">
+        <v>2.35</v>
+      </c>
+      <c r="CD10" s="20">
+        <v>2.35</v>
+      </c>
+      <c r="CE10" s="20">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:83" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -17273,8 +17898,17 @@
       <c r="CB11" s="31">
         <v>11495</v>
       </c>
-    </row>
-    <row r="12" spans="1:80" s="11" customFormat="1">
+      <c r="CC11" s="31">
+        <v>11495</v>
+      </c>
+      <c r="CD11" s="31">
+        <v>11495</v>
+      </c>
+      <c r="CE11" s="31">
+        <v>11495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:83" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -17510,13 +18144,22 @@
         <v>1570</v>
       </c>
       <c r="CA12" s="20">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="CB12" s="20">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="13" spans="1:80">
+        <v>1565</v>
+      </c>
+      <c r="CC12" s="20">
+        <v>1575</v>
+      </c>
+      <c r="CD12" s="20">
+        <v>1575</v>
+      </c>
+      <c r="CE12" s="20">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="13" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -17757,8 +18400,17 @@
       <c r="CB13" s="20">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="1:80">
+      <c r="CC13" s="20">
+        <v>80</v>
+      </c>
+      <c r="CD13" s="20">
+        <v>80</v>
+      </c>
+      <c r="CE13" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -17999,8 +18651,17 @@
       <c r="CB14" s="32">
         <v>2.9000000000000002E-8</v>
       </c>
-    </row>
-    <row r="15" spans="1:80">
+      <c r="CC14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
+      <c r="CD14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
+      <c r="CE14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -18241,8 +18902,17 @@
       <c r="CB15" s="20">
         <v>1020</v>
       </c>
-    </row>
-    <row r="16" spans="1:80">
+      <c r="CC15" s="20">
+        <v>1020</v>
+      </c>
+      <c r="CD15" s="20">
+        <v>1020</v>
+      </c>
+      <c r="CE15" s="20">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -18483,8 +19153,17 @@
       <c r="CB16" s="20">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:80">
+      <c r="CC16" s="20">
+        <v>14</v>
+      </c>
+      <c r="CD16" s="20">
+        <v>14</v>
+      </c>
+      <c r="CE16" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -18725,8 +19404,17 @@
       <c r="CB17" s="20">
         <v>2423</v>
       </c>
-    </row>
-    <row r="18" spans="1:80">
+      <c r="CC17" s="20">
+        <v>2423</v>
+      </c>
+      <c r="CD17" s="20">
+        <v>2423</v>
+      </c>
+      <c r="CE17" s="20">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -18967,8 +19655,17 @@
       <c r="CB18" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:80">
+      <c r="CC18" s="20">
+        <v>0</v>
+      </c>
+      <c r="CD18" s="20">
+        <v>0</v>
+      </c>
+      <c r="CE18" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -19209,8 +19906,17 @@
       <c r="CB19" s="22">
         <v>4370</v>
       </c>
-    </row>
-    <row r="20" spans="1:80">
+      <c r="CC19" s="22">
+        <v>4370</v>
+      </c>
+      <c r="CD19" s="22">
+        <v>4370</v>
+      </c>
+      <c r="CE19" s="22">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -19451,8 +20157,17 @@
       <c r="CB20" s="22">
         <v>10250</v>
       </c>
-    </row>
-    <row r="21" spans="1:80">
+      <c r="CC20" s="22">
+        <v>10250</v>
+      </c>
+      <c r="CD20" s="22">
+        <v>10250</v>
+      </c>
+      <c r="CE20" s="22">
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -19693,8 +20408,17 @@
       <c r="CB21" s="22">
         <v>14150</v>
       </c>
-    </row>
-    <row r="22" spans="1:80">
+      <c r="CC21" s="22">
+        <v>14150</v>
+      </c>
+      <c r="CD21" s="22">
+        <v>14150</v>
+      </c>
+      <c r="CE21" s="22">
+        <v>14150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -19935,8 +20659,17 @@
       <c r="CB22" s="22">
         <v>21800</v>
       </c>
-    </row>
-    <row r="23" spans="1:80">
+      <c r="CC22" s="22">
+        <v>21800</v>
+      </c>
+      <c r="CD22" s="22">
+        <v>21800</v>
+      </c>
+      <c r="CE22" s="22">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -20177,8 +20910,17 @@
       <c r="CB23" s="22">
         <v>26400</v>
       </c>
-    </row>
-    <row r="24" spans="1:80">
+      <c r="CC23" s="22">
+        <v>26400</v>
+      </c>
+      <c r="CD23" s="22">
+        <v>26400</v>
+      </c>
+      <c r="CE23" s="22">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -20419,8 +21161,17 @@
       <c r="CB24" s="22">
         <v>2972</v>
       </c>
-    </row>
-    <row r="25" spans="1:80">
+      <c r="CC24" s="22">
+        <v>2972</v>
+      </c>
+      <c r="CD24" s="22">
+        <v>2972</v>
+      </c>
+      <c r="CE24" s="22">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -20661,8 +21412,17 @@
       <c r="CB25" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:80">
+      <c r="CC25" s="20">
+        <v>3</v>
+      </c>
+      <c r="CD25" s="20">
+        <v>3</v>
+      </c>
+      <c r="CE25" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -20903,8 +21663,17 @@
       <c r="CB26" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:80">
+      <c r="CC26" s="25">
+        <v>0</v>
+      </c>
+      <c r="CD26" s="25">
+        <v>0</v>
+      </c>
+      <c r="CE26" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -21145,8 +21914,17 @@
       <c r="CB27" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:80">
+      <c r="CC27" s="26">
+        <v>0</v>
+      </c>
+      <c r="CD27" s="26">
+        <v>0</v>
+      </c>
+      <c r="CE27" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -21387,8 +22165,17 @@
       <c r="CB28" s="20">
         <v>325</v>
       </c>
-    </row>
-    <row r="29" spans="1:80">
+      <c r="CC28" s="20">
+        <v>325</v>
+      </c>
+      <c r="CD28" s="20">
+        <v>325</v>
+      </c>
+      <c r="CE28" s="20">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -21629,8 +22416,17 @@
       <c r="CB29" s="26">
         <v>490</v>
       </c>
-    </row>
-    <row r="30" spans="1:80">
+      <c r="CC29" s="26">
+        <v>490</v>
+      </c>
+      <c r="CD29" s="26">
+        <v>490</v>
+      </c>
+      <c r="CE29" s="26">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="30" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -21871,8 +22667,17 @@
       <c r="CB30" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:80">
+      <c r="CC30" s="26">
+        <v>0</v>
+      </c>
+      <c r="CD30" s="26">
+        <v>0</v>
+      </c>
+      <c r="CE30" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -22078,43 +22883,52 @@
         <v>11</v>
       </c>
       <c r="BQ31" s="29">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BR31" s="29">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BS31" s="29">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BT31" s="29">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BU31" s="29">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BV31" s="29">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BW31" s="29">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BX31" s="29">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BY31" s="29">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BZ31" s="29">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="CA31" s="29">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="CB31" s="29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:80">
+        <v>13</v>
+      </c>
+      <c r="CC31" s="29">
+        <v>13</v>
+      </c>
+      <c r="CD31" s="29">
+        <v>13</v>
+      </c>
+      <c r="CE31" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -22355,8 +23169,17 @@
       <c r="CB32" s="26">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:80">
+      <c r="CC32" s="26">
+        <v>22</v>
+      </c>
+      <c r="CD32" s="26">
+        <v>22</v>
+      </c>
+      <c r="CE32" s="26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -22597,8 +23420,17 @@
       <c r="CB33" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:80">
+      <c r="CC33" s="26">
+        <v>0</v>
+      </c>
+      <c r="CD33" s="26">
+        <v>0</v>
+      </c>
+      <c r="CE33" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -22839,8 +23671,17 @@
       <c r="CB34" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:80">
+      <c r="CC34" s="26">
+        <v>0</v>
+      </c>
+      <c r="CD34" s="26">
+        <v>0</v>
+      </c>
+      <c r="CE34" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -23081,8 +23922,17 @@
       <c r="CB35" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:80">
+      <c r="CC35" s="20">
+        <v>0</v>
+      </c>
+      <c r="CD35" s="20">
+        <v>0</v>
+      </c>
+      <c r="CE35" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -23323,8 +24173,17 @@
       <c r="CB36" s="20">
         <v>242</v>
       </c>
-    </row>
-    <row r="37" spans="1:80">
+      <c r="CC36" s="20">
+        <v>242</v>
+      </c>
+      <c r="CD36" s="20">
+        <v>242</v>
+      </c>
+      <c r="CE36" s="20">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -23565,8 +24424,17 @@
       <c r="CB37" s="25" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="38" spans="1:80">
+      <c r="CC37" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="CD37" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="CE37" s="25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -23807,8 +24675,17 @@
       <c r="CB38" s="25">
         <v>114858349</v>
       </c>
-    </row>
-    <row r="39" spans="1:80">
+      <c r="CC38" s="25">
+        <v>114858349</v>
+      </c>
+      <c r="CD38" s="25">
+        <v>114858349</v>
+      </c>
+      <c r="CE38" s="25">
+        <v>114858349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -24049,8 +24926,17 @@
       <c r="CB39" s="25">
         <v>92010460</v>
       </c>
-    </row>
-    <row r="40" spans="1:80">
+      <c r="CC39" s="25">
+        <v>92010460</v>
+      </c>
+      <c r="CD39" s="25">
+        <v>92010460</v>
+      </c>
+      <c r="CE39" s="25">
+        <v>92010460</v>
+      </c>
+    </row>
+    <row r="40" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -24291,8 +25177,17 @@
       <c r="CB40" s="25">
         <v>151909779</v>
       </c>
-    </row>
-    <row r="41" spans="1:80">
+      <c r="CC40" s="25">
+        <v>151909779</v>
+      </c>
+      <c r="CD40" s="25">
+        <v>151909779</v>
+      </c>
+      <c r="CE40" s="25">
+        <v>151909779</v>
+      </c>
+    </row>
+    <row r="41" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -24533,8 +25428,17 @@
       <c r="CB41" s="25">
         <v>155024648</v>
       </c>
-    </row>
-    <row r="42" spans="1:80">
+      <c r="CC41" s="25">
+        <v>155024648</v>
+      </c>
+      <c r="CD41" s="25">
+        <v>155024648</v>
+      </c>
+      <c r="CE41" s="25">
+        <v>155024648</v>
+      </c>
+    </row>
+    <row r="42" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>40</v>
       </c>
@@ -24775,8 +25679,17 @@
       <c r="CB42" s="25">
         <v>170169377</v>
       </c>
-    </row>
-    <row r="43" spans="1:80">
+      <c r="CC42" s="25">
+        <v>170169377</v>
+      </c>
+      <c r="CD42" s="25">
+        <v>170169377</v>
+      </c>
+      <c r="CE42" s="25">
+        <v>170169377</v>
+      </c>
+    </row>
+    <row r="43" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -25017,8 +25930,17 @@
       <c r="CB43" s="26">
         <v>1.0049999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:80">
+      <c r="CC43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="CD43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="CE43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -25259,8 +26181,17 @@
       <c r="CB44" s="26">
         <v>-10</v>
       </c>
-    </row>
-    <row r="45" spans="1:80">
+      <c r="CC44" s="26">
+        <v>-10</v>
+      </c>
+      <c r="CD44" s="26">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="CE44" s="26">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -25501,8 +26432,17 @@
       <c r="CB45" s="20">
         <v>1733</v>
       </c>
-    </row>
-    <row r="46" spans="1:80">
+      <c r="CC45" s="20">
+        <v>1733</v>
+      </c>
+      <c r="CD45" s="20">
+        <v>1733</v>
+      </c>
+      <c r="CE45" s="20">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="46" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>44</v>
       </c>
@@ -25743,8 +26683,17 @@
       <c r="CB46" s="20">
         <v>250</v>
       </c>
-    </row>
-    <row r="47" spans="1:80">
+      <c r="CC46" s="20">
+        <v>250</v>
+      </c>
+      <c r="CD46" s="20">
+        <v>250</v>
+      </c>
+      <c r="CE46" s="20">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -25985,8 +26934,17 @@
       <c r="CB47" s="20">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:80">
+      <c r="CC47" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="CD47" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="CE47" s="20">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -26227,8 +27185,17 @@
       <c r="CB48" s="20">
         <v>64</v>
       </c>
-    </row>
-    <row r="49" spans="1:80">
+      <c r="CC48" s="20">
+        <v>64</v>
+      </c>
+      <c r="CD48" s="20">
+        <v>64</v>
+      </c>
+      <c r="CE48" s="20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -26469,8 +27436,17 @@
       <c r="CB49" s="20">
         <v>256</v>
       </c>
-    </row>
-    <row r="50" spans="1:80">
+      <c r="CC49" s="20">
+        <v>256</v>
+      </c>
+      <c r="CD49" s="20">
+        <v>256</v>
+      </c>
+      <c r="CE49" s="20">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -26711,8 +27687,17 @@
       <c r="CB50" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:80">
+      <c r="CC50" s="20">
+        <v>0</v>
+      </c>
+      <c r="CD50" s="20">
+        <v>0</v>
+      </c>
+      <c r="CE50" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -26953,8 +27938,17 @@
       <c r="CB51" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:80">
+      <c r="CC51" s="20">
+        <v>0</v>
+      </c>
+      <c r="CD51" s="20">
+        <v>0</v>
+      </c>
+      <c r="CE51" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -27195,8 +28189,17 @@
       <c r="CB52" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:80">
+      <c r="CC52" s="20">
+        <v>0</v>
+      </c>
+      <c r="CD52" s="20">
+        <v>0</v>
+      </c>
+      <c r="CE52" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -27437,8 +28440,17 @@
       <c r="CB53" s="20">
         <v>2224</v>
       </c>
-    </row>
-    <row r="54" spans="1:80">
+      <c r="CC53" s="20">
+        <v>2224</v>
+      </c>
+      <c r="CD53" s="20">
+        <v>2224</v>
+      </c>
+      <c r="CE53" s="20">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -27601,7 +28613,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:80">
+    <row r="55" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -27682,23 +28694,18 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:XFD71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" style="4" customWidth="1"/>
@@ -27707,7 +28714,7 @@
     <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f t="shared" ref="A1:A13" si="0">+B1-693960</f>
         <v>38186</v>
@@ -27725,7 +28732,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <f t="shared" si="0"/>
         <v>38619</v>
@@ -27745,7 +28752,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f t="shared" si="0"/>
         <v>39001</v>
@@ -27765,7 +28772,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>39327</v>
@@ -27785,7 +28792,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>39547</v>
@@ -27805,7 +28812,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>39626</v>
@@ -27825,7 +28832,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>39650</v>
@@ -27845,7 +28852,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>39656</v>
@@ -27865,7 +28872,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>39682</v>
@@ -27885,7 +28892,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>39712</v>
@@ -27905,7 +28912,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>39958</v>
@@ -27925,7 +28932,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>39981</v>
@@ -27945,7 +28952,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>40045</v>
@@ -27965,7 +28972,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" ref="A14:A21" si="1">+B14-693960</f>
         <v>40058</v>
@@ -27985,7 +28992,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>40059</v>
@@ -28005,7 +29012,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
         <v>40107</v>
@@ -28025,7 +29032,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f>+B17-693960</f>
         <v>40176</v>
@@ -28045,7 +29052,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f>+B18-693960</f>
         <v>40235</v>
@@ -28065,7 +29072,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
         <v>40332</v>
@@ -28085,7 +29092,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>40367</v>
@@ -28105,7 +29112,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f t="shared" si="1"/>
         <v>40378</v>
@@ -28125,7 +29132,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f>+B22-693960</f>
         <v>40390</v>
@@ -28145,7 +29152,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <f t="shared" ref="A23:A29" si="2">+B23-693960</f>
         <v>40448</v>
@@ -28165,7 +29172,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <f>+B24-693960</f>
         <v>40512</v>
@@ -28185,7 +29192,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <f t="shared" si="2"/>
         <v>40606</v>
@@ -28205,7 +29212,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <f t="shared" si="2"/>
         <v>40625</v>
@@ -28225,7 +29232,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f t="shared" si="2"/>
         <v>40696</v>
@@ -28245,7 +29252,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <f t="shared" si="2"/>
         <v>40701</v>
@@ -28265,7 +29272,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <f t="shared" si="2"/>
         <v>40722</v>
@@ -28283,7 +29290,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>40748</v>
       </c>
@@ -28300,7 +29307,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>40753</v>
       </c>
@@ -28317,7 +29324,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>40756</v>
       </c>
@@ -28334,7 +29341,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>40855</v>
       </c>
@@ -28351,7 +29358,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>40970</v>
       </c>
@@ -28369,7 +29376,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>40995</v>
       </c>
@@ -28386,7 +29393,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>41010</v>
       </c>
@@ -28403,7 +29410,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>41027</v>
       </c>
@@ -28420,7 +29427,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>41043</v>
       </c>
@@ -28437,7 +29444,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <f>+B39-693960</f>
         <v>41090</v>
@@ -28455,7 +29462,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <f>+B40-693960</f>
         <v>41103</v>
@@ -28473,7 +29480,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <f t="shared" ref="A41:A59" si="3">+B41-693960</f>
         <v>41121</v>
@@ -28491,7 +29498,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <f t="shared" si="3"/>
         <v>41204</v>
@@ -28509,7 +29516,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <f t="shared" si="3"/>
         <v>41213</v>
@@ -28527,7 +29534,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <f t="shared" si="3"/>
         <v>41335</v>
@@ -28545,7 +29552,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <f t="shared" si="3"/>
         <v>41394</v>
@@ -28563,7 +29570,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <f t="shared" si="3"/>
         <v>41399</v>
@@ -28581,7 +29588,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <f t="shared" si="3"/>
         <v>41401</v>
@@ -28599,7 +29606,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <f t="shared" si="3"/>
         <v>41405</v>
@@ -28617,7 +29624,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <f t="shared" si="3"/>
         <v>41407</v>
@@ -28635,7 +29642,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <f t="shared" si="3"/>
         <v>41411</v>
@@ -28653,7 +29660,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <f t="shared" si="3"/>
         <v>41429</v>
@@ -28671,7 +29678,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <f t="shared" si="3"/>
         <v>41450</v>
@@ -28689,7 +29696,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <f>+B53-693960</f>
         <v>41498</v>
@@ -28707,7 +29714,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <f t="shared" si="3"/>
         <v>41576</v>
@@ -28725,7 +29732,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <f t="shared" si="3"/>
         <v>41615</v>
@@ -28743,7 +29750,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <f t="shared" si="3"/>
         <v>41617</v>
@@ -28761,7 +29768,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <f t="shared" si="3"/>
         <v>41635</v>
@@ -28779,7 +29786,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <f t="shared" si="3"/>
         <v>41683</v>
@@ -28797,7 +29804,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <f t="shared" si="3"/>
         <v>41744</v>
@@ -28815,7 +29822,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <f t="shared" ref="A60:A65" si="4">+B60-693960</f>
         <v>41823</v>
@@ -28833,7 +29840,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <f t="shared" si="4"/>
         <v>41834</v>
@@ -28851,7 +29858,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <f t="shared" si="4"/>
         <v>41848</v>
@@ -28869,7 +29876,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <f t="shared" si="4"/>
         <v>41983</v>
@@ -28887,7 +29894,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <f t="shared" si="4"/>
         <v>42024</v>
@@ -28905,7 +29912,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <f t="shared" si="4"/>
         <v>42082</v>
@@ -28923,9 +29930,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <f t="shared" ref="A66:A78" si="5">+B66-693960</f>
+        <f t="shared" ref="A66:A79" si="5">+B66-693960</f>
         <v>42109</v>
       </c>
       <c r="B66" s="13">
@@ -28941,7 +29948,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <f t="shared" si="5"/>
         <v>42123</v>
@@ -28959,7 +29966,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <f t="shared" si="5"/>
         <v>42138</v>
@@ -28977,7 +29984,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <f t="shared" si="5"/>
         <v>42146</v>
@@ -28995,7 +30002,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <f t="shared" si="5"/>
         <v>42161</v>
@@ -29004,7 +30011,7 @@
         <v>736121</v>
       </c>
       <c r="C70" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D70" t="s">
         <v>140</v>
@@ -29013,25 +30020,25 @@
         <v>312</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="1">
+    <row r="71" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="40">
         <f t="shared" si="5"/>
         <v>42165</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="41">
         <v>736125</v>
       </c>
-      <c r="C71" t="s">
-        <v>264</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="C71" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="D71" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="43">
         <v>312</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <f t="shared" si="5"/>
         <v>42338</v>
@@ -29040,7 +30047,7 @@
         <v>736298</v>
       </c>
       <c r="C72" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D72" t="s">
         <v>140</v>
@@ -29049,7 +30056,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <f t="shared" si="5"/>
         <v>42360</v>
@@ -29067,25 +30074,25 @@
         <v>312</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="1">
+    <row r="74" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="40">
         <f t="shared" si="5"/>
         <v>42382</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="41">
         <v>736342</v>
       </c>
-      <c r="C74" t="s">
-        <v>266</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="C74" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="D74" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="43">
         <v>312</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <f t="shared" si="5"/>
         <v>42401</v>
@@ -29103,7 +30110,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <f t="shared" si="5"/>
         <v>42417</v>
@@ -29112,7 +30119,7 @@
         <v>736377</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D76" t="s">
         <v>140</v>
@@ -29121,25 +30128,25 @@
         <v>312</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="1">
+    <row r="77" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="40">
         <f t="shared" si="5"/>
         <v>42439</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="41">
         <v>736399</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="C77" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="D77" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="43">
         <v>312</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <f t="shared" si="5"/>
         <v>42458</v>
@@ -29148,12 +30155,66 @@
         <v>736418</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D78" t="s">
         <v>140</v>
       </c>
       <c r="E78">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="40">
+        <f t="shared" si="5"/>
+        <v>42544</v>
+      </c>
+      <c r="B79" s="41">
+        <v>736504</v>
+      </c>
+      <c r="C79" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="D79" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="E79" s="43">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="40">
+        <f>+B80-693960</f>
+        <v>42564</v>
+      </c>
+      <c r="B80" s="41">
+        <v>736524</v>
+      </c>
+      <c r="C80" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="D80" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="E80" s="43">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <f>+B81-693960</f>
+        <v>42618</v>
+      </c>
+      <c r="B81" s="4">
+        <v>736578</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D81" t="s">
+        <v>140</v>
+      </c>
+      <c r="E81">
         <v>312</v>
       </c>
     </row>
@@ -29161,23 +30222,18 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E103"/>
+  <dimension ref="A2:E105"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" style="6" customWidth="1"/>
@@ -29185,7 +30241,7 @@
     <col min="5" max="5" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="28">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>39923</v>
       </c>
@@ -29196,7 +30252,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.75" customHeight="1">
+    <row r="3" spans="1:5" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>40078</v>
       </c>
@@ -29204,7 +30260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>40179</v>
       </c>
@@ -29212,7 +30268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>40254</v>
       </c>
@@ -29229,7 +30285,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>40336</v>
       </c>
@@ -29240,7 +30296,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>40373</v>
       </c>
@@ -29248,7 +30304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>40391</v>
       </c>
@@ -29256,7 +30312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>40681</v>
       </c>
@@ -29264,7 +30320,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>40682</v>
       </c>
@@ -29272,7 +30328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>40696</v>
       </c>
@@ -29280,7 +30336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>40701</v>
       </c>
@@ -29288,7 +30344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>40722</v>
       </c>
@@ -29296,7 +30352,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>40729</v>
       </c>
@@ -29304,7 +30360,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>40742</v>
       </c>
@@ -29312,7 +30368,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>40748</v>
       </c>
@@ -29320,7 +30376,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>40753</v>
       </c>
@@ -29328,7 +30384,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>40756</v>
       </c>
@@ -29336,7 +30392,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>40818</v>
       </c>
@@ -29344,7 +30400,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>40855</v>
       </c>
@@ -29352,7 +30408,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>40897</v>
       </c>
@@ -29360,7 +30416,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="42">
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>40940</v>
       </c>
@@ -29377,7 +30433,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>40970</v>
       </c>
@@ -29388,7 +30444,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>40994</v>
       </c>
@@ -29399,7 +30455,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>41010</v>
       </c>
@@ -29407,7 +30463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="28">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>41015</v>
       </c>
@@ -29415,7 +30471,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>41021</v>
       </c>
@@ -29423,7 +30479,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>41030</v>
       </c>
@@ -29440,7 +30496,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="28">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>41044</v>
       </c>
@@ -29451,7 +30507,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="28">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>41059</v>
       </c>
@@ -29462,7 +30518,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="28">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>41085</v>
       </c>
@@ -29479,7 +30535,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>41102</v>
       </c>
@@ -29487,7 +30543,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>41135</v>
       </c>
@@ -29495,7 +30551,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>41187</v>
       </c>
@@ -29503,7 +30559,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>41204</v>
       </c>
@@ -29511,7 +30567,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>41206</v>
       </c>
@@ -29519,7 +30575,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>41208</v>
       </c>
@@ -29527,7 +30583,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="14" customFormat="1">
+    <row r="38" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>41213</v>
       </c>
@@ -29535,7 +30591,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>41225</v>
       </c>
@@ -29552,7 +30608,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>41241</v>
       </c>
@@ -29560,7 +30616,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>41260</v>
       </c>
@@ -29568,7 +30624,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>41311</v>
       </c>
@@ -29576,7 +30632,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="28">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>41264</v>
       </c>
@@ -29584,7 +30640,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="15">
         <v>41335</v>
       </c>
@@ -29592,7 +30648,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="15">
         <v>41344</v>
       </c>
@@ -29600,7 +30656,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="15">
         <v>41350</v>
       </c>
@@ -29608,7 +30664,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="15">
         <v>41351</v>
       </c>
@@ -29616,7 +30672,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="28">
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" s="15">
         <v>41354</v>
       </c>
@@ -29624,7 +30680,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="15">
         <v>41359</v>
       </c>
@@ -29632,7 +30688,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="15">
         <v>41376</v>
       </c>
@@ -29640,7 +30696,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="15">
         <v>41379</v>
       </c>
@@ -29648,7 +30704,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="15">
         <v>41394</v>
       </c>
@@ -29665,7 +30721,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="15">
         <v>41395</v>
       </c>
@@ -29682,7 +30738,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="15">
         <v>41396</v>
       </c>
@@ -29699,7 +30755,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="15">
         <v>41397</v>
       </c>
@@ -29716,7 +30772,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="15">
         <v>41398</v>
       </c>
@@ -29733,7 +30789,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="15">
         <v>41404</v>
       </c>
@@ -29744,7 +30800,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="15">
         <v>41433</v>
       </c>
@@ -29752,7 +30808,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="15">
         <v>41519</v>
       </c>
@@ -29760,7 +30816,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="15">
         <v>41521</v>
       </c>
@@ -29777,7 +30833,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="15">
         <v>41545</v>
       </c>
@@ -29785,7 +30841,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="15">
         <v>41546</v>
       </c>
@@ -29793,7 +30849,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="42">
+    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A63" s="15">
         <v>41571</v>
       </c>
@@ -29801,7 +30857,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="15">
         <v>41211</v>
       </c>
@@ -29809,7 +30865,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="15">
         <v>41615</v>
       </c>
@@ -29817,7 +30873,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="15">
         <v>41617</v>
       </c>
@@ -29825,7 +30881,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="15">
         <v>41626</v>
       </c>
@@ -29833,7 +30889,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="15">
         <v>41635</v>
       </c>
@@ -29841,7 +30897,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="15">
         <v>41683</v>
       </c>
@@ -29849,7 +30905,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="15">
         <v>41725</v>
       </c>
@@ -29857,7 +30913,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="15">
         <v>41729</v>
       </c>
@@ -29865,7 +30921,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="15">
         <v>41744</v>
       </c>
@@ -29873,7 +30929,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="15">
         <v>41823</v>
       </c>
@@ -29881,7 +30937,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="15">
         <v>41834</v>
       </c>
@@ -29889,7 +30945,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="15">
         <v>41848</v>
       </c>
@@ -29897,7 +30953,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="15">
         <v>41855</v>
       </c>
@@ -29905,7 +30961,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="15">
         <v>41929</v>
       </c>
@@ -29913,7 +30969,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="15">
         <v>41934</v>
       </c>
@@ -29921,7 +30977,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="15">
         <v>41961</v>
       </c>
@@ -29929,7 +30985,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="15">
         <v>41967</v>
       </c>
@@ -29937,7 +30993,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="15">
         <v>41969</v>
       </c>
@@ -29945,7 +31001,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="15">
         <v>41974</v>
       </c>
@@ -29953,7 +31009,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="15">
         <v>41983</v>
       </c>
@@ -29970,7 +31026,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="15">
         <v>41984</v>
       </c>
@@ -29987,7 +31043,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="15">
         <v>41986</v>
       </c>
@@ -30004,7 +31060,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="15">
         <v>41987</v>
       </c>
@@ -30021,7 +31077,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="15">
         <v>42024</v>
       </c>
@@ -30029,7 +31085,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="15">
         <v>42082</v>
       </c>
@@ -30037,7 +31093,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="15">
         <v>42104</v>
       </c>
@@ -30045,7 +31101,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="15">
         <v>42109</v>
       </c>
@@ -30053,7 +31109,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="15">
         <v>42123</v>
       </c>
@@ -30061,7 +31117,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="15">
         <v>42138</v>
       </c>
@@ -30069,102 +31125,558 @@
         <v>175</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>42192</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>42276</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>42292</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>42338</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>42360</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>42382</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>42401</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>42417</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>42424</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>42439</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>42458</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>42544</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>42564</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="17">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="17">
+        <v>0</v>
+      </c>
+      <c r="C4" s="17">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="17">
+        <v>0</v>
+      </c>
+      <c r="C5" s="17">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="17">
+        <v>0</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="17">
+        <v>0</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="17">
+        <v>0</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="18">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="18">
+        <v>2.35</v>
+      </c>
+      <c r="C10" s="18">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="19">
+        <v>1.1495</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1.1495</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="11">
+        <v>1565</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="17">
+        <v>80</v>
+      </c>
+      <c r="C13" s="17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="17">
+        <v>2.9000000000000002E-8</v>
+      </c>
+      <c r="C14" s="17">
+        <v>2.9000000000000002E-8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="17">
+        <v>1020</v>
+      </c>
+      <c r="C15" s="17">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="17">
+        <v>14</v>
+      </c>
+      <c r="C16" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="17">
+        <v>2423</v>
+      </c>
+      <c r="C17" s="17">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="17">
+        <v>0</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="17">
+        <v>4370</v>
+      </c>
+      <c r="C19" s="17">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="17">
+        <v>10250</v>
+      </c>
+      <c r="C20" s="17">
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="17">
+        <v>14150</v>
+      </c>
+      <c r="C21" s="17">
+        <v>14150</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="17">
+        <v>21800</v>
+      </c>
+      <c r="C22" s="17">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="17">
+        <v>26400</v>
+      </c>
+      <c r="C23" s="17">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="17">
+        <v>2972</v>
+      </c>
+      <c r="C24" s="17">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="17">
+        <v>1</v>
+      </c>
+      <c r="C26" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="17">
+        <v>0</v>
+      </c>
+      <c r="C27" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="17">
+        <v>0</v>
+      </c>
+      <c r="C28" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="17">
+        <v>0</v>
+      </c>
+      <c r="C29" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="17">
+        <v>0</v>
+      </c>
+      <c r="C30" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="17">
+        <v>0</v>
+      </c>
+      <c r="C31" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="17">
+        <v>0</v>
+      </c>
+      <c r="C32" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="17">
+        <v>0</v>
+      </c>
+      <c r="C33" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="17">
+        <v>0</v>
+      </c>
+      <c r="C34" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="17">
+        <v>0</v>
+      </c>
+      <c r="C35" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="17">
+        <v>242</v>
+      </c>
+      <c r="C36" s="17">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="17">
+        <v>-3</v>
+      </c>
+      <c r="C37" s="17">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="17">
+        <v>770</v>
+      </c>
+      <c r="C38" s="17">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="17">
+        <v>740</v>
+      </c>
+      <c r="C39" s="17">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="17">
+        <v>8028</v>
+      </c>
+      <c r="C40" s="17">
+        <v>8028</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="17">
+        <v>178</v>
+      </c>
+      <c r="C41" s="17">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="17">
+        <v>2526</v>
+      </c>
+      <c r="C42" s="17">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="17">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="C43" s="17">
+        <v>0.99529999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="17">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C44" s="17">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45" s="17">
+        <v>1733</v>
+      </c>
+      <c r="C45" s="17">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" s="17">
+        <v>250</v>
+      </c>
+      <c r="C46" s="17">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B47" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="C47" s="17">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48" s="17">
+        <v>64</v>
+      </c>
+      <c r="C48" s="17">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="17">
+        <v>256</v>
+      </c>
+      <c r="C49" s="17">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="17">
+        <v>0</v>
+      </c>
+      <c r="C50" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="17">
+        <v>0</v>
+      </c>
+      <c r="C51" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="17">
+        <v>0</v>
+      </c>
+      <c r="C52" s="17">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="17">
+        <v>2224</v>
+      </c>
+      <c r="C53" s="17">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/icf185.xlsx
+++ b/icf185.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="460" windowWidth="28480" windowHeight="16540" activeTab="1"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="28480" windowHeight="16540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="icf.185" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="290">
   <si>
     <t>#</t>
   </si>
@@ -887,17 +887,29 @@
   <si>
     <t>icf19116</t>
   </si>
+  <si>
+    <t>"Bad weather"</t>
+  </si>
+  <si>
+    <t>"185 roof"</t>
+  </si>
+  <si>
+    <t>Bad weather</t>
+  </si>
+  <si>
+    <t>185 Roof</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="d\-m\-yy;@"/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="d\-m\-yy;@"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -926,19 +938,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -960,10 +959,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -991,7 +990,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1001,7 +1000,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1033,12 +1032,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1443,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE55"/>
+  <dimension ref="A1:CG55"/>
   <sheetViews>
     <sheetView topLeftCell="BQ1" workbookViewId="0">
-      <selection activeCell="CA12" sqref="CA12"/>
+      <selection activeCell="CF1" sqref="CF1:CG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1473,7 +1466,7 @@
     <col min="74" max="16384" width="11.33203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="20"/>
       <c r="C1" s="21">
@@ -1800,8 +1793,16 @@
         <f>+CE2-693960</f>
         <v>42618</v>
       </c>
-    </row>
-    <row r="2" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CF1" s="1">
+        <f>+CF2-693960</f>
+        <v>42705</v>
+      </c>
+      <c r="CG1" s="1">
+        <f>+CG2-693960</f>
+        <v>42709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:85" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -2051,8 +2052,14 @@
       <c r="CE2" s="4">
         <v>736578</v>
       </c>
-    </row>
-    <row r="3" spans="1:83" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CF2" s="22">
+        <v>736665</v>
+      </c>
+      <c r="CG2" s="22">
+        <v>736669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:85" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -2302,8 +2309,14 @@
       <c r="CE3" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF3" s="27">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -2553,8 +2566,14 @@
       <c r="CE4" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF4" s="27">
+        <v>0</v>
+      </c>
+      <c r="CG4" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -2804,8 +2823,14 @@
       <c r="CE5" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF5" s="27">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -3055,8 +3080,14 @@
       <c r="CE6" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF6" s="27">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -3306,8 +3337,14 @@
       <c r="CE7" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF7" s="27">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -3557,8 +3594,14 @@
       <c r="CE8" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -3808,8 +3851,14 @@
       <c r="CE9" s="20">
         <v>0.34200000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF9" s="20">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="CG9" s="20">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -4059,8 +4108,14 @@
       <c r="CE10" s="20">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="11" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF10" s="20">
+        <v>2.35</v>
+      </c>
+      <c r="CG10" s="20">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -4310,8 +4365,14 @@
       <c r="CE11" s="31">
         <v>11495</v>
       </c>
-    </row>
-    <row r="12" spans="1:83" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CF11" s="31">
+        <v>11495</v>
+      </c>
+      <c r="CG11" s="31">
+        <v>11495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:85" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -4561,8 +4622,14 @@
       <c r="CE12" s="20">
         <v>1570</v>
       </c>
-    </row>
-    <row r="13" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CF12" s="20">
+        <v>1570</v>
+      </c>
+      <c r="CG12" s="20">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="13" spans="1:85" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -4812,8 +4879,14 @@
       <c r="CE13" s="20">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="1:83" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CF13" s="20">
+        <v>80</v>
+      </c>
+      <c r="CG13" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:85" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -5063,8 +5136,14 @@
       <c r="CE14" s="32">
         <v>2.9000000000000002E-8</v>
       </c>
-    </row>
-    <row r="15" spans="1:83" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CF14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
+      <c r="CG14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:85" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -5314,8 +5393,14 @@
       <c r="CE15" s="20">
         <v>1020</v>
       </c>
-    </row>
-    <row r="16" spans="1:83" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CF15" s="20">
+        <v>1020</v>
+      </c>
+      <c r="CG15" s="20">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:85" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -5565,8 +5650,14 @@
       <c r="CE16" s="20">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:83" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CF16" s="20">
+        <v>14</v>
+      </c>
+      <c r="CG16" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:85" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -5816,8 +5907,14 @@
       <c r="CE17" s="20">
         <v>2423</v>
       </c>
-    </row>
-    <row r="18" spans="1:83" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CF17" s="20">
+        <v>2423</v>
+      </c>
+      <c r="CG17" s="20">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:85" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -6067,8 +6164,14 @@
       <c r="CE18" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:83" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CF18" s="20">
+        <v>0</v>
+      </c>
+      <c r="CG18" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:85" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -6318,8 +6421,14 @@
       <c r="CE19" s="22">
         <v>4370</v>
       </c>
-    </row>
-    <row r="20" spans="1:83" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CF19" s="22">
+        <v>4370</v>
+      </c>
+      <c r="CG19" s="22">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:85" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -6569,8 +6678,14 @@
       <c r="CE20" s="22">
         <v>10250</v>
       </c>
-    </row>
-    <row r="21" spans="1:83" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CF20" s="22">
+        <v>10250</v>
+      </c>
+      <c r="CG20" s="22">
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:85" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -6820,8 +6935,14 @@
       <c r="CE21" s="22">
         <v>14150</v>
       </c>
-    </row>
-    <row r="22" spans="1:83" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CF21" s="22">
+        <v>14150</v>
+      </c>
+      <c r="CG21" s="22">
+        <v>14150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:85" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -7071,8 +7192,14 @@
       <c r="CE22" s="22">
         <v>21800</v>
       </c>
-    </row>
-    <row r="23" spans="1:83" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CF22" s="22">
+        <v>21800</v>
+      </c>
+      <c r="CG22" s="22">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:85" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -7322,8 +7449,14 @@
       <c r="CE23" s="22">
         <v>26400</v>
       </c>
-    </row>
-    <row r="24" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CF23" s="22">
+        <v>26400</v>
+      </c>
+      <c r="CG23" s="22">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:85" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -7573,8 +7706,14 @@
       <c r="CE24" s="22">
         <v>2972</v>
       </c>
-    </row>
-    <row r="25" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CF24" s="22">
+        <v>2972</v>
+      </c>
+      <c r="CG24" s="22">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:85" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -7824,8 +7963,14 @@
       <c r="CE25" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CF25" s="20">
+        <v>3</v>
+      </c>
+      <c r="CG25" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:85" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -8075,8 +8220,14 @@
       <c r="CE26" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF26" s="25">
+        <v>0</v>
+      </c>
+      <c r="CG26" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -8326,8 +8477,14 @@
       <c r="CE27" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF27" s="26">
+        <v>0</v>
+      </c>
+      <c r="CG27" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -8577,8 +8734,14 @@
       <c r="CE28" s="20">
         <v>325</v>
       </c>
-    </row>
-    <row r="29" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF28" s="20">
+        <v>325</v>
+      </c>
+      <c r="CG28" s="20">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -8828,8 +8991,14 @@
       <c r="CE29" s="26">
         <v>490</v>
       </c>
-    </row>
-    <row r="30" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF29" s="26">
+        <v>490</v>
+      </c>
+      <c r="CG29" s="26">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="30" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -9079,8 +9248,14 @@
       <c r="CE30" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF30" s="26">
+        <v>0</v>
+      </c>
+      <c r="CG30" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -9330,8 +9505,14 @@
       <c r="CE31" s="29">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF31" s="29">
+        <v>13</v>
+      </c>
+      <c r="CG31" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -9581,8 +9762,14 @@
       <c r="CE32" s="26">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF32" s="26">
+        <v>22</v>
+      </c>
+      <c r="CG32" s="26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -9832,8 +10019,14 @@
       <c r="CE33" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF33" s="26">
+        <v>0</v>
+      </c>
+      <c r="CG33" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -10083,8 +10276,14 @@
       <c r="CE34" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CF34" s="26">
+        <v>0</v>
+      </c>
+      <c r="CG34" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:85" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -10334,8 +10533,14 @@
       <c r="CE35" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CF35" s="20">
+        <v>0</v>
+      </c>
+      <c r="CG35" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:85" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -10585,8 +10790,14 @@
       <c r="CE36" s="20">
         <v>242</v>
       </c>
-    </row>
-    <row r="37" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CF36" s="20">
+        <v>242</v>
+      </c>
+      <c r="CG36" s="20">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:85" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -10836,8 +11047,14 @@
       <c r="CE37" s="25" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="38" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CF37" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="CG37" s="25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:85" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -11087,8 +11304,14 @@
       <c r="CE38" s="25">
         <v>114858349</v>
       </c>
-    </row>
-    <row r="39" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CF38" s="25">
+        <v>114858349</v>
+      </c>
+      <c r="CG38" s="25">
+        <v>114858349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:85" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -11338,8 +11561,14 @@
       <c r="CE39" s="25">
         <v>92010460</v>
       </c>
-    </row>
-    <row r="40" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CF39" s="25">
+        <v>92010460</v>
+      </c>
+      <c r="CG39" s="25">
+        <v>92010460</v>
+      </c>
+    </row>
+    <row r="40" spans="1:85" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -11589,8 +11818,14 @@
       <c r="CE40" s="25">
         <v>151909779</v>
       </c>
-    </row>
-    <row r="41" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CF40" s="25">
+        <v>151909779</v>
+      </c>
+      <c r="CG40" s="25">
+        <v>151909779</v>
+      </c>
+    </row>
+    <row r="41" spans="1:85" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -11840,8 +12075,14 @@
       <c r="CE41" s="25">
         <v>155024648</v>
       </c>
-    </row>
-    <row r="42" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CF41" s="25">
+        <v>155024648</v>
+      </c>
+      <c r="CG41" s="25">
+        <v>155024648</v>
+      </c>
+    </row>
+    <row r="42" spans="1:85" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>40</v>
       </c>
@@ -12091,8 +12332,14 @@
       <c r="CE42" s="25">
         <v>170169377</v>
       </c>
-    </row>
-    <row r="43" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF42" s="25">
+        <v>170169377</v>
+      </c>
+      <c r="CG42" s="25">
+        <v>170169377</v>
+      </c>
+    </row>
+    <row r="43" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -12342,8 +12589,14 @@
       <c r="CE43" s="26">
         <v>1.0049999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="CG43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -12593,8 +12846,14 @@
       <c r="CE44" s="26">
         <v>-10</v>
       </c>
-    </row>
-    <row r="45" spans="1:83" s="22" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CF44" s="26">
+        <v>-10</v>
+      </c>
+      <c r="CG44" s="26">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:85" s="22" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -12844,8 +13103,14 @@
       <c r="CE45" s="20">
         <v>1733</v>
       </c>
-    </row>
-    <row r="46" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CF45" s="20">
+        <v>1733</v>
+      </c>
+      <c r="CG45" s="20">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="46" spans="1:85" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>44</v>
       </c>
@@ -13095,8 +13360,14 @@
       <c r="CE46" s="20">
         <v>250</v>
       </c>
-    </row>
-    <row r="47" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CF46" s="20">
+        <v>250</v>
+      </c>
+      <c r="CG46" s="20">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:85" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -13346,8 +13617,14 @@
       <c r="CE47" s="20">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CF47" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="CG47" s="20">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:85" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -13597,8 +13874,14 @@
       <c r="CE48" s="20">
         <v>64</v>
       </c>
-    </row>
-    <row r="49" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CF48" s="20">
+        <v>64</v>
+      </c>
+      <c r="CG48" s="20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:85" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -13848,8 +14131,14 @@
       <c r="CE49" s="20">
         <v>256</v>
       </c>
-    </row>
-    <row r="50" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CF49" s="20">
+        <v>256</v>
+      </c>
+      <c r="CG49" s="20">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:85" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -14099,8 +14388,14 @@
       <c r="CE50" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CF50" s="20">
+        <v>0</v>
+      </c>
+      <c r="CG50" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:85" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -14350,8 +14645,14 @@
       <c r="CE51" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CF51" s="20">
+        <v>0</v>
+      </c>
+      <c r="CG51" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:85" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -14601,8 +14902,14 @@
       <c r="CE52" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CF52" s="20">
+        <v>0</v>
+      </c>
+      <c r="CG52" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:85" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -14852,8 +15159,14 @@
       <c r="CE53" s="20">
         <v>2224</v>
       </c>
-    </row>
-    <row r="54" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF53" s="20">
+        <v>2224</v>
+      </c>
+      <c r="CG53" s="20">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -15006,7 +15319,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:85" x14ac:dyDescent="0.2">
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
@@ -15033,17 +15346,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE55"/>
+  <dimension ref="A1:CG55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
-      <selection activeCell="CC12" sqref="CC12"/>
+    <sheetView topLeftCell="BV1" workbookViewId="0">
+      <selection activeCell="CG3" sqref="CG3:CG53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15070,7 +15383,7 @@
     <col min="74" max="16384" width="11.5" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="20"/>
       <c r="C1" s="21">
@@ -15397,8 +15710,16 @@
         <f>+CE2-693960</f>
         <v>42618</v>
       </c>
-    </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF1" s="1">
+        <f>+CF2-693960</f>
+        <v>42705</v>
+      </c>
+      <c r="CG1" s="1">
+        <f>+CG2-693960</f>
+        <v>42709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -15648,8 +15969,14 @@
       <c r="CE2" s="4">
         <v>736578</v>
       </c>
-    </row>
-    <row r="3" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF2" s="4">
+        <v>736665</v>
+      </c>
+      <c r="CG2" s="4">
+        <v>736669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -15899,8 +16226,14 @@
       <c r="CE3" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF3" s="27">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -16150,8 +16483,14 @@
       <c r="CE4" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF4" s="27">
+        <v>0</v>
+      </c>
+      <c r="CG4" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -16401,8 +16740,14 @@
       <c r="CE5" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF5" s="27">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -16652,8 +16997,14 @@
       <c r="CE6" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF6" s="27">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -16903,8 +17254,14 @@
       <c r="CE7" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF7" s="27">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -17154,8 +17511,14 @@
       <c r="CE8" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:83" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CF8" s="20">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:85" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -17405,8 +17768,14 @@
       <c r="CE9" s="20">
         <v>0.34100000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:83" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CF9" s="20">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="CG9" s="20">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:85" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -17656,8 +18025,14 @@
       <c r="CE10" s="20">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="11" spans="1:83" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CF10" s="20">
+        <v>2.35</v>
+      </c>
+      <c r="CG10" s="20">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -17907,8 +18282,14 @@
       <c r="CE11" s="31">
         <v>11495</v>
       </c>
-    </row>
-    <row r="12" spans="1:83" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CF11" s="31">
+        <v>11495</v>
+      </c>
+      <c r="CG11" s="31">
+        <v>11495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:85" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -18126,22 +18507,22 @@
         <v>1580</v>
       </c>
       <c r="BU12" s="20">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="BV12" s="20">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="BW12" s="20">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="BX12" s="20">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="BY12" s="20">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="BZ12" s="20">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="CA12" s="20">
         <v>1565</v>
@@ -18150,16 +18531,22 @@
         <v>1565</v>
       </c>
       <c r="CC12" s="20">
-        <v>1575</v>
+        <v>1565</v>
       </c>
       <c r="CD12" s="20">
-        <v>1575</v>
+        <v>1565</v>
       </c>
       <c r="CE12" s="20">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="13" spans="1:83" x14ac:dyDescent="0.2">
+        <v>1565</v>
+      </c>
+      <c r="CF12" s="20">
+        <v>1565</v>
+      </c>
+      <c r="CG12" s="20">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -18409,8 +18796,14 @@
       <c r="CE13" s="20">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF13" s="20">
+        <v>80</v>
+      </c>
+      <c r="CG13" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -18660,8 +19053,14 @@
       <c r="CE14" s="32">
         <v>2.9000000000000002E-8</v>
       </c>
-    </row>
-    <row r="15" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
+      <c r="CG14" s="32">
+        <v>2.9000000000000002E-8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -18911,8 +19310,14 @@
       <c r="CE15" s="20">
         <v>1020</v>
       </c>
-    </row>
-    <row r="16" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF15" s="20">
+        <v>1020</v>
+      </c>
+      <c r="CG15" s="20">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -19162,8 +19567,14 @@
       <c r="CE16" s="20">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF16" s="20">
+        <v>14</v>
+      </c>
+      <c r="CG16" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -19413,8 +19824,14 @@
       <c r="CE17" s="20">
         <v>2423</v>
       </c>
-    </row>
-    <row r="18" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF17" s="20">
+        <v>2423</v>
+      </c>
+      <c r="CG17" s="20">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -19664,8 +20081,14 @@
       <c r="CE18" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF18" s="20">
+        <v>0</v>
+      </c>
+      <c r="CG18" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -19915,8 +20338,14 @@
       <c r="CE19" s="22">
         <v>4370</v>
       </c>
-    </row>
-    <row r="20" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF19" s="22">
+        <v>4370</v>
+      </c>
+      <c r="CG19" s="22">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -20166,8 +20595,14 @@
       <c r="CE20" s="22">
         <v>10250</v>
       </c>
-    </row>
-    <row r="21" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF20" s="22">
+        <v>10250</v>
+      </c>
+      <c r="CG20" s="22">
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -20417,8 +20852,14 @@
       <c r="CE21" s="22">
         <v>14150</v>
       </c>
-    </row>
-    <row r="22" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF21" s="22">
+        <v>14150</v>
+      </c>
+      <c r="CG21" s="22">
+        <v>14150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -20668,8 +21109,14 @@
       <c r="CE22" s="22">
         <v>21800</v>
       </c>
-    </row>
-    <row r="23" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF22" s="22">
+        <v>21800</v>
+      </c>
+      <c r="CG22" s="22">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -20919,8 +21366,14 @@
       <c r="CE23" s="22">
         <v>26400</v>
       </c>
-    </row>
-    <row r="24" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF23" s="22">
+        <v>26400</v>
+      </c>
+      <c r="CG23" s="22">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -21170,8 +21623,14 @@
       <c r="CE24" s="22">
         <v>2972</v>
       </c>
-    </row>
-    <row r="25" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF24" s="22">
+        <v>2972</v>
+      </c>
+      <c r="CG24" s="22">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -21421,8 +21880,14 @@
       <c r="CE25" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF25" s="20">
+        <v>3</v>
+      </c>
+      <c r="CG25" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -21672,8 +22137,14 @@
       <c r="CE26" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF26" s="25">
+        <v>0</v>
+      </c>
+      <c r="CG26" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -21923,8 +22394,14 @@
       <c r="CE27" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF27" s="26">
+        <v>0</v>
+      </c>
+      <c r="CG27" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -22174,8 +22651,14 @@
       <c r="CE28" s="20">
         <v>325</v>
       </c>
-    </row>
-    <row r="29" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF28" s="20">
+        <v>325</v>
+      </c>
+      <c r="CG28" s="20">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -22425,8 +22908,14 @@
       <c r="CE29" s="26">
         <v>490</v>
       </c>
-    </row>
-    <row r="30" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF29" s="26">
+        <v>490</v>
+      </c>
+      <c r="CG29" s="26">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="30" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -22676,8 +23165,14 @@
       <c r="CE30" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF30" s="26">
+        <v>0</v>
+      </c>
+      <c r="CG30" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -22883,52 +23378,58 @@
         <v>11</v>
       </c>
       <c r="BQ31" s="29">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BR31" s="29">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BS31" s="29">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BT31" s="29">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BU31" s="29">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BV31" s="29">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BW31" s="29">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BX31" s="29">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BY31" s="29">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BZ31" s="29">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CA31" s="29">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CB31" s="29">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CC31" s="29">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CD31" s="29">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CE31" s="29">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:83" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="CF31" s="29">
+        <v>15</v>
+      </c>
+      <c r="CG31" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -23178,8 +23679,14 @@
       <c r="CE32" s="26">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF32" s="26">
+        <v>22</v>
+      </c>
+      <c r="CG32" s="26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -23429,8 +23936,14 @@
       <c r="CE33" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF33" s="26">
+        <v>0</v>
+      </c>
+      <c r="CG33" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -23680,8 +24193,14 @@
       <c r="CE34" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF34" s="26">
+        <v>0</v>
+      </c>
+      <c r="CG34" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -23931,8 +24450,14 @@
       <c r="CE35" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF35" s="20">
+        <v>0</v>
+      </c>
+      <c r="CG35" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -24182,8 +24707,14 @@
       <c r="CE36" s="20">
         <v>242</v>
       </c>
-    </row>
-    <row r="37" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF36" s="20">
+        <v>242</v>
+      </c>
+      <c r="CG36" s="20">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -24433,8 +24964,14 @@
       <c r="CE37" s="25" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="38" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF37" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="CG37" s="25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -24684,8 +25221,14 @@
       <c r="CE38" s="25">
         <v>114858349</v>
       </c>
-    </row>
-    <row r="39" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF38" s="25">
+        <v>114858349</v>
+      </c>
+      <c r="CG38" s="25">
+        <v>114858349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -24935,8 +25478,14 @@
       <c r="CE39" s="25">
         <v>92010460</v>
       </c>
-    </row>
-    <row r="40" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF39" s="25">
+        <v>92010460</v>
+      </c>
+      <c r="CG39" s="25">
+        <v>92010460</v>
+      </c>
+    </row>
+    <row r="40" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -25186,8 +25735,14 @@
       <c r="CE40" s="25">
         <v>151909779</v>
       </c>
-    </row>
-    <row r="41" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF40" s="25">
+        <v>151909779</v>
+      </c>
+      <c r="CG40" s="25">
+        <v>151909779</v>
+      </c>
+    </row>
+    <row r="41" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -25437,8 +25992,14 @@
       <c r="CE41" s="25">
         <v>155024648</v>
       </c>
-    </row>
-    <row r="42" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF41" s="25">
+        <v>155024648</v>
+      </c>
+      <c r="CG41" s="25">
+        <v>155024648</v>
+      </c>
+    </row>
+    <row r="42" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>40</v>
       </c>
@@ -25688,8 +26249,14 @@
       <c r="CE42" s="25">
         <v>170169377</v>
       </c>
-    </row>
-    <row r="43" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF42" s="25">
+        <v>170169377</v>
+      </c>
+      <c r="CG42" s="25">
+        <v>170169377</v>
+      </c>
+    </row>
+    <row r="43" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -25939,8 +26506,14 @@
       <c r="CE43" s="26">
         <v>1.0049999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="CG43" s="26">
+        <v>1.0049999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -26190,8 +26763,14 @@
       <c r="CE44" s="26">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="45" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF44" s="26">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="CG44" s="26">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -26441,8 +27020,14 @@
       <c r="CE45" s="20">
         <v>1733</v>
       </c>
-    </row>
-    <row r="46" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF45" s="20">
+        <v>1733</v>
+      </c>
+      <c r="CG45" s="20">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="46" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>44</v>
       </c>
@@ -26692,8 +27277,14 @@
       <c r="CE46" s="20">
         <v>250</v>
       </c>
-    </row>
-    <row r="47" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF46" s="20">
+        <v>250</v>
+      </c>
+      <c r="CG46" s="20">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -26943,8 +27534,14 @@
       <c r="CE47" s="20">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF47" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="CG47" s="20">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -27194,8 +27791,14 @@
       <c r="CE48" s="20">
         <v>64</v>
       </c>
-    </row>
-    <row r="49" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF48" s="20">
+        <v>64</v>
+      </c>
+      <c r="CG48" s="20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -27445,8 +28048,14 @@
       <c r="CE49" s="20">
         <v>256</v>
       </c>
-    </row>
-    <row r="50" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF49" s="20">
+        <v>256</v>
+      </c>
+      <c r="CG49" s="20">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -27696,8 +28305,14 @@
       <c r="CE50" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF50" s="20">
+        <v>0</v>
+      </c>
+      <c r="CG50" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -27947,8 +28562,14 @@
       <c r="CE51" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF51" s="20">
+        <v>0</v>
+      </c>
+      <c r="CG51" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -28198,8 +28819,14 @@
       <c r="CE52" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF52" s="20">
+        <v>0</v>
+      </c>
+      <c r="CG52" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -28449,8 +29076,14 @@
       <c r="CE53" s="20">
         <v>2224</v>
       </c>
-    </row>
-    <row r="54" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="CF53" s="20">
+        <v>2224</v>
+      </c>
+      <c r="CG53" s="20">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -28613,7 +29246,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A55" s="22"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -28692,17 +29325,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:XFD71"/>
+      <selection activeCell="D83" sqref="D83:E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30020,21 +30653,21 @@
         <v>312</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="40">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
         <f t="shared" si="5"/>
         <v>42165</v>
       </c>
-      <c r="B71" s="41">
+      <c r="B71" s="4">
         <v>736125</v>
       </c>
-      <c r="C71" s="43" t="s">
+      <c r="C71" t="s">
         <v>263</v>
       </c>
-      <c r="D71" s="43" t="s">
+      <c r="D71" t="s">
         <v>140</v>
       </c>
-      <c r="E71" s="43">
+      <c r="E71">
         <v>312</v>
       </c>
     </row>
@@ -30074,21 +30707,21 @@
         <v>312</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="40">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
         <f t="shared" si="5"/>
         <v>42382</v>
       </c>
-      <c r="B74" s="41">
+      <c r="B74" s="4">
         <v>736342</v>
       </c>
-      <c r="C74" s="43" t="s">
+      <c r="C74" t="s">
         <v>265</v>
       </c>
-      <c r="D74" s="43" t="s">
+      <c r="D74" t="s">
         <v>140</v>
       </c>
-      <c r="E74" s="43">
+      <c r="E74">
         <v>312</v>
       </c>
     </row>
@@ -30128,21 +30761,21 @@
         <v>312</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="40">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
         <f t="shared" si="5"/>
         <v>42439</v>
       </c>
-      <c r="B77" s="41">
+      <c r="B77" s="4">
         <v>736399</v>
       </c>
-      <c r="C77" s="42" t="s">
+      <c r="C77" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="D77" s="43" t="s">
+      <c r="D77" t="s">
         <v>140</v>
       </c>
-      <c r="E77" s="43">
+      <c r="E77">
         <v>312</v>
       </c>
     </row>
@@ -30164,39 +30797,39 @@
         <v>312</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="40">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
         <f t="shared" si="5"/>
         <v>42544</v>
       </c>
-      <c r="B79" s="41">
+      <c r="B79" s="4">
         <v>736504</v>
       </c>
-      <c r="C79" s="42" t="s">
+      <c r="C79" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="D79" s="43" t="s">
+      <c r="D79" t="s">
         <v>140</v>
       </c>
-      <c r="E79" s="43">
+      <c r="E79">
         <v>312</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="40">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
         <f>+B80-693960</f>
         <v>42564</v>
       </c>
-      <c r="B80" s="41">
+      <c r="B80" s="4">
         <v>736524</v>
       </c>
-      <c r="C80" s="42" t="s">
+      <c r="C80" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D80" s="43" t="s">
+      <c r="D80" t="s">
         <v>140</v>
       </c>
-      <c r="E80" s="43">
+      <c r="E80">
         <v>312</v>
       </c>
     </row>
@@ -30218,19 +30851,55 @@
         <v>312</v>
       </c>
     </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <f>+B82-693960</f>
+        <v>42705</v>
+      </c>
+      <c r="B82" s="4">
+        <v>736665</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D82" t="s">
+        <v>140</v>
+      </c>
+      <c r="E82">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <f>+B83-693960</f>
+        <v>42709</v>
+      </c>
+      <c r="B83" s="4">
+        <v>736669</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D83" t="s">
+        <v>140</v>
+      </c>
+      <c r="E83">
+        <v>312</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E105"/>
+  <dimension ref="A2:E107"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -31214,7 +31883,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
+      <c r="A104" s="5">
         <v>42544</v>
       </c>
       <c r="B104" s="6" t="s">
@@ -31225,7 +31894,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
+      <c r="A105" s="5">
         <v>42564</v>
       </c>
       <c r="B105" s="6" t="s">
@@ -31235,9 +31904,25 @@
         <v>76</v>
       </c>
     </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="5">
+        <v>42705</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="5">
+        <v>42709</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
@@ -31677,6 +32362,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/icf185.xlsx
+++ b/icf185.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="28480" windowHeight="16540" activeTab="3"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="28480" windowHeight="16460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="icf.185" sheetId="1" r:id="rId1"/>
@@ -15355,8 +15355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CG55"/>
   <sheetViews>
-    <sheetView topLeftCell="BV1" workbookViewId="0">
-      <selection activeCell="CG3" sqref="CG3:CG53"/>
+    <sheetView tabSelected="1" topLeftCell="BV1" workbookViewId="0">
+      <selection activeCell="BW12" sqref="BW12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16457,37 +16457,37 @@
         <v>0</v>
       </c>
       <c r="BW4" s="27">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="BX4" s="27">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="BY4" s="27">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="BZ4" s="27">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="CA4" s="27">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="CB4" s="27">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="CC4" s="27">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="CD4" s="27">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="CE4" s="27">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="CF4" s="27">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="CG4" s="27">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="5" spans="1:85" x14ac:dyDescent="0.2">
@@ -16714,37 +16714,37 @@
         <v>0</v>
       </c>
       <c r="BW5" s="27">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="BX5" s="27">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="BY5" s="27">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="BZ5" s="27">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="CA5" s="27">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="CB5" s="27">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="CC5" s="27">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="CD5" s="27">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="CE5" s="27">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="CF5" s="27">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="CG5" s="27">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="6" spans="1:85" x14ac:dyDescent="0.2">
@@ -17228,37 +17228,37 @@
         <v>0</v>
       </c>
       <c r="BW7" s="27">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="BX7" s="27">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="BY7" s="27">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="BZ7" s="27">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="CA7" s="27">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="CB7" s="27">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="CC7" s="27">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="CD7" s="27">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="CE7" s="27">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="CF7" s="27">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="CG7" s="27">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:85" x14ac:dyDescent="0.2">
@@ -30898,7 +30898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>

--- a/icf185.xlsx
+++ b/icf185.xlsx
@@ -15356,7 +15356,7 @@
   <dimension ref="A1:CG55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BV1" workbookViewId="0">
-      <selection activeCell="BW12" sqref="BW12"/>
+      <selection activeCell="CG13" sqref="CG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18513,37 +18513,37 @@
         <v>1565</v>
       </c>
       <c r="BW12" s="20">
-        <v>1565</v>
+        <v>1540</v>
       </c>
       <c r="BX12" s="20">
-        <v>1565</v>
+        <v>1540</v>
       </c>
       <c r="BY12" s="20">
-        <v>1565</v>
+        <v>1540</v>
       </c>
       <c r="BZ12" s="20">
-        <v>1565</v>
+        <v>1540</v>
       </c>
       <c r="CA12" s="20">
-        <v>1565</v>
+        <v>1540</v>
       </c>
       <c r="CB12" s="20">
-        <v>1565</v>
+        <v>1540</v>
       </c>
       <c r="CC12" s="20">
-        <v>1565</v>
+        <v>1540</v>
       </c>
       <c r="CD12" s="20">
-        <v>1565</v>
+        <v>1540</v>
       </c>
       <c r="CE12" s="20">
-        <v>1565</v>
+        <v>1540</v>
       </c>
       <c r="CF12" s="20">
-        <v>1565</v>
+        <v>1540</v>
       </c>
       <c r="CG12" s="20">
-        <v>1565</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="13" spans="1:85" x14ac:dyDescent="0.2">

--- a/icf185.xlsx
+++ b/icf185.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="28480" windowHeight="16460" activeTab="1"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="28480" windowHeight="16420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="icf.185" sheetId="1" r:id="rId1"/>
@@ -15356,7 +15356,7 @@
   <dimension ref="A1:CG55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BV1" workbookViewId="0">
-      <selection activeCell="CG13" sqref="CG13"/>
+      <selection activeCell="BW4" sqref="BW4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16457,37 +16457,37 @@
         <v>0</v>
       </c>
       <c r="BW4" s="27">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BX4" s="27">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BY4" s="27">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BZ4" s="27">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="CA4" s="27">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="CB4" s="27">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="CC4" s="27">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="CD4" s="27">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="CE4" s="27">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="CF4" s="27">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="CG4" s="27">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="5" spans="1:85" x14ac:dyDescent="0.2">
@@ -16714,37 +16714,37 @@
         <v>0</v>
       </c>
       <c r="BW5" s="27">
-        <v>-0.2</v>
+        <v>-0.46</v>
       </c>
       <c r="BX5" s="27">
-        <v>-0.2</v>
+        <v>-0.46</v>
       </c>
       <c r="BY5" s="27">
-        <v>-0.2</v>
+        <v>-0.46</v>
       </c>
       <c r="BZ5" s="27">
-        <v>-0.2</v>
+        <v>-0.46</v>
       </c>
       <c r="CA5" s="27">
-        <v>-0.2</v>
+        <v>-0.46</v>
       </c>
       <c r="CB5" s="27">
-        <v>-0.2</v>
+        <v>-0.46</v>
       </c>
       <c r="CC5" s="27">
-        <v>-0.2</v>
+        <v>-0.46</v>
       </c>
       <c r="CD5" s="27">
-        <v>-0.2</v>
+        <v>-0.46</v>
       </c>
       <c r="CE5" s="27">
-        <v>-0.2</v>
+        <v>-0.46</v>
       </c>
       <c r="CF5" s="27">
-        <v>-0.2</v>
+        <v>-0.46</v>
       </c>
       <c r="CG5" s="27">
-        <v>-0.2</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="6" spans="1:85" x14ac:dyDescent="0.2">
@@ -16971,37 +16971,37 @@
         <v>0</v>
       </c>
       <c r="BW6" s="27">
-        <v>0</v>
+        <v>-0.38</v>
       </c>
       <c r="BX6" s="27">
-        <v>0</v>
+        <v>-0.38</v>
       </c>
       <c r="BY6" s="27">
-        <v>0</v>
+        <v>-0.38</v>
       </c>
       <c r="BZ6" s="27">
-        <v>0</v>
+        <v>-0.38</v>
       </c>
       <c r="CA6" s="27">
-        <v>0</v>
+        <v>-0.38</v>
       </c>
       <c r="CB6" s="27">
-        <v>0</v>
+        <v>-0.38</v>
       </c>
       <c r="CC6" s="27">
-        <v>0</v>
+        <v>-0.38</v>
       </c>
       <c r="CD6" s="27">
-        <v>0</v>
+        <v>-0.38</v>
       </c>
       <c r="CE6" s="27">
-        <v>0</v>
+        <v>-0.38</v>
       </c>
       <c r="CF6" s="27">
-        <v>0</v>
+        <v>-0.38</v>
       </c>
       <c r="CG6" s="27">
-        <v>0</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="7" spans="1:85" x14ac:dyDescent="0.2">
@@ -17228,37 +17228,37 @@
         <v>0</v>
       </c>
       <c r="BW7" s="27">
-        <v>0.7</v>
+        <v>-0.65</v>
       </c>
       <c r="BX7" s="27">
-        <v>0.7</v>
+        <v>-0.65</v>
       </c>
       <c r="BY7" s="27">
-        <v>0.7</v>
+        <v>-0.65</v>
       </c>
       <c r="BZ7" s="27">
-        <v>0.7</v>
+        <v>-0.65</v>
       </c>
       <c r="CA7" s="27">
-        <v>0.7</v>
+        <v>-0.65</v>
       </c>
       <c r="CB7" s="27">
-        <v>0.7</v>
+        <v>-0.65</v>
       </c>
       <c r="CC7" s="27">
-        <v>0.7</v>
+        <v>-0.65</v>
       </c>
       <c r="CD7" s="27">
-        <v>0.7</v>
+        <v>-0.65</v>
       </c>
       <c r="CE7" s="27">
-        <v>0.7</v>
+        <v>-0.65</v>
       </c>
       <c r="CF7" s="27">
-        <v>0.7</v>
+        <v>-0.65</v>
       </c>
       <c r="CG7" s="27">
-        <v>0.7</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="8" spans="1:85" x14ac:dyDescent="0.2">
